--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -12,13 +12,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
   </bookViews>
   <sheets>
-    <sheet name="Day-2018" sheetId="1" r:id="rId1"/>
-    <sheet name="Month-2018" sheetId="2" r:id="rId2"/>
-    <sheet name="Year-2018" sheetId="3" r:id="rId3"/>
+    <sheet name="Days-2018" sheetId="1" r:id="rId1"/>
+    <sheet name="Months-2018" sheetId="5" r:id="rId2"/>
+    <sheet name="Years" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Calendar_Year">'Day-2018'!$I$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Day-2018'!$3:$3</definedName>
+    <definedName name="Calendar_Year" localSheetId="1">'Months-2018'!$I$1</definedName>
+    <definedName name="Calendar_Year" localSheetId="2">Years!$I$1</definedName>
+    <definedName name="Calendar_Year">'Days-2018'!$I$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Days-2018'!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Months-2018'!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Years!$3:$3</definedName>
+    <definedName name="Title1" localSheetId="1">ToDoList2[[#Headers],[Task]]</definedName>
+    <definedName name="Title1" localSheetId="2">ToDoList3[[#Headers],[Task]]</definedName>
     <definedName name="Title1">ToDoList[[#Headers],[Task]]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
   <si>
     <t>Task</t>
   </si>
@@ -67,9 +73,6 @@
     <t>Done/Overdue?</t>
   </si>
   <si>
-    <t>TO-DO LIST</t>
-  </si>
-  <si>
     <t>Keep (1 rep)</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>Plank Challenge</t>
   </si>
   <si>
-    <t>Intermediate Fat Loss Workout</t>
-  </si>
-  <si>
     <t>Knee Push-up Challenge</t>
   </si>
   <si>
@@ -100,68 +100,538 @@
     <t>Microsoft Point</t>
   </si>
   <si>
-    <t>PC search + Mobile search</t>
-  </si>
-  <si>
-    <t>Vocabulary (5)</t>
-  </si>
-  <si>
-    <t>Intermediate Abs Workout</t>
-  </si>
-  <si>
-    <t>Java: Working with Databases Using JDBC</t>
-  </si>
-  <si>
-    <t>Android: Start Developing for Android</t>
-  </si>
-  <si>
-    <t>5 rep (times: 1)</t>
-  </si>
-  <si>
-    <t>Front End Libraries: React</t>
-  </si>
-  <si>
-    <t>1 minute (times: 1)</t>
-  </si>
-  <si>
-    <t>Java: Generics</t>
-  </si>
-  <si>
-    <t>Android: Understanding Android</t>
-  </si>
-  <si>
-    <t>Easy Japanese (Lesson 1)
-Duolingo (15 minutes)</t>
-  </si>
-  <si>
-    <t>Easy Japanese (Lesson 2)
-Duolingo (15 minutes)</t>
-  </si>
-  <si>
     <t>Get up (6AM)</t>
   </si>
   <si>
     <t>Plan for tomorrow</t>
   </si>
   <si>
-    <t>5 rep (times: 2)</t>
-  </si>
-  <si>
-    <t>1 minute (times: 2)</t>
+    <r>
+      <t xml:space="preserve">Intermediate Fat Loss Workout
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 rep (times: 1)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute (times: 1)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End Libraries: React (1/3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Generics
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android: Start Developing for Android
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 1)
+Duolingo (15 minutes)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vocabulary (5)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intermediate Abs Workout
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 rep (times: 2)
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute (times: 2)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End Libraries: React (2/3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Working with Databases Using JDBC
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Android: Understanding Android
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 2)
+Duolingo (15 minutes)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30 minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <r>
+      <t>PC search + Mobile search
+Estimate: 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>TO-DO LIST FOR MONTHS</t>
+  </si>
+  <si>
+    <t>TO-DO LIST FOR DAYS</t>
+  </si>
+  <si>
+    <t>TO-DO LIST FOR YEARS</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Workout at least 15 minutes / day</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Learn 5 vocabulary / day</t>
+  </si>
+  <si>
+    <t>Use Duolingo 15 minutes / day</t>
+  </si>
+  <si>
+    <t>Completed on Pluralsight</t>
+  </si>
+  <si>
+    <t>Earn all points</t>
+  </si>
+  <si>
+    <t>200 pounds
+10% fat</t>
+  </si>
+  <si>
+    <t>Responsive Web Design Certification (300 hours)
+Javascript Algorithms And Data Structures Certification (300 hours)
+Front End Libraries Certification (300 hours)
+Data Visualization Certification (300 hours)
+Apis And Microservices Certification (300 hours)
+Information Security And Quality Assurance Certification (300 hours)</t>
+  </si>
+  <si>
+    <t>Java
+Android
+Javascript
+React
+Python</t>
+  </si>
+  <si>
+    <t>Microsoft Points</t>
+  </si>
+  <si>
+    <t>Exchange for a Packbag</t>
+  </si>
+  <si>
+    <t>Apply Jobs</t>
+  </si>
+  <si>
+    <t>1st time in September
+2nd time in December</t>
+  </si>
+  <si>
+    <r>
+      <t>HIIT Legs - Beginner
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 rep (times: 3)
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute (times: 3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End Libraries: React (3/3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Applying Concurrency and Multi-threading
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Android: Android Programming with Intents
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 3)
+Duolingo (15 minutes)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30 minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>Completed Front End Libraries Certificate</t>
+  </si>
+  <si>
+    <t>Driving tutorial</t>
+  </si>
+  <si>
+    <t>Finish the driving lessons with Mr.Liem</t>
+  </si>
+  <si>
+    <t>Driving Licence</t>
+  </si>
+  <si>
+    <t>Finish lesson with Mr.Liem
+Sign up, pass the DMV Driving test, and Get Driver Licence</t>
+  </si>
+  <si>
+    <t>Clean house</t>
+  </si>
+  <si>
+    <r>
+      <t>Estimate: 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>Wash &amp; Fold Clothes</t>
+  </si>
+  <si>
+    <t>Confirm Call</t>
+  </si>
+  <si>
+    <r>
+      <t>Call Emerson to prepare for Stephen's TK class
+Estimate: 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> minutes</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
+    <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -232,8 +702,16 @@
       <name val="Century Gothic"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +754,24 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -304,7 +800,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -343,7 +839,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -368,21 +864,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -398,26 +879,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="11" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="13" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -437,7 +972,180 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -447,9 +1155,6 @@
       <font>
         <b val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -625,22 +1330,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="secondRowStripe" dxfId="37"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="10"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="9"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="6"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="5"/>
-      <tableStyleElement type="pageFieldValues" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="totalRow" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="32"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="31"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="30"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="29"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="28"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="27"/>
+      <tableStyleElement type="pageFieldValues" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -794,20 +1499,355 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1543048</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1097278</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>908685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648198" y="190500"/>
+          <a:ext cx="582930" cy="194310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="To Do Year" descr="Cell fill shape ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="0"/>
+          <a:ext cx="38100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1543048</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1097278</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>908685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="To Do Year" descr="Tab marker for year">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393B2DC2-9E53-4F1A-94BC-FD94F8128FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648198" y="190500"/>
+          <a:ext cx="582930" cy="194310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="To Do Year" descr="Cell fill shape ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="0"/>
+          <a:ext cx="38100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I27" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I42" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I42">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2018" month="8" day="19" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="20" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="25" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="0" dataCellStyle="Date"/>
+    <tableColumn id="4" name="Status " dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="23" dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="2" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="22" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="A To-Do List with Task, Priority, Status, Start Date, Due Date, % Complete, Done/Overdue, and Notes"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I11"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Task" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
+    <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
+    <tableColumn id="9" name="Done/Overdue?" dataCellStyle="Done/Overdue">
+      <calculatedColumnFormula>IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="A To-Do List with Task, Priority, Status, Start Date, Due Date, % Complete, Done/Overdue, and Notes"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I9"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Task" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
+    <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
+    <tableColumn id="9" name="Done/Overdue?" dataCellStyle="Done/Overdue">
+      <calculatedColumnFormula>IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
   </tableColumns>
@@ -1121,56 +2161,55 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I27"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1"/>
+    <col min="9" max="9" width="52.85546875" customWidth="1"/>
     <col min="10" max="10" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="30" customHeight="1">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="I1" s="2">
         <f ca="1">YEAR(TODAY())</f>
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="84" customHeight="1">
-      <c r="B2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="2:9" ht="30" customHeight="1">
-      <c r="B3" s="13" t="s">
+    <row r="2" spans="1:9" ht="84" customHeight="1">
+      <c r="B2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
@@ -1186,17 +2225,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>36</v>
+    <row r="4" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="13">
         <v>43330</v>
       </c>
       <c r="F4" s="1">
@@ -1211,17 +2251,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1">
-      <c r="B5" s="13" t="s">
-        <v>14</v>
+    <row r="5" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="13">
         <v>43330</v>
       </c>
       <c r="F5" s="1">
@@ -1236,20 +2277,21 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="13">
         <v>43330</v>
       </c>
       <c r="F6" s="1">
@@ -1264,20 +2306,21 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="13">
         <v>43330</v>
       </c>
       <c r="F7" s="1">
@@ -1292,20 +2335,21 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1">
-      <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="13">
         <v>43330</v>
       </c>
       <c r="F8" s="1">
@@ -1320,20 +2364,21 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="13">
         <v>43330</v>
       </c>
       <c r="F9" s="1">
@@ -1348,20 +2393,21 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1">
-      <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="13">
         <v>43330</v>
       </c>
       <c r="F10" s="6">
@@ -1376,20 +2422,21 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1">
-      <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="13">
         <v>43330</v>
       </c>
       <c r="F11" s="6">
@@ -1404,20 +2451,21 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1">
-      <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" hidden="1" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="13">
         <v>43330</v>
       </c>
       <c r="F12" s="6">
@@ -1432,20 +2480,21 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1">
-      <c r="B13" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" hidden="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="13">
         <v>43330</v>
       </c>
       <c r="F13" s="6">
@@ -1460,20 +2509,21 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1">
-      <c r="B14" s="14" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="39.75" hidden="1" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="13">
         <v>43330</v>
       </c>
       <c r="F14" s="6">
@@ -1488,46 +2538,50 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="B15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="23">
         <v>43330</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="18">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43330</v>
       </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:9" s="16" customFormat="1" ht="30" customHeight="1" thickTop="1">
-      <c r="B16" s="14" t="s">
-        <v>36</v>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13">
         <v>43330</v>
       </c>
       <c r="F16" s="1">
@@ -1535,25 +2589,26 @@
         <v>43330</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1">
-      <c r="B17" s="14" t="s">
-        <v>14</v>
+    <row r="17" spans="1:9" ht="30" customHeight="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="24">
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14">
         <v>43331</v>
       </c>
       <c r="F17" s="6">
@@ -1561,27 +2616,28 @@
         <v>43331</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="24">
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14">
         <v>43331</v>
       </c>
       <c r="F18" s="6">
@@ -1589,27 +2645,28 @@
         <v>43331</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1">
-      <c r="B19" s="14" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="14">
         <v>43331</v>
       </c>
       <c r="F19" s="6">
@@ -1617,27 +2674,28 @@
         <v>43331</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1">
-      <c r="B20" s="14" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1">
+      <c r="A20" s="35"/>
+      <c r="B20" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="24">
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14">
         <v>43331</v>
       </c>
       <c r="F20" s="6">
@@ -1645,27 +2703,28 @@
         <v>43331</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1">
-      <c r="B21" s="14" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="24">
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14">
         <v>43331</v>
       </c>
       <c r="F21" s="6">
@@ -1673,27 +2732,28 @@
         <v>43331</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1">
-      <c r="B22" s="14" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1">
+      <c r="A22" s="35"/>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="24">
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14">
         <v>43331</v>
       </c>
       <c r="F22" s="6">
@@ -1701,27 +2761,28 @@
         <v>43331</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="14">
         <v>43331</v>
       </c>
       <c r="F23" s="6">
@@ -1729,27 +2790,28 @@
         <v>43331</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1">
-      <c r="B24" s="14" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="24">
+      <c r="D24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
         <v>43331</v>
       </c>
       <c r="F24" s="6">
@@ -1757,27 +2819,28 @@
         <v>43331</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1">
-      <c r="B25" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45">
+      <c r="A25" s="35"/>
+      <c r="B25" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="24">
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14">
         <v>43331</v>
       </c>
       <c r="F25" s="6">
@@ -1785,27 +2848,28 @@
         <v>43331</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1">
-      <c r="B26" s="14" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="24">
+      <c r="D26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14">
         <v>43331</v>
       </c>
       <c r="F26" s="6">
@@ -1813,27 +2877,28 @@
         <v>43331</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="24">
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="14">
         <v>43331</v>
       </c>
       <c r="F27" s="6">
@@ -1841,13 +2906,448 @@
         <v>43331</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="17">
+        <v>43331</v>
+      </c>
+      <c r="F28" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43331</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="31"/>
+      <c r="B29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F29" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F30" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F31" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F32" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F33" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F34" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F35" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F36" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" customHeight="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F37" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="32"/>
+      <c r="B38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F38" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F39" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" customHeight="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F40" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" customHeight="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F41" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A42" s="33"/>
+      <c r="B42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="23">
+        <v>43332</v>
+      </c>
+      <c r="F42" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1855,7 +3355,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1869,7 +3369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1883,7 +3383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1896,8 +3396,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G27">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="G17:G26 G42">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1911,7 +3411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1925,7 +3425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1939,7 +3439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1953,7 +3453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1964,6 +3464,274 @@
           <x14:id>{DCE7CF0D-F03D-4532-8188-1009AC8D482E}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7F926561-F637-462C-9238-50FADF106C01}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G24">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{950BC3EC-5131-4E75-8127-51D27734ACE4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B2D28441-16B9-4EB9-8AA3-724741508C62}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EA767D0-B307-4320-92CB-2818FF200CC9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88DD73A9-594C-41B1-9BB4-22C806EF0DE8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G39">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F18C827-0999-4881-807B-BB69961D7356}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E4835221-A0B0-4F8A-9F2B-8781320E6AB5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EA0D176C-40A8-46A0-BB69-25BAFA244CF5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G37">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55DB5C22-A324-495A-9AE5-1721FF87E665}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="dataBar" priority="128">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BDF6BB78-88ED-405B-B5A1-17477E4A25F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D26 D42 D28:D39">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{315CE00D-6F2F-4413-A7F1-1CF57CA07963}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{69016C30-4791-4084-8D9C-9C1E865D8584}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD570529-96A1-488B-AFBB-45CDCC055C1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF5289D8-0D2B-477B-887A-C035BCED1D2A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DFCED24E-9146-4C1B-B712-E2BB88900200}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E311A5A-108B-4479-9DC8-B400A58C71DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
@@ -1978,16 +3746,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D27">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D42">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C27">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C42">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G27">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G42">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F27">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F42">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -2050,7 +3818,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G17:G27</xm:sqref>
+          <xm:sqref>G17:G26 G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CC639756-93BD-410D-A3FB-32B59ABF95DC}">
@@ -2101,7 +3869,175 @@
           <xm:sqref>G16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+          <x14:cfRule type="dataBar" id="{7F926561-F637-462C-9238-50FADF106C01}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{950BC3EC-5131-4E75-8127-51D27734ACE4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G17:G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B2D28441-16B9-4EB9-8AA3-724741508C62}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9EA767D0-B307-4320-92CB-2818FF200CC9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{88DD73A9-594C-41B1-9BB4-22C806EF0DE8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6F18C827-0999-4881-807B-BB69961D7356}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E4835221-A0B0-4F8A-9F2B-8781320E6AB5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EA0D176C-40A8-46A0-BB69-25BAFA244CF5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55DB5C22-A324-495A-9AE5-1721FF87E665}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:G37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BDF6BB78-88ED-405B-B5A1-17477E4A25F6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{315CE00D-6F2F-4413-A7F1-1CF57CA07963}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{69016C30-4791-4084-8D9C-9C1E865D8584}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD570529-96A1-488B-AFBB-45CDCC055C1C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF5289D8-0D2B-477B-887A-C035BCED1D2A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="54" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2120,7 +4056,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="84" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="125" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2139,7 +4075,7 @@
           <xm:sqref>H5:H12 H15:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+          <x14:cfRule type="iconSet" priority="50" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2158,7 +4094,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+          <x14:cfRule type="iconSet" priority="52" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2174,10 +4110,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H17:H24 H27</xm:sqref>
+          <xm:sqref>H42 H17:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+          <x14:cfRule type="iconSet" priority="48" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2196,7 +4132,7 @@
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+          <x14:cfRule type="iconSet" priority="46" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2215,7 +4151,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+          <x14:cfRule type="iconSet" priority="44" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2232,6 +4168,182 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="35" id="{DB40E23A-4955-4431-9D71-245224111316}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="31" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="33" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H30:H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="29" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="129" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DFCED24E-9146-4C1B-B712-E2BB88900200}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E311A5A-108B-4479-9DC8-B400A58C71DB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2241,24 +4353,831 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="46" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="I1" s="2">
+        <f ca="1">YEAR(TODAY())</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="84" customHeight="1">
+      <c r="B2" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43313</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43343</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="4">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43313</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43343</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="4">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43313</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43343</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43313</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43343</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="4">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43313</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43343</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="4">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43313</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43343</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="4">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43319</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43343</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="4">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="24">
+        <v>43313</v>
+      </c>
+      <c r="F11" s="24">
+        <v>43343</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="25">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB34956D-AF1A-4DA7-B9C0-CEB74BC7E876}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G11">
+    <cfRule type="dataBar" priority="94">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{91D93CCA-7181-4FB5-A0A5-6C705EF71AC6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D11">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="15">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G11">
+      <formula1>"0%,25%,50%,75%,100%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C11">
+      <formula1>"Low, Normal, High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D11">
+      <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Priority in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell I1" sqref="A1"/>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F11">
+      <formula1>F4&gt;=E4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EB34956D-AF1A-4DA7-B9C0-CEB74BC7E876}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{91D93CCA-7181-4FB5-A0A5-6C705EF71AC6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G5:G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{6407EC52-3D42-4842-A69C-459520DC7E8F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="95" id="{3E663368-87DD-4A8E-8C54-2A43D4A37407}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H5:H11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="62.28515625" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="84" customHeight="1">
+      <c r="B2" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="29"/>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43101</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43465</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75">
+      <c r="A5" s="29"/>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43101</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43465</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="91.5" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43101</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43465</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43101</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43465</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43313</v>
+      </c>
+      <c r="F8" s="6">
+        <v>43344</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="4">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="24">
+        <v>43101</v>
+      </c>
+      <c r="F9" s="24">
+        <v>43465</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <f ca="1">IF(AND(ToDoList3[[#This Row],[Status ]]="Complete",ToDoList3[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList3[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList3[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList3[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G7:G9 G4:G5">
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79EE4CBF-D39D-4626-810C-D5B0DC153A2F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E704F020-F736-4A64-871C-5E35CE9114FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D9">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select % Complete in this column. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection. A status bar indicates progress toward completion" sqref="G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Due Date in this column under this heading" sqref="F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this column under this heading" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Status in this column under this heading.  Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Priority in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell I1" sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G9">
+      <formula1>"0%,25%,50%,75%,100%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C9">
+      <formula1>"Low, Normal, High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D9">
+      <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F9">
+      <formula1>F4&gt;=E4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79EE4CBF-D39D-4626-810C-D5B0DC153A2F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G7:G9 G4:G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E704F020-F736-4A64-871C-5E35CE9114FB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="9" id="{1E8A3ECA-8FCD-482C-A309-38FF68789DD6}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="102" id="{73CF64AE-DE44-4220-9C5B-831C40EAE1F6}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H7:H9 H4:H5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
@@ -617,6 +617,125 @@
       </rPr>
       <t xml:space="preserve"> minutes</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vocabulary (5) + Rosemead Vocabulary
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30 minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>Rosemead College of English</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute 20 second (times: 1)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lifting dumbbells
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 30 minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>Put silicon to room</t>
+  </si>
+  <si>
+    <r>
+      <t>10 rep (times: 1)
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6 rep (times: 1)
+Estimate:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 minutes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25 minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>Deferred</t>
   </si>
 </sst>
 </file>
@@ -711,7 +830,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +888,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +964,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -951,6 +1076,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -972,7 +1106,111 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1100,66 +1338,88 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Century Gothic"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Century Gothic"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1330,22 +1590,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
-      <tableStyleElement type="headerRow" dxfId="38"/>
-      <tableStyleElement type="secondRowStripe" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="secondRowStripe" dxfId="55"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="36"/>
-      <tableStyleElement type="totalRow" dxfId="35"/>
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="32"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="31"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="30"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="29"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="28"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="27"/>
-      <tableStyleElement type="pageFieldValues" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="totalRow" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="51"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="50"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="49"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="48"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="47"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="46"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="45"/>
+      <tableStyleElement type="pageFieldValues" dxfId="44"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1780,25 +2040,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I42" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I42">
-    <filterColumn colId="3">
-      <filters>
-        <dateGroupItem year="2018" month="8" day="19" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="8" day="20" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I57" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I57"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="13" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="23" dataCellStyle="Date"/>
+    <tableColumn id="4" name="Status " dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="11" dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="22" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="10" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -1816,9 +2069,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="6" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -1840,9 +2093,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2161,9 +2414,9 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2188,16 +2441,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -2225,7 +2478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="9" t="s">
         <v>22</v>
@@ -2251,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
@@ -2280,7 +2533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -2309,7 +2562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>14</v>
@@ -2338,7 +2591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
         <v>15</v>
@@ -2367,7 +2620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
@@ -2396,7 +2649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="9" t="s">
         <v>18</v>
@@ -2425,7 +2678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="9" t="s">
         <v>18</v>
@@ -2454,7 +2707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="9" t="s">
         <v>19</v>
@@ -2483,7 +2736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45" hidden="1">
+    <row r="13" spans="1:9" ht="45">
       <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
         <v>20</v>
@@ -2512,7 +2765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="39.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:9" ht="39.75" customHeight="1">
       <c r="A14" s="29"/>
       <c r="B14" s="9" t="s">
         <v>21</v>
@@ -2541,7 +2794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="30"/>
       <c r="B15" s="15" t="s">
         <v>23</v>
@@ -2570,7 +2823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" s="9" t="s">
         <v>22</v>
@@ -2954,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29" s="13">
         <v>43332</v>
@@ -2964,11 +3217,11 @@
         <v>43332</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5"/>
     </row>
@@ -2981,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="13">
         <v>43332</v>
@@ -2991,11 +3244,11 @@
         <v>43332</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>61</v>
@@ -3010,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E31" s="13">
         <v>43332</v>
@@ -3020,11 +3273,11 @@
         <v>43332</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>62</v>
@@ -3039,7 +3292,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" s="13">
         <v>43332</v>
@@ -3049,11 +3302,11 @@
         <v>43332</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>62</v>
@@ -3068,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" s="13">
         <v>43332</v>
@@ -3078,11 +3331,11 @@
         <v>43332</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>63</v>
@@ -3091,13 +3344,13 @@
     <row r="34" spans="1:9" ht="30" customHeight="1">
       <c r="A34" s="32"/>
       <c r="B34" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34" s="13">
         <v>43332</v>
@@ -3107,26 +3360,26 @@
         <v>43332</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E35" s="13">
         <v>43332</v>
@@ -3143,7 +3396,7 @@
         <v>-1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1">
@@ -3155,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E36" s="13">
         <v>43332</v>
@@ -3172,19 +3425,19 @@
         <v>-1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E37" s="13">
         <v>43332</v>
@@ -3201,19 +3454,19 @@
         <v>-1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E38" s="13">
         <v>43332</v>
@@ -3223,26 +3476,26 @@
         <v>43332</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="32"/>
       <c r="B39" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E39" s="13">
         <v>43332</v>
@@ -3252,26 +3505,26 @@
         <v>43332</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="9" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40" s="13">
         <v>43332</v>
@@ -3281,26 +3534,26 @@
         <v>43332</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E41" s="13">
         <v>43332</v>
@@ -3310,42 +3563,475 @@
         <v>43332</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="23">
+      <c r="D42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="13">
         <v>43332</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="6">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43332</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A43" s="33"/>
+      <c r="B43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="23">
+        <v>43332</v>
+      </c>
+      <c r="F43" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43332</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1</v>
+      </c>
+      <c r="H43" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F44" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H44" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="30" customHeight="1">
+      <c r="A45" s="38"/>
+      <c r="B45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F45" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30" customHeight="1">
+      <c r="A46" s="38"/>
+      <c r="B46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F46" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30" customHeight="1">
+      <c r="A47" s="38"/>
+      <c r="B47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F47" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30" customHeight="1">
+      <c r="A48" s="38"/>
+      <c r="B48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F48" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" customHeight="1">
+      <c r="A49" s="38"/>
+      <c r="B49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F49" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" customHeight="1">
+      <c r="A50" s="38"/>
+      <c r="B50" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F50" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" customHeight="1">
+      <c r="A51" s="38"/>
+      <c r="B51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F51" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" customHeight="1">
+      <c r="A52" s="38"/>
+      <c r="B52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F52" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" customHeight="1">
+      <c r="A53" s="38"/>
+      <c r="B53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F53" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30" customHeight="1">
+      <c r="A54" s="38"/>
+      <c r="B54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F54" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45">
+      <c r="A55" s="38"/>
+      <c r="B55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F55" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" customHeight="1">
+      <c r="A56" s="38"/>
+      <c r="B56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F56" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A57" s="39"/>
+      <c r="B57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="23">
+        <v>43333</v>
+      </c>
+      <c r="F57" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43333</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0</v>
+      </c>
+      <c r="H57" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3355,7 +4041,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3369,7 +4055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="123">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3383,7 +4069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3396,8 +4082,541 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G26 G42">
-    <cfRule type="dataBar" priority="51">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="dataBar" priority="102">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CC639756-93BD-410D-A3FB-32B59ABF95DC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2A49726A-6AFC-4C56-B347-417D66EBF5E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="dataBar" priority="98">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FA41C4E6-1E6B-4432-B366-50A864754D96}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="dataBar" priority="97">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DCE7CF0D-F03D-4532-8188-1009AC8D482E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="dataBar" priority="96">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7F926561-F637-462C-9238-50FADF106C01}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G24">
+    <cfRule type="dataBar" priority="95">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{950BC3EC-5131-4E75-8127-51D27734ACE4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="dataBar" priority="89">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EA767D0-B307-4320-92CB-2818FF200CC9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="dataBar" priority="85">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88DD73A9-594C-41B1-9BB4-22C806EF0DE8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G33 G35:G40">
+    <cfRule type="dataBar" priority="87">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F18C827-0999-4881-807B-BB69961D7356}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="dataBar" priority="83">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E4835221-A0B0-4F8A-9F2B-8781320E6AB5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="dataBar" priority="82">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EA0D176C-40A8-46A0-BB69-25BAFA244CF5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G33 G35:G38">
+    <cfRule type="dataBar" priority="81">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55DB5C22-A324-495A-9AE5-1721FF87E665}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="dataBar" priority="183">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BDF6BB78-88ED-405B-B5A1-17477E4A25F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D26 D28:D33 D35:D40">
+    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="dataBar" priority="73">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{315CE00D-6F2F-4413-A7F1-1CF57CA07963}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="dataBar" priority="71">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{69016C30-4791-4084-8D9C-9C1E865D8584}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="dataBar" priority="67">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD570529-96A1-488B-AFBB-45CDCC055C1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF5289D8-0D2B-477B-887A-C035BCED1D2A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="37" priority="62" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="63" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="64" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DFCED24E-9146-4C1B-B712-E2BB88900200}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E311A5A-108B-4479-9DC8-B400A58C71DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="34" priority="56" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C7C0250-2FCA-45A3-A99F-86CB5750E22F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB8CA3F3-D979-4D58-A69D-389E102111D4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="52" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="46" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{447F3586-6E21-48DF-A710-64AAD7FAC7FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C64CCEE5-6BBA-4E88-BE29-5AD2214AFE99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:G48 G51:G56">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0FC52AD5-26EF-413E-A630-B498F4130EB8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{926358F5-9C05-4AFE-88F7-B9A5922055D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{790F3E5D-B98B-43E4-B776-99FB4FDB194B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:G48 G51:G54">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D26F4B8-EF09-47FE-B5A3-018294CDAE8C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D48 D51:D56">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DA8EFBF2-EC51-417E-89A9-A6440B4141A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{019D33FF-2E40-4146-9966-5C9BA03860A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A8228A8A-83DB-4B62-9CB4-9AD119B69E6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67998940-2405-47B3-9706-82EBE8A21F2E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G26">
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3410,8 +4629,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="G43">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3419,13 +4638,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC639756-93BD-410D-A3FB-32B59ABF95DC}</x14:id>
+          <x14:id>{6E7BF149-CAA8-439D-8E5B-9EA775865722}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="G49">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3433,283 +4652,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2A49726A-6AFC-4C56-B347-417D66EBF5E9}</x14:id>
+          <x14:id>{B89DDC10-2396-4DF5-9992-7335FD506D7E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="43">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA41C4E6-1E6B-4432-B366-50A864754D96}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="42">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DCE7CF0D-F03D-4532-8188-1009AC8D482E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="41">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7F926561-F637-462C-9238-50FADF106C01}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="40">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{950BC3EC-5131-4E75-8127-51D27734ACE4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="39">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B2D28441-16B9-4EB9-8AA3-724741508C62}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9EA767D0-B307-4320-92CB-2818FF200CC9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88DD73A9-594C-41B1-9BB4-22C806EF0DE8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G39">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6F18C827-0999-4881-807B-BB69961D7356}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E4835221-A0B0-4F8A-9F2B-8781320E6AB5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EA0D176C-40A8-46A0-BB69-25BAFA244CF5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G37">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55DB5C22-A324-495A-9AE5-1721FF87E665}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="128">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BDF6BB78-88ED-405B-B5A1-17477E4A25F6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D26 D42 D28:D39">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{315CE00D-6F2F-4413-A7F1-1CF57CA07963}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69016C30-4791-4084-8D9C-9C1E865D8584}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD570529-96A1-488B-AFBB-45CDCC055C1C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EF5289D8-0D2B-477B-887A-C035BCED1D2A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DFCED24E-9146-4C1B-B712-E2BB88900200}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="G49">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3718,19 +4666,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9E311A5A-108B-4479-9DC8-B400A58C71DB}</x14:id>
+          <x14:id>{D58A09B0-009B-431B-B64D-DC6AFED60188}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3746,16 +4694,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D42">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D57">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C42">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C57">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G42">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G57">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F42">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F57">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -3809,6 +4757,378 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CC639756-93BD-410D-A3FB-32B59ABF95DC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2A49726A-6AFC-4C56-B347-417D66EBF5E9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FA41C4E6-1E6B-4432-B366-50A864754D96}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DCE7CF0D-F03D-4532-8188-1009AC8D482E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7F926561-F637-462C-9238-50FADF106C01}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{950BC3EC-5131-4E75-8127-51D27734ACE4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G17:G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9EA767D0-B307-4320-92CB-2818FF200CC9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{88DD73A9-594C-41B1-9BB4-22C806EF0DE8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6F18C827-0999-4881-807B-BB69961D7356}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:G33 G35:G40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E4835221-A0B0-4F8A-9F2B-8781320E6AB5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EA0D176C-40A8-46A0-BB69-25BAFA244CF5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55DB5C22-A324-495A-9AE5-1721FF87E665}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:G33 G35:G38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BDF6BB78-88ED-405B-B5A1-17477E4A25F6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{315CE00D-6F2F-4413-A7F1-1CF57CA07963}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{69016C30-4791-4084-8D9C-9C1E865D8584}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD570529-96A1-488B-AFBB-45CDCC055C1C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF5289D8-0D2B-477B-887A-C035BCED1D2A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DFCED24E-9146-4C1B-B712-E2BB88900200}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E311A5A-108B-4479-9DC8-B400A58C71DB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3C7C0250-2FCA-45A3-A99F-86CB5750E22F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CB8CA3F3-D979-4D58-A69D-389E102111D4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{447F3586-6E21-48DF-A710-64AAD7FAC7FB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C64CCEE5-6BBA-4E88-BE29-5AD2214AFE99}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0FC52AD5-26EF-413E-A630-B498F4130EB8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G45:G48 G51:G56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{926358F5-9C05-4AFE-88F7-B9A5922055D0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{790F3E5D-B98B-43E4-B776-99FB4FDB194B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4D26F4B8-EF09-47FE-B5A3-018294CDAE8C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G45:G48 G51:G54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DA8EFBF2-EC51-417E-89A9-A6440B4141A9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{019D33FF-2E40-4146-9966-5C9BA03860A8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A8228A8A-83DB-4B62-9CB4-9AD119B69E6A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67998940-2405-47B3-9706-82EBE8A21F2E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E105E78E-E4C2-4A9A-B329-624B3074363B}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -3818,10 +5138,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G17:G26 G42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC639756-93BD-410D-A3FB-32B59ABF95DC}">
+          <xm:sqref>G17:G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E7BF149-CAA8-439D-8E5B-9EA775865722}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3830,10 +5150,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2A49726A-6AFC-4C56-B347-417D66EBF5E9}">
+          <xm:sqref>G43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B89DDC10-2396-4DF5-9992-7335FD506D7E}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3842,10 +5162,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA41C4E6-1E6B-4432-B366-50A864754D96}">
+          <xm:sqref>G49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D58A09B0-009B-431B-B64D-DC6AFED60188}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3854,190 +5174,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DCE7CF0D-F03D-4532-8188-1009AC8D482E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7F926561-F637-462C-9238-50FADF106C01}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{950BC3EC-5131-4E75-8127-51D27734ACE4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G17:G24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B2D28441-16B9-4EB9-8AA3-724741508C62}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9EA767D0-B307-4320-92CB-2818FF200CC9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88DD73A9-594C-41B1-9BB4-22C806EF0DE8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6F18C827-0999-4881-807B-BB69961D7356}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G30:G39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E4835221-A0B0-4F8A-9F2B-8781320E6AB5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EA0D176C-40A8-46A0-BB69-25BAFA244CF5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55DB5C22-A324-495A-9AE5-1721FF87E665}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G30:G37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BDF6BB78-88ED-405B-B5A1-17477E4A25F6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{315CE00D-6F2F-4413-A7F1-1CF57CA07963}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{69016C30-4791-4084-8D9C-9C1E865D8584}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FD570529-96A1-488B-AFBB-45CDCC055C1C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EF5289D8-0D2B-477B-887A-C035BCED1D2A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="54" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+          <xm:sqref>G49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="109" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4056,7 +5196,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="125" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="180" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4075,7 +5215,7 @@
           <xm:sqref>H5:H12 H15:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+          <x14:cfRule type="iconSet" priority="105" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4094,7 +5234,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="52" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+          <x14:cfRule type="iconSet" priority="103" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4110,10 +5250,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H42 H17:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="101" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4129,10 +5269,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="99" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4148,10 +5288,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="90" id="{DB40E23A-4955-4431-9D71-245224111316}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4167,10 +5307,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{DB40E23A-4955-4431-9D71-245224111316}">
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="86" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4186,10 +5326,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="88" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4205,10 +5345,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+          <xm:sqref>H30:H33 H35:H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="84" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4224,10 +5364,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H30:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="184" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4243,10 +5383,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="129" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="72" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4262,10 +5402,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="66" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4281,10 +5421,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="60" id="{9C071051-09D3-47FD-B263-7164F1337403}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4300,34 +5440,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DFCED24E-9146-4C1B-B712-E2BB88900200}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E311A5A-108B-4479-9DC8-B400A58C71DB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="55" id="{67EF7A37-F542-4178-9F13-936880230B01}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4343,7 +5459,178 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="43" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="39" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="41" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H45:H48 H51:H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="37" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{6D3DDD7B-5770-42BB-A785-C5741848977B}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="186" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H17:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="189" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4383,16 +5670,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -4677,13 +5964,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D11">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4824,16 +6111,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -5062,13 +6349,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D9">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -106,8 +106,110 @@
     <t>Plan for tomorrow</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Intermediate Fat Loss Workout
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>TO-DO LIST FOR MONTHS</t>
+  </si>
+  <si>
+    <t>TO-DO LIST FOR DAYS</t>
+  </si>
+  <si>
+    <t>TO-DO LIST FOR YEARS</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Workout at least 15 minutes / day</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Learn 5 vocabulary / day</t>
+  </si>
+  <si>
+    <t>Use Duolingo 15 minutes / day</t>
+  </si>
+  <si>
+    <t>Completed on Pluralsight</t>
+  </si>
+  <si>
+    <t>Earn all points</t>
+  </si>
+  <si>
+    <t>200 pounds
+10% fat</t>
+  </si>
+  <si>
+    <t>Responsive Web Design Certification (300 hours)
+Javascript Algorithms And Data Structures Certification (300 hours)
+Front End Libraries Certification (300 hours)
+Data Visualization Certification (300 hours)
+Apis And Microservices Certification (300 hours)
+Information Security And Quality Assurance Certification (300 hours)</t>
+  </si>
+  <si>
+    <t>Java
+Android
+Javascript
+React
+Python</t>
+  </si>
+  <si>
+    <t>Microsoft Points</t>
+  </si>
+  <si>
+    <t>Exchange for a Packbag</t>
+  </si>
+  <si>
+    <t>Apply Jobs</t>
+  </si>
+  <si>
+    <t>1st time in September
+2nd time in December</t>
+  </si>
+  <si>
+    <t>Completed Front End Libraries Certificate</t>
+  </si>
+  <si>
+    <t>Driving tutorial</t>
+  </si>
+  <si>
+    <t>Finish the driving lessons with Mr.Liem</t>
+  </si>
+  <si>
+    <t>Driving Licence</t>
+  </si>
+  <si>
+    <t>Finish lesson with Mr.Liem
+Sign up, pass the DMV Driving test, and Get Driver Licence</t>
+  </si>
+  <si>
+    <t>Clean house</t>
+  </si>
+  <si>
+    <t>Wash &amp; Fold Clothes</t>
+  </si>
+  <si>
+    <t>Confirm Call</t>
+  </si>
+  <si>
+    <t>Rosemead College of English</t>
+  </si>
+  <si>
+    <t>Put silicon to room</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Applying Concurrency and Multi-threading
 Estimate: </t>
     </r>
     <r>
@@ -118,7 +220,7 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>23 minutes</t>
+      <t>2h 39m</t>
     </r>
   </si>
   <si>
@@ -134,12 +236,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 minute (times: 1)
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vocabulary (5)
 Estimate: </t>
     </r>
     <r>
@@ -150,12 +252,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Front End Libraries: React (1/3)
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intermediate Fat Loss Workout
 Estimate: </t>
     </r>
     <r>
@@ -166,12 +268,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java: Generics
+      <t>23m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute (times: 1)
 Estimate: </t>
     </r>
     <r>
@@ -182,12 +284,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Android: Start Developing for Android
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End Libraries: React (1/3)
 Estimate: </t>
     </r>
     <r>
@@ -198,12 +300,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Estimate: </t>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Generics
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -213,13 +316,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Easy Japanese (Lesson 1)
-Duolingo (15 minutes)
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android: Start Developing for Android
 Estimate: </t>
     </r>
     <r>
@@ -230,12 +332,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vocabulary (5)
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC search + Mobile search
 Estimate: </t>
     </r>
     <r>
@@ -246,13 +348,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intermediate Abs Workout
-Estimate:</t>
+      <t>5m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -262,12 +363,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5 rep (times: 2)
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Android: Introduction to Testing in Java
 Estimate:</t>
     </r>
     <r>
@@ -278,12 +379,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 minute (times: 2)
+      <t xml:space="preserve"> 3h 54m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Java Web Fundamentals
 Estimate: </t>
     </r>
     <r>
@@ -294,12 +395,17 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Front End Libraries: React (2/3)
+      <t>2h 28m</t>
+    </r>
+  </si>
+  <si>
+    <t>Front End Libraries: React (3/3)
+Estimate: 1h</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 1)
+Duolingo (15m)
 Estimate: </t>
     </r>
     <r>
@@ -310,12 +416,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java: Working with Databases Using JDBC
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intermediate Abs Workout
 Estimate: </t>
     </r>
     <r>
@@ -326,13 +432,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Android: Understanding Android
-Estimate:</t>
+      <t>13m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 rep (times: 2)
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -342,13 +448,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Easy Japanese (Lesson 2)
-Duolingo (15 minutes)
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute (times: 2)
 Estimate: </t>
     </r>
     <r>
@@ -359,16 +464,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30 minutes</t>
-    </r>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <r>
-      <t>PC search + Mobile search
-Estimate: 5</t>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End Libraries: React (2/3)
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -378,81 +480,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> minutes</t>
-    </r>
-  </si>
-  <si>
-    <t>LIFE</t>
-  </si>
-  <si>
-    <t>TO-DO LIST FOR MONTHS</t>
-  </si>
-  <si>
-    <t>TO-DO LIST FOR DAYS</t>
-  </si>
-  <si>
-    <t>TO-DO LIST FOR YEARS</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Workout at least 15 minutes / day</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Learn 5 vocabulary / day</t>
-  </si>
-  <si>
-    <t>Use Duolingo 15 minutes / day</t>
-  </si>
-  <si>
-    <t>Completed on Pluralsight</t>
-  </si>
-  <si>
-    <t>Earn all points</t>
-  </si>
-  <si>
-    <t>200 pounds
-10% fat</t>
-  </si>
-  <si>
-    <t>Responsive Web Design Certification (300 hours)
-Javascript Algorithms And Data Structures Certification (300 hours)
-Front End Libraries Certification (300 hours)
-Data Visualization Certification (300 hours)
-Apis And Microservices Certification (300 hours)
-Information Security And Quality Assurance Certification (300 hours)</t>
-  </si>
-  <si>
-    <t>Java
-Android
-Javascript
-React
-Python</t>
-  </si>
-  <si>
-    <t>Microsoft Points</t>
-  </si>
-  <si>
-    <t>Exchange for a Packbag</t>
-  </si>
-  <si>
-    <t>Apply Jobs</t>
-  </si>
-  <si>
-    <t>1st time in September
-2nd time in December</t>
-  </si>
-  <si>
-    <r>
-      <t>HIIT Legs - Beginner
-Estimate:</t>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Working with Databases Using JDBC
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -462,13 +496,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 20 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5 rep (times: 3)
-Estimate:</t>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android: Understanding Android
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -478,12 +512,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 minute (times: 3)
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 2)
+Duolingo (15m)
 Estimate: </t>
     </r>
     <r>
@@ -494,13 +529,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Front End Libraries: React (3/3)
-Estimate: </t>
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -510,12 +544,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java: Applying Concurrency and Multi-threading
+      <t>5m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 3)
+Duolingo (15m)
 Estimate: </t>
     </r>
     <r>
@@ -526,13 +561,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Android: Android Programming with Intents
-Estimate:</t>
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vocabulary (5) + Rosemead Vocabulary
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -542,14 +577,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Easy Japanese (Lesson 3)
-Duolingo (15 minutes)
-Estimate: </t>
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -559,31 +592,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30 minutes</t>
-    </r>
-  </si>
-  <si>
-    <t>Completed Front End Libraries Certificate</t>
-  </si>
-  <si>
-    <t>Driving tutorial</t>
-  </si>
-  <si>
-    <t>Finish the driving lessons with Mr.Liem</t>
-  </si>
-  <si>
-    <t>Driving Licence</t>
-  </si>
-  <si>
-    <t>Finish lesson with Mr.Liem
-Sign up, pass the DMV Driving test, and Get Driver Licence</t>
-  </si>
-  <si>
-    <t>Clean house</t>
-  </si>
-  <si>
-    <r>
-      <t>Estimate: 5</t>
+      <t>4h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute 20 second (times: 2)
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -593,19 +608,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> minutes</t>
-    </r>
-  </si>
-  <si>
-    <t>Wash &amp; Fold Clothes</t>
-  </si>
-  <si>
-    <t>Confirm Call</t>
-  </si>
-  <si>
-    <r>
-      <t>Call Emerson to prepare for Stephen's TK class
-Estimate: 5</t>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 rep (times: 2)
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -615,12 +624,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vocabulary (5) + Rosemead Vocabulary
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 rep (times: 2)
 Estimate: </t>
     </r>
     <r>
@@ -631,15 +640,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30 minutes</t>
-    </r>
-  </si>
-  <si>
-    <t>Rosemead College of English</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Estimate: </t>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lifting dumbbells
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -649,12 +656,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 minute 20 second (times: 1)
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android: Android Programming with Intents
 Estimate: </t>
     </r>
     <r>
@@ -665,13 +672,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Lifting dumbbells
-Estimate:</t>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End Libraries: React (3/3)
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -681,16 +688,12 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 30 minutes</t>
-    </r>
-  </si>
-  <si>
-    <t>Put silicon to room</t>
-  </si>
-  <si>
-    <r>
-      <t>10 rep (times: 1)
-Estimate:</t>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -700,13 +703,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6 rep (times: 1)
-Estimate:</t>
+      <t>25m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute 20 second (times: 1)
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -716,12 +719,13 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1 minutes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Estimate: </t>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 rep (times: 1)
+Estimate: </t>
     </r>
     <r>
       <rPr>
@@ -731,11 +735,138 @@
         <rFont val="Century Gothic"/>
         <scheme val="minor"/>
       </rPr>
-      <t>25 minutes</t>
-    </r>
-  </si>
-  <si>
-    <t>Deferred</t>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 rep (times: 1)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Call Emerson to prepare for Stephen's TK class
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Applying Concurrency and Multi-threading
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute (times: 3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 rep (times: 3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HIIT Legs - Beginner
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bodyweight Toning Workout - Beginner
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14m</t>
+    </r>
+  </si>
+  <si>
+    <t>Driving Lesson</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -830,7 +961,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +1025,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +1101,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1085,8 +1222,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1106,29 +1255,7 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Century Gothic"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill>
@@ -1149,67 +1276,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Century Gothic"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1423,6 +1489,155 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor theme="6" tint="0.79998168889431442"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
@@ -1590,22 +1805,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+      <tableStyleElement type="wholeTable" dxfId="67"/>
+      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="secondRowStripe" dxfId="65"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="totalRow" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="51"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="50"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="49"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="48"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="47"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="46"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="45"/>
-      <tableStyleElement type="pageFieldValues" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="64"/>
+      <tableStyleElement type="totalRow" dxfId="63"/>
+      <tableStyleElement type="firstRowStripe" dxfId="62"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="60"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="59"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="58"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="57"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="56"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="55"/>
+      <tableStyleElement type="pageFieldValues" dxfId="54"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2040,18 +2255,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I57" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I71" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I71">
+    <filterColumn colId="4">
+      <filters>
+        <dateGroupItem year="2018" month="8" day="21" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="22" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="53" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="11" dataCellStyle="Date"/>
-    <tableColumn id="7" name="Due Date " dataCellStyle="Date">
+    <tableColumn id="4" name="Status " dataDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="51" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataDxfId="45" dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="10" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="50" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -2069,9 +2291,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="49" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="48" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2093,9 +2315,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="47" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="46" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2414,9 +2636,9 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2441,16 +2663,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -2478,7 +2700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
+    <row r="4" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="9" t="s">
         <v>22</v>
@@ -2504,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
+    <row r="5" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
@@ -2530,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -2559,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>14</v>
@@ -2588,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
         <v>15</v>
@@ -2617,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="9" t="s">
         <v>17</v>
@@ -2646,10 +2868,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="9" t="s">
         <v>18</v>
@@ -2675,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="9" t="s">
         <v>18</v>
@@ -2704,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="9" t="s">
         <v>19</v>
@@ -2733,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" hidden="1">
       <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
         <v>20</v>
@@ -2762,10 +2984,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="39.75" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="39.75" hidden="1" customHeight="1">
       <c r="A14" s="29"/>
       <c r="B14" s="9" t="s">
         <v>21</v>
@@ -2791,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="30"/>
       <c r="B15" s="15" t="s">
         <v>23</v>
@@ -2820,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" s="9" t="s">
         <v>22</v>
@@ -2850,7 +3072,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1">
+    <row r="17" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A17" s="35"/>
       <c r="B17" s="9" t="s">
         <v>13</v>
@@ -2876,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A18" s="35"/>
       <c r="B18" s="9" t="s">
         <v>16</v>
@@ -2905,10 +3127,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="9" t="s">
         <v>14</v>
@@ -2934,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A20" s="35"/>
       <c r="B20" s="9" t="s">
         <v>15</v>
@@ -2963,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A21" s="35"/>
       <c r="B21" s="9" t="s">
         <v>17</v>
@@ -2992,10 +3214,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A22" s="35"/>
       <c r="B22" s="9" t="s">
         <v>18</v>
@@ -3021,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A23" s="35"/>
       <c r="B23" s="9" t="s">
         <v>18</v>
@@ -3050,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A24" s="35"/>
       <c r="B24" s="9" t="s">
         <v>19</v>
@@ -3079,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45" hidden="1">
       <c r="A25" s="35"/>
       <c r="B25" s="9" t="s">
         <v>20</v>
@@ -3108,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A26" s="35"/>
       <c r="B26" s="9" t="s">
         <v>21</v>
@@ -3137,13 +3359,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="9" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
@@ -3166,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="36"/>
       <c r="B28" s="15" t="s">
         <v>23</v>
@@ -3195,10 +3417,10 @@
         <v>1</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A29" s="31"/>
       <c r="B29" s="9" t="s">
         <v>22</v>
@@ -3225,7 +3447,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1">
+    <row r="30" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="9" t="s">
         <v>13</v>
@@ -3251,10 +3473,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="9" t="s">
         <v>16</v>
@@ -3280,10 +3502,10 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A32" s="32"/>
       <c r="B32" s="9" t="s">
         <v>14</v>
@@ -3309,10 +3531,10 @@
         <v>1</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A33" s="32"/>
       <c r="B33" s="9" t="s">
         <v>15</v>
@@ -3338,13 +3560,13 @@
         <v>1</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A34" s="32"/>
       <c r="B34" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
@@ -3367,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1">
@@ -3379,14 +3601,14 @@
         <v>6</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E35" s="13">
         <v>43332</v>
       </c>
       <c r="F35" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43332</v>
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -3396,7 +3618,7 @@
         <v>-1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1">
@@ -3408,14 +3630,14 @@
         <v>6</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E36" s="13">
         <v>43332</v>
       </c>
       <c r="F36" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43332</v>
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -3425,7 +3647,7 @@
         <v>-1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1">
@@ -3437,14 +3659,14 @@
         <v>6</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E37" s="13">
         <v>43332</v>
       </c>
       <c r="F37" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43332</v>
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -3454,10 +3676,10 @@
         <v>-1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="9" t="s">
         <v>19</v>
@@ -3483,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" hidden="1">
       <c r="A39" s="32"/>
       <c r="B39" s="9" t="s">
         <v>20</v>
@@ -3512,10 +3734,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="9" t="s">
         <v>21</v>
@@ -3541,13 +3763,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="9" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
@@ -3570,13 +3792,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="9" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>8</v>
@@ -3599,10 +3821,10 @@
         <v>1</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A43" s="33"/>
       <c r="B43" s="15" t="s">
         <v>23</v>
@@ -3628,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
@@ -3640,7 +3862,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E44" s="13">
         <v>43333</v>
@@ -3650,11 +3872,11 @@
         <v>43333</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -3667,7 +3889,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E45" s="13">
         <v>43333</v>
@@ -3677,11 +3899,11 @@
         <v>43333</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>82</v>
@@ -3696,7 +3918,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E46" s="13">
         <v>43333</v>
@@ -3706,14 +3928,14 @@
         <v>43333</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1">
@@ -3725,7 +3947,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E47" s="13">
         <v>43333</v>
@@ -3735,14 +3957,14 @@
         <v>43333</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1">
@@ -3754,7 +3976,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E48" s="13">
         <v>43333</v>
@@ -3764,26 +3986,26 @@
         <v>43333</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="9" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E49" s="13">
         <v>43333</v>
@@ -3793,26 +4015,26 @@
         <v>43333</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E50" s="13">
         <v>43333</v>
@@ -3822,14 +4044,14 @@
         <v>43333</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" customHeight="1">
@@ -3841,24 +4063,24 @@
         <v>6</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E51" s="13">
-        <v>43333</v>
+        <v>43332</v>
       </c>
       <c r="F51" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43333</v>
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H51" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" customHeight="1">
@@ -3870,24 +4092,24 @@
         <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E52" s="13">
-        <v>43333</v>
+        <v>43332</v>
       </c>
       <c r="F52" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43333</v>
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H52" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30" customHeight="1">
@@ -3899,24 +4121,24 @@
         <v>6</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E53" s="13">
-        <v>43333</v>
+        <v>43332</v>
       </c>
       <c r="F53" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43333</v>
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
       </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H53" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" customHeight="1">
@@ -3928,7 +4150,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54" s="13">
         <v>43333</v>
@@ -3938,14 +4160,14 @@
         <v>43333</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="45">
@@ -3957,7 +4179,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E55" s="13">
         <v>43333</v>
@@ -3967,14 +4189,14 @@
         <v>43333</v>
       </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" customHeight="1">
@@ -3986,7 +4208,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E56" s="13">
         <v>43333</v>
@@ -3996,14 +4218,14 @@
         <v>43333</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
@@ -4015,7 +4237,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E57" s="23">
         <v>43333</v>
@@ -4025,14 +4247,418 @@
         <v>43333</v>
       </c>
       <c r="G57" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="20">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A58" s="40"/>
+      <c r="B58" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F58" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I57" s="16" t="s">
-        <v>30</v>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" customHeight="1">
+      <c r="A59" s="41"/>
+      <c r="B59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F59" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30" customHeight="1">
+      <c r="A60" s="41"/>
+      <c r="B60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F60" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" customHeight="1">
+      <c r="A61" s="41"/>
+      <c r="B61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F61" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30" customHeight="1">
+      <c r="A62" s="41"/>
+      <c r="B62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F62" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30" customHeight="1">
+      <c r="A63" s="41"/>
+      <c r="B63" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F63" s="44">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="30" customHeight="1">
+      <c r="A64" s="41"/>
+      <c r="B64" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F64" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30" customHeight="1">
+      <c r="A65" s="41"/>
+      <c r="B65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F65" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="30" customHeight="1">
+      <c r="A66" s="41"/>
+      <c r="B66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F66" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H66" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30" customHeight="1">
+      <c r="A67" s="41"/>
+      <c r="B67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F67" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
+        <v>43334</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30" customHeight="1">
+      <c r="A68" s="41"/>
+      <c r="B68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F68" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="45">
+      <c r="A69" s="41"/>
+      <c r="B69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F69" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30" customHeight="1">
+      <c r="A70" s="41"/>
+      <c r="B70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F70" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A71" s="42"/>
+      <c r="B71" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="23">
+        <v>43334</v>
+      </c>
+      <c r="F71" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43334</v>
+      </c>
+      <c r="G71" s="19">
+        <v>0</v>
+      </c>
+      <c r="H71" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +4667,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4055,7 +4681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="178">
+    <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4069,7 +4695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4083,7 +4709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4097,7 +4723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4111,7 +4737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4125,7 +4751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4139,7 +4765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4153,7 +4779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4167,7 +4793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4181,7 +4807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4195,7 +4821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G40">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4209,7 +4835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="83">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4223,7 +4849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4237,7 +4863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G38">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4251,7 +4877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="183">
+    <cfRule type="dataBar" priority="226">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4265,18 +4891,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D26 D28:D33 D35:D40">
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="120" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="121" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="122" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4290,7 +4916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4304,18 +4930,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="111" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="112" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="113" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="67">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4329,7 +4955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4343,18 +4969,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="37" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="105" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="106" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="107" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4368,7 +4994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4382,18 +5008,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="34" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="99" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="100" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="101" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4407,7 +5033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4421,29 +5047,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="93" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="94" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="95" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="87" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="88" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="89" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4457,7 +5083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4470,8 +5096,365 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="dataBar" priority="78">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{790F3E5D-B98B-43E4-B776-99FB4FDB194B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:G48 G51:G54">
+    <cfRule type="dataBar" priority="77">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D26F4B8-EF09-47FE-B5A3-018294CDAE8C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D48 D51:D56">
+    <cfRule type="cellIs" dxfId="26" priority="74" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="75" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="76" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DA8EFBF2-EC51-417E-89A9-A6440B4141A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{019D33FF-2E40-4146-9966-5C9BA03860A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="23" priority="56" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="57" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="58" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G26">
+    <cfRule type="dataBar" priority="228">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E105E78E-E4C2-4A9A-B329-624B3074363B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="dataBar" priority="230">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E7BF149-CAA8-439D-8E5B-9EA775865722}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B89DDC10-2396-4DF5-9992-7335FD506D7E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D58A09B0-009B-431B-B64D-DC6AFED60188}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2D46204B-E531-4A3E-9D7C-641E8906938C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G69">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8A67982-F08A-4558-9747-E7E7278222B2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C0268C3C-53ED-4614-83B7-9CCF1FB6EF4C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:G68 G59:G63">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{02F8D31C-BEAE-49D9-9E5B-59C7B2BECFC3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D70 D58:D63">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C30837FB-1A63-44CC-9361-69B91CFBF873}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{60349216-F58E-405B-8D04-5A92FD630B5E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{384C82AD-CE09-4F77-BCDF-554D24183BBA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{39040D19-10E6-4EF1-8DEE-ABFE048144FC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="dataBar" priority="237">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C5125347-A4EE-4D34-A085-E121976B4266}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="dataBar" priority="238">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16287EDA-5B9C-484B-8E7A-BF918F678EB2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:G70 G59:G63">
+    <cfRule type="dataBar" priority="240">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B8693DD9-A599-4D7D-8111-29C3C5991E84}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="dataBar" priority="242">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4E2F2829-17E7-48DF-8FF0-168EE82C471B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G56">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4485,7 +5468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4496,190 +5479,6 @@
           <x14:id>{926358F5-9C05-4AFE-88F7-B9A5922055D0}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{790F3E5D-B98B-43E4-B776-99FB4FDB194B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G48 G51:G54">
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D26F4B8-EF09-47FE-B5A3-018294CDAE8C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D48 D51:D56">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA8EFBF2-EC51-417E-89A9-A6440B4141A9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{019D33FF-2E40-4146-9966-5C9BA03860A8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A8228A8A-83DB-4B62-9CB4-9AD119B69E6A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67998940-2405-47B3-9706-82EBE8A21F2E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G26">
-    <cfRule type="dataBar" priority="185">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E105E78E-E4C2-4A9A-B329-624B3074363B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="dataBar" priority="187">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E7BF149-CAA8-439D-8E5B-9EA775865722}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B89DDC10-2396-4DF5-9992-7335FD506D7E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D58A09B0-009B-431B-B64D-DC6AFED60188}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
-      <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
@@ -4694,16 +5493,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D57">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D71">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C57">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C71">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G57">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G71">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F57">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F71">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -5033,6 +5832,246 @@
           <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{790F3E5D-B98B-43E4-B776-99FB4FDB194B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4D26F4B8-EF09-47FE-B5A3-018294CDAE8C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G45:G48 G51:G54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DA8EFBF2-EC51-417E-89A9-A6440B4141A9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{019D33FF-2E40-4146-9966-5C9BA03860A8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E105E78E-E4C2-4A9A-B329-624B3074363B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G17:G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E7BF149-CAA8-439D-8E5B-9EA775865722}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B89DDC10-2396-4DF5-9992-7335FD506D7E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D58A09B0-009B-431B-B64D-DC6AFED60188}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2D46204B-E531-4A3E-9D7C-641E8906938C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8A67982-F08A-4558-9747-E7E7278222B2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C0268C3C-53ED-4614-83B7-9CCF1FB6EF4C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{02F8D31C-BEAE-49D9-9E5B-59C7B2BECFC3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G65:G68 G59:G63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C30837FB-1A63-44CC-9361-69B91CFBF873}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{60349216-F58E-405B-8D04-5A92FD630B5E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{384C82AD-CE09-4F77-BCDF-554D24183BBA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{39040D19-10E6-4EF1-8DEE-ABFE048144FC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C5125347-A4EE-4D34-A085-E121976B4266}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{16287EDA-5B9C-484B-8E7A-BF918F678EB2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B8693DD9-A599-4D7D-8111-29C3C5991E84}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G65:G70 G59:G63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4E2F2829-17E7-48DF-8FF0-168EE82C471B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0FC52AD5-26EF-413E-A630-B498F4130EB8}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -5057,127 +6096,7 @@
           <xm:sqref>G56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{790F3E5D-B98B-43E4-B776-99FB4FDB194B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D26F4B8-EF09-47FE-B5A3-018294CDAE8C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G45:G48 G51:G54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA8EFBF2-EC51-417E-89A9-A6440B4141A9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{019D33FF-2E40-4146-9966-5C9BA03860A8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A8228A8A-83DB-4B62-9CB4-9AD119B69E6A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67998940-2405-47B3-9706-82EBE8A21F2E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E105E78E-E4C2-4A9A-B329-624B3074363B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G17:G26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6E7BF149-CAA8-439D-8E5B-9EA775865722}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B89DDC10-2396-4DF5-9992-7335FD506D7E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D58A09B0-009B-431B-B64D-DC6AFED60188}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="109" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+          <x14:cfRule type="iconSet" priority="152" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5196,7 +6115,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="180" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="223" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5215,7 +6134,7 @@
           <xm:sqref>H5:H12 H15:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="105" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+          <x14:cfRule type="iconSet" priority="148" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5234,7 +6153,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="103" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+          <x14:cfRule type="iconSet" priority="146" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5253,7 +6172,7 @@
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="101" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+          <x14:cfRule type="iconSet" priority="144" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5272,7 +6191,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="99" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+          <x14:cfRule type="iconSet" priority="142" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5291,7 +6210,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="90" id="{DB40E23A-4955-4431-9D71-245224111316}">
+          <x14:cfRule type="iconSet" priority="133" id="{DB40E23A-4955-4431-9D71-245224111316}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5310,7 +6229,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="86" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+          <x14:cfRule type="iconSet" priority="129" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5329,7 +6248,7 @@
           <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="88" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+          <x14:cfRule type="iconSet" priority="131" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5348,7 +6267,7 @@
           <xm:sqref>H30:H33 H35:H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="84" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+          <x14:cfRule type="iconSet" priority="127" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5367,7 +6286,7 @@
           <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="184" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+          <x14:cfRule type="iconSet" priority="227" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5386,7 +6305,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="72" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+          <x14:cfRule type="iconSet" priority="115" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5405,7 +6324,7 @@
           <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="66" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+          <x14:cfRule type="iconSet" priority="109" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5424,7 +6343,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="60" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+          <x14:cfRule type="iconSet" priority="103" id="{9C071051-09D3-47FD-B263-7164F1337403}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5443,7 +6362,7 @@
           <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="55" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+          <x14:cfRule type="iconSet" priority="98" id="{67EF7A37-F542-4178-9F13-936880230B01}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5462,7 +6381,7 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+          <x14:cfRule type="iconSet" priority="86" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5481,7 +6400,7 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+          <x14:cfRule type="iconSet" priority="82" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5500,7 +6419,7 @@
           <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+          <x14:cfRule type="iconSet" priority="84" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5519,7 +6438,7 @@
           <xm:sqref>H45:H48 H51:H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+          <x14:cfRule type="iconSet" priority="61" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5535,10 +6454,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="229" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5554,10 +6473,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{6D3DDD7B-5770-42BB-A785-C5741848977B}">
+          <xm:sqref>H17:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="232" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5573,10 +6492,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="186" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="49" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5592,10 +6511,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H17:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="189" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="34" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5611,10 +6530,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="30" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5630,7 +6549,121 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="32" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H65:H68 H59:H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{FE97A374-C141-40B9-9BD2-AE8C4C971299}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="239" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="243" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="249" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5670,16 +6703,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -5710,13 +6743,13 @@
     <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="26" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>43313</v>
@@ -5732,7 +6765,7 @@
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
@@ -5744,7 +6777,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>43313</v>
@@ -5760,7 +6793,7 @@
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
@@ -5772,7 +6805,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>43313</v>
@@ -5788,19 +6821,19 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="29"/>
       <c r="B7" s="26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>43313</v>
@@ -5816,19 +6849,19 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="26" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>43313</v>
@@ -5844,7 +6877,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
@@ -5856,7 +6889,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>43313</v>
@@ -5872,19 +6905,19 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="28" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6">
         <v>43319</v>
@@ -5900,7 +6933,7 @@
         <v>-1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
@@ -5912,7 +6945,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E11" s="24">
         <v>43313</v>
@@ -5928,7 +6961,7 @@
         <v>-1</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5964,13 +6997,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D11">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6107,20 +7140,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -6151,13 +7184,13 @@
     <row r="4" spans="1:9">
       <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>43101</v>
@@ -6173,7 +7206,7 @@
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75">
@@ -6185,7 +7218,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>43101</v>
@@ -6201,7 +7234,7 @@
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="91.5" customHeight="1">
@@ -6213,7 +7246,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>43101</v>
@@ -6229,19 +7262,19 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="29"/>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>43101</v>
@@ -6257,19 +7290,19 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="28" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6">
         <v>43313</v>
@@ -6285,19 +7318,19 @@
         <v>-1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="30"/>
       <c r="B9" s="15" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E9" s="24">
         <v>43101</v>
@@ -6313,7 +7346,7 @@
         <v>-1</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6349,13 +7382,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D9">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="105">
   <si>
     <t>Task</t>
   </si>
@@ -866,6 +866,137 @@
         <scheme val="minor"/>
       </rPr>
       <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 5)
+Duolingo (15m)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 4)
+Duolingo (15m)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intermediate Abs + Intermediate Fat Loss Workout
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13m + 23m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15 rep (times: 1)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 rep (times: 1)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute 40 second (times: 1)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Review Easy Japanese (Lesson 1=&gt;5)
+Duolingo (15m)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Review Vocabulary
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30m</t>
     </r>
   </si>
 </sst>
@@ -961,7 +1092,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,6 +1165,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1101,7 +1238,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1231,11 +1368,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1255,7 +1401,114 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1572,71 +1825,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Century Gothic"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Century Gothic"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="6" tint="0.79998168889431442"/>
@@ -1805,22 +1993,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="67"/>
-      <tableStyleElement type="headerRow" dxfId="66"/>
-      <tableStyleElement type="secondRowStripe" dxfId="65"/>
+      <tableStyleElement type="wholeTable" dxfId="73"/>
+      <tableStyleElement type="headerRow" dxfId="72"/>
+      <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="64"/>
-      <tableStyleElement type="totalRow" dxfId="63"/>
-      <tableStyleElement type="firstRowStripe" dxfId="62"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="60"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="59"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="58"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="57"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="56"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="55"/>
-      <tableStyleElement type="pageFieldValues" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="70"/>
+      <tableStyleElement type="totalRow" dxfId="69"/>
+      <tableStyleElement type="firstRowStripe" dxfId="68"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="67"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="66"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="65"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="64"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="63"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="62"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="61"/>
+      <tableStyleElement type="pageFieldValues" dxfId="60"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2255,25 +2443,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I71" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I84" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I84">
     <filterColumn colId="4">
       <filters>
-        <dateGroupItem year="2018" month="8" day="21" dateTimeGrouping="day"/>
         <dateGroupItem year="2018" month="8" day="22" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="23" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="14" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="51" dataCellStyle="Date"/>
-    <tableColumn id="7" name="Due Date " dataDxfId="45" dataCellStyle="Date">
+    <tableColumn id="4" name="Status " dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="12" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataDxfId="11" dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="50" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="10" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -2291,9 +2479,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="6" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2315,9 +2503,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2636,10 +2824,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
@@ -2663,16 +2851,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -3607,8 +3795,7 @@
         <v>43332</v>
       </c>
       <c r="F35" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -3636,8 +3823,7 @@
         <v>43332</v>
       </c>
       <c r="F36" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -3665,8 +3851,7 @@
         <v>43332</v>
       </c>
       <c r="F37" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -3853,7 +4038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="44" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A44" s="37"/>
       <c r="B44" s="9" t="s">
         <v>22</v>
@@ -3880,7 +4065,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="30" customHeight="1">
+    <row r="45" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="9" t="s">
         <v>13</v>
@@ -3909,7 +4094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30" customHeight="1">
+    <row r="46" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="9" t="s">
         <v>16</v>
@@ -3938,7 +4123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30" customHeight="1">
+    <row r="47" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="9" t="s">
         <v>14</v>
@@ -3967,7 +4152,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" customHeight="1">
+    <row r="48" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>15</v>
@@ -3996,7 +4181,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" customHeight="1">
+    <row r="49" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="9" t="s">
         <v>53</v>
@@ -4025,7 +4210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30" customHeight="1">
+    <row r="50" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="9" t="s">
         <v>52</v>
@@ -4069,8 +4254,7 @@
         <v>43332</v>
       </c>
       <c r="F51" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G51" s="3">
         <v>0.5</v>
@@ -4098,8 +4282,7 @@
         <v>43332</v>
       </c>
       <c r="F52" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G52" s="3">
         <v>0.25</v>
@@ -4127,8 +4310,7 @@
         <v>43332</v>
       </c>
       <c r="F53" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G53" s="3">
         <v>0.5</v>
@@ -4141,7 +4323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30" customHeight="1">
+    <row r="54" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="9" t="s">
         <v>19</v>
@@ -4170,7 +4352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45">
+    <row r="55" spans="1:9" ht="45" hidden="1">
       <c r="A55" s="38"/>
       <c r="B55" s="9" t="s">
         <v>20</v>
@@ -4196,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="9" t="s">
         <v>21</v>
@@ -4228,7 +4410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="57" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A57" s="39"/>
       <c r="B57" s="15" t="s">
         <v>23</v>
@@ -4266,7 +4448,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E58" s="13">
         <v>43334</v>
@@ -4276,11 +4458,11 @@
         <v>43334</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I58" s="5"/>
     </row>
@@ -4293,7 +4475,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E59" s="13">
         <v>43334</v>
@@ -4303,11 +4485,11 @@
         <v>43334</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>94</v>
@@ -4322,7 +4504,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E60" s="13">
         <v>43334</v>
@@ -4332,11 +4514,11 @@
         <v>43334</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>81</v>
@@ -4351,7 +4533,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E61" s="13">
         <v>43334</v>
@@ -4361,11 +4543,11 @@
         <v>43334</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>80</v>
@@ -4380,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E62" s="13">
         <v>43334</v>
@@ -4390,11 +4572,11 @@
         <v>43334</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>79</v>
@@ -4409,21 +4591,21 @@
         <v>6</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E63" s="13">
         <v>43334</v>
       </c>
-      <c r="F63" s="44">
+      <c r="F63" s="43">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43334</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>96</v>
@@ -4438,7 +4620,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E64" s="13">
         <v>43334</v>
@@ -4448,11 +4630,11 @@
         <v>43334</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>78</v>
@@ -4467,17 +4649,16 @@
         <v>6</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E65" s="13">
         <v>43332</v>
       </c>
       <c r="F65" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G65" s="3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H65" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
@@ -4496,17 +4677,16 @@
         <v>6</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E66" s="13">
         <v>43332</v>
       </c>
       <c r="F66" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G66" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H66" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
@@ -4525,17 +4705,16 @@
         <v>6</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E67" s="13">
         <v>43332</v>
       </c>
       <c r="F67" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+2</f>
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="G67" s="3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H67" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
@@ -4554,7 +4733,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E68" s="13">
         <v>43334</v>
@@ -4564,11 +4743,11 @@
         <v>43334</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>77</v>
@@ -4583,7 +4762,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E69" s="13">
         <v>43334</v>
@@ -4593,14 +4772,14 @@
         <v>43334</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30" customHeight="1">
@@ -4612,7 +4791,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E70" s="13">
         <v>43334</v>
@@ -4622,11 +4801,11 @@
         <v>43334</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>62</v>
@@ -4641,7 +4820,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E71" s="23">
         <v>43334</v>
@@ -4651,13 +4830,388 @@
         <v>43334</v>
       </c>
       <c r="G71" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="20">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A72" s="45"/>
+      <c r="B72" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F72" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" ht="30" customHeight="1">
+      <c r="A73" s="44"/>
+      <c r="B73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F73" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="30" customHeight="1">
+      <c r="A74" s="44"/>
+      <c r="B74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F74" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" customHeight="1">
+      <c r="A75" s="44"/>
+      <c r="B75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F75" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30" customHeight="1">
+      <c r="A76" s="44"/>
+      <c r="B76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F76" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="30" customHeight="1">
+      <c r="A77" s="44"/>
+      <c r="B77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F77" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30" customHeight="1">
+      <c r="A78" s="44"/>
+      <c r="B78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F78" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="30" customHeight="1">
+      <c r="A79" s="44"/>
+      <c r="B79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F79" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="30" customHeight="1">
+      <c r="A80" s="44"/>
+      <c r="B80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F80" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="30" customHeight="1">
+      <c r="A81" s="44"/>
+      <c r="B81" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F81" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="45">
+      <c r="A82" s="44"/>
+      <c r="B82" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F82" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="30" customHeight="1">
+      <c r="A83" s="44"/>
+      <c r="B83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="13">
+        <v>43335</v>
+      </c>
+      <c r="F83" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A84" s="46"/>
+      <c r="B84" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="23">
+        <v>43335</v>
+      </c>
+      <c r="F84" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43335</v>
+      </c>
+      <c r="G84" s="19">
+        <v>0</v>
+      </c>
+      <c r="H84" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I84" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4667,7 +5221,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="151">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4681,7 +5235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="221">
+    <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4695,7 +5249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="147">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4709,7 +5263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4723,7 +5277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="143">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4737,7 +5291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4751,7 +5305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="140">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4765,7 +5319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="139">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4779,7 +5333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="138">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4793,7 +5347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="132">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4807,7 +5361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4821,7 +5375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G40">
-    <cfRule type="dataBar" priority="130">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4835,7 +5389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="126">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4849,7 +5403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4863,7 +5417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G38">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4877,7 +5431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="226">
+    <cfRule type="dataBar" priority="257">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4890,19 +5444,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D26 D28:D33 D35:D40">
-    <cfRule type="cellIs" dxfId="44" priority="120" operator="equal">
+  <conditionalFormatting sqref="D4:D26 D28:D33 D35:D40 D72:D84">
+    <cfRule type="cellIs" dxfId="59" priority="151" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="152" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="153" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4916,7 +5470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="114">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4930,18 +5484,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="41" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="142" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="143" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="144" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4955,7 +5509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4969,18 +5523,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="38" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="136" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="137" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="138" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4994,7 +5548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5008,18 +5562,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="35" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="130" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="131" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="132" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5033,7 +5587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5047,29 +5601,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="32" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="124" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="125" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="126" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="29" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="118" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="119" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="120" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5083,7 +5637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5097,7 +5651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5111,7 +5665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G54">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5125,18 +5679,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D48 D51:D56">
-    <cfRule type="cellIs" dxfId="26" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="105" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="106" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="107" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5150,7 +5704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5164,18 +5718,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="23" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="87" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="88" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="89" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G26">
-    <cfRule type="dataBar" priority="228">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5189,7 +5743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="dataBar" priority="230">
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5203,7 +5757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5217,7 +5771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5231,29 +5785,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="75" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="76" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="77" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="66" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="67" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="68" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5267,7 +5821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5281,7 +5835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5295,7 +5849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G68 G59:G63">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5309,18 +5863,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:D70 D58:D63">
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="53" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="55" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5334,7 +5888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5348,57 +5902,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="48" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{384C82AD-CE09-4F77-BCDF-554D24183BBA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39040D19-10E6-4EF1-8DEE-ABFE048144FC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="237">
+    <cfRule type="dataBar" priority="268">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5412,7 +5927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="238">
+    <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5425,8 +5940,209 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G45:G48 G51:G56">
+    <cfRule type="dataBar" priority="277">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0FC52AD5-26EF-413E-A630-B498F4130EB8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="dataBar" priority="279">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{926358F5-9C05-4AFE-88F7-B9A5922055D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4E00DCEB-F246-4387-A57B-3766D3D6B1AC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0184EFB2-6681-42E6-B2D7-3F84CA5B9410}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{848718D8-3E4E-45B6-A2A1-AA2471160F1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78:G81 G73:G76">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66AAC24C-600A-4FF1-B485-047B05389595}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5BE0C837-A42B-40EE-A321-E8AE3BD5525F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7440DEB7-6616-4D53-88F1-83A48BDB26C2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78:G83 G73:G76">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B824E131-5FC5-43BA-B2A7-EBB5F63E76C1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22FDE620-6CDE-4971-893F-E703D1748BF2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8129DCFA-C236-4263-8EF5-0FF9C6F91310}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6A6A585-9050-49B3-88A9-418BC419B04B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G65:G70 G59:G63">
-    <cfRule type="dataBar" priority="240">
+    <cfRule type="dataBar" priority="281">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5440,7 +6156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="dataBar" priority="242">
+    <cfRule type="dataBar" priority="283">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5453,8 +6169,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G48 G51:G56">
-    <cfRule type="dataBar" priority="246">
+  <conditionalFormatting sqref="G71">
+    <cfRule type="dataBar" priority="285">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5462,21 +6178,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0FC52AD5-26EF-413E-A630-B498F4130EB8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="dataBar" priority="248">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{926358F5-9C05-4AFE-88F7-B9A5922055D0}</x14:id>
+          <x14:id>{1290EA9C-A05F-4355-BAAA-112A755B0B72}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5493,16 +6195,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D71">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D84">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C71">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C84">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G71">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G84">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F71">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F84">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -6000,30 +6702,6 @@
           <xm:sqref>G64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{384C82AD-CE09-4F77-BCDF-554D24183BBA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39040D19-10E6-4EF1-8DEE-ABFE048144FC}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C5125347-A4EE-4D34-A085-E121976B4266}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -6048,6 +6726,150 @@
           <xm:sqref>G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0FC52AD5-26EF-413E-A630-B498F4130EB8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G45:G48 G51:G56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{926358F5-9C05-4AFE-88F7-B9A5922055D0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4E00DCEB-F246-4387-A57B-3766D3D6B1AC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0184EFB2-6681-42E6-B2D7-3F84CA5B9410}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{848718D8-3E4E-45B6-A2A1-AA2471160F1C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66AAC24C-600A-4FF1-B485-047B05389595}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G78:G81 G73:G76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5BE0C837-A42B-40EE-A321-E8AE3BD5525F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7440DEB7-6616-4D53-88F1-83A48BDB26C2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B824E131-5FC5-43BA-B2A7-EBB5F63E76C1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G78:G83 G73:G76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22FDE620-6CDE-4971-893F-E703D1748BF2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8129DCFA-C236-4263-8EF5-0FF9C6F91310}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A6A6A585-9050-49B3-88A9-418BC419B04B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B8693DD9-A599-4D7D-8111-29C3C5991E84}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -6072,7 +6894,7 @@
           <xm:sqref>G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0FC52AD5-26EF-413E-A630-B498F4130EB8}">
+          <x14:cfRule type="dataBar" id="{1290EA9C-A05F-4355-BAAA-112A755B0B72}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6081,22 +6903,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G45:G48 G51:G56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{926358F5-9C05-4AFE-88F7-B9A5922055D0}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="152" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+          <xm:sqref>G71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="183" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6115,7 +6925,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="223" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="254" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6134,7 +6944,7 @@
           <xm:sqref>H5:H12 H15:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="148" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+          <x14:cfRule type="iconSet" priority="179" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6153,7 +6963,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="146" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+          <x14:cfRule type="iconSet" priority="177" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6172,7 +6982,7 @@
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="144" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+          <x14:cfRule type="iconSet" priority="175" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6191,7 +7001,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="142" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+          <x14:cfRule type="iconSet" priority="173" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6210,7 +7020,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="133" id="{DB40E23A-4955-4431-9D71-245224111316}">
+          <x14:cfRule type="iconSet" priority="164" id="{DB40E23A-4955-4431-9D71-245224111316}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6229,7 +7039,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="129" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+          <x14:cfRule type="iconSet" priority="160" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6248,7 +7058,7 @@
           <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="131" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+          <x14:cfRule type="iconSet" priority="162" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6267,7 +7077,7 @@
           <xm:sqref>H30:H33 H35:H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="127" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+          <x14:cfRule type="iconSet" priority="158" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6286,7 +7096,7 @@
           <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="227" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+          <x14:cfRule type="iconSet" priority="258" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6305,7 +7115,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="115" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+          <x14:cfRule type="iconSet" priority="146" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6324,7 +7134,7 @@
           <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="109" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+          <x14:cfRule type="iconSet" priority="140" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6343,7 +7153,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="103" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+          <x14:cfRule type="iconSet" priority="134" id="{9C071051-09D3-47FD-B263-7164F1337403}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6362,7 +7172,7 @@
           <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="98" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+          <x14:cfRule type="iconSet" priority="129" id="{67EF7A37-F542-4178-9F13-936880230B01}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6381,7 +7191,7 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="86" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+          <x14:cfRule type="iconSet" priority="117" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6400,7 +7210,7 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="82" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+          <x14:cfRule type="iconSet" priority="113" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6419,7 +7229,7 @@
           <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="84" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+          <x14:cfRule type="iconSet" priority="115" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6438,7 +7248,7 @@
           <xm:sqref>H45:H48 H51:H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="61" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+          <x14:cfRule type="iconSet" priority="92" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6457,7 +7267,7 @@
           <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="229" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+          <x14:cfRule type="iconSet" priority="260" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6476,7 +7286,7 @@
           <xm:sqref>H17:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="232" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+          <x14:cfRule type="iconSet" priority="263" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6495,7 +7305,7 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+          <x14:cfRule type="iconSet" priority="80" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6514,7 +7324,7 @@
           <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
+          <x14:cfRule type="iconSet" priority="65" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6533,7 +7343,7 @@
           <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
+          <x14:cfRule type="iconSet" priority="61" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6552,7 +7362,7 @@
           <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+          <x14:cfRule type="iconSet" priority="63" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6571,7 +7381,7 @@
           <xm:sqref>H65:H68 H59:H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+          <x14:cfRule type="iconSet" priority="52" id="{B287672E-9797-4B22-A572-AC10C293B364}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6590,7 +7400,7 @@
           <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{FE97A374-C141-40B9-9BD2-AE8C4C971299}">
+          <x14:cfRule type="iconSet" priority="270" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6606,10 +7416,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="239" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="280" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6625,10 +7435,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="243" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{E688FAB8-B424-4796-9349-26D597696460}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6644,10 +7454,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="249" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+          <xm:sqref>H72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="19" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6663,7 +7473,121 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H78:H81 H73:H76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{DA0A36CC-3D30-4C4B-B2F7-FDCC4C0E3A0F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="284" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="287" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6703,16 +7627,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -6997,13 +7921,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7144,16 +8068,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -7382,13 +8306,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="111">
   <si>
     <t>Task</t>
   </si>
@@ -365,42 +365,6 @@
       </rPr>
       <t>1m</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Android: Introduction to Testing in Java
-Estimate:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Century Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 3h 54m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java: Java Web Fundamentals
-Estimate: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Century Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2h 28m</t>
-    </r>
-  </si>
-  <si>
-    <t>Front End Libraries: React (3/3)
-Estimate: 1h</t>
   </si>
   <si>
     <r>
@@ -661,22 +625,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Android: Android Programming with Intents
-Estimate: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Century Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1h</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Front End Libraries: React (3/3)
 Estimate: </t>
     </r>
@@ -768,22 +716,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>5m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java: Applying Concurrency and Multi-threading
-Estimate: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Century Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1h</t>
     </r>
   </si>
   <si>
@@ -998,6 +930,119 @@
       </rPr>
       <t>30m</t>
     </r>
+  </si>
+  <si>
+    <t>Get up (5AM)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15 rep (times: 2)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 rep (times: 2)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 minute 40 second (times: 2)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android: Android Programming with Intents
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4h 14m</t>
+    </r>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bodyweight Toning Workout - Beginner + HIIT Core - Beginner
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14m + 21m</t>
+    </r>
+  </si>
+  <si>
+    <t>Workout Challenges</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Knee Push-up: 15 rep (times: 3)
+Push-up: 7 rep (times: 3)
+Plank: 1 minute 40 second (times: 2)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5m</t>
+    </r>
+  </si>
+  <si>
+    <t>HackerRank</t>
+  </si>
+  <si>
+    <t>Java: Introduction</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,6 +1216,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1238,7 +1295,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1380,8 +1437,29 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1401,7 +1479,574 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1425,27 +2070,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1468,27 +2092,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
     </dxf>
     <dxf>
@@ -1508,321 +2111,6 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1993,22 +2281,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="73"/>
-      <tableStyleElement type="headerRow" dxfId="72"/>
-      <tableStyleElement type="secondRowStripe" dxfId="71"/>
+      <tableStyleElement type="wholeTable" dxfId="103"/>
+      <tableStyleElement type="headerRow" dxfId="102"/>
+      <tableStyleElement type="secondRowStripe" dxfId="101"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="70"/>
-      <tableStyleElement type="totalRow" dxfId="69"/>
-      <tableStyleElement type="firstRowStripe" dxfId="68"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="67"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="66"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="65"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="64"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="63"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="62"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="61"/>
-      <tableStyleElement type="pageFieldValues" dxfId="60"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="firstRowStripe" dxfId="98"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="97"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="96"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="95"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="94"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="93"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="92"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="91"/>
+      <tableStyleElement type="pageFieldValues" dxfId="90"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2443,8 +2731,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I84" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I108" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I108">
     <filterColumn colId="4">
       <filters>
         <dateGroupItem year="2018" month="8" day="22" dateTimeGrouping="day"/>
@@ -2453,15 +2741,15 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="89" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="12" dataCellStyle="Date"/>
-    <tableColumn id="7" name="Due Date " dataDxfId="11" dataCellStyle="Date">
+    <tableColumn id="4" name="Status " dataDxfId="88" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="87" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataDxfId="86" dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="10" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="85" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -2479,9 +2767,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="84" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="83" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2503,9 +2791,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="82" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="81" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2824,23 +3112,23 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="12" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="52.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="68" customWidth="1"/>
     <col min="10" max="10" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2851,16 +3139,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -3172,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39.75" hidden="1" customHeight="1">
@@ -3286,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3315,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3344,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3373,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3402,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3431,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3460,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3518,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3576,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
@@ -3661,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3690,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3719,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3748,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3777,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1">
@@ -3789,23 +4077,23 @@
         <v>6</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E35" s="13">
         <v>43332</v>
       </c>
       <c r="F35" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1">
@@ -3817,23 +4105,23 @@
         <v>6</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E36" s="13">
         <v>43332</v>
       </c>
       <c r="F36" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1">
@@ -3845,23 +4133,23 @@
         <v>6</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E37" s="13">
         <v>43332</v>
       </c>
       <c r="F37" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3890,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="45" hidden="1">
@@ -3919,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -3977,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -4006,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
@@ -4091,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -4120,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -4149,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -4178,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -4207,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -4236,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" customHeight="1">
@@ -4248,23 +4536,23 @@
         <v>6</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E51" s="13">
         <v>43332</v>
       </c>
       <c r="F51" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G51" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H51" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30" customHeight="1">
@@ -4276,16 +4564,16 @@
         <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E52" s="13">
         <v>43332</v>
       </c>
       <c r="F52" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G52" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
@@ -4304,23 +4592,23 @@
         <v>6</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E53" s="13">
         <v>43332</v>
       </c>
       <c r="F53" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G53" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -4349,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="45" hidden="1">
@@ -4378,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" hidden="1" customHeight="1">
@@ -4492,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" customHeight="1">
@@ -4521,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30" customHeight="1">
@@ -4550,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="30" customHeight="1">
@@ -4579,13 +4867,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="30" customHeight="1">
       <c r="A63" s="41"/>
       <c r="B63" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>6</v>
@@ -4608,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="30" customHeight="1">
@@ -4637,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="30" customHeight="1">
@@ -4649,23 +4937,23 @@
         <v>6</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E65" s="13">
         <v>43332</v>
       </c>
       <c r="F65" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G65" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H65" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30" customHeight="1">
@@ -4677,23 +4965,23 @@
         <v>6</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E66" s="13">
         <v>43332</v>
       </c>
       <c r="F66" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G66" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H66" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="30" customHeight="1">
@@ -4705,23 +4993,23 @@
         <v>6</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E67" s="13">
         <v>43332</v>
       </c>
       <c r="F67" s="6">
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G67" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H67" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="30" customHeight="1">
@@ -4750,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="45">
@@ -4779,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30" customHeight="1">
@@ -4843,13 +5131,13 @@
     <row r="72" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
       <c r="A72" s="45"/>
       <c r="B72" s="9" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72" s="13">
         <v>43335</v>
@@ -4859,11 +5147,11 @@
         <v>43335</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I72" s="5"/>
     </row>
@@ -4876,7 +5164,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E73" s="13">
         <v>43335</v>
@@ -4886,14 +5174,14 @@
         <v>43335</v>
       </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="30" customHeight="1">
@@ -4905,7 +5193,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E74" s="13">
         <v>43335</v>
@@ -4915,14 +5203,14 @@
         <v>43335</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30" customHeight="1">
@@ -4934,7 +5222,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E75" s="13">
         <v>43335</v>
@@ -4944,14 +5232,14 @@
         <v>43335</v>
       </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="30" customHeight="1">
@@ -4963,7 +5251,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E76" s="13">
         <v>43335</v>
@@ -4973,14 +5261,14 @@
         <v>43335</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="30" customHeight="1">
@@ -4992,7 +5280,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E77" s="13">
         <v>43335</v>
@@ -5002,14 +5290,14 @@
         <v>43335</v>
       </c>
       <c r="G77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="30" customHeight="1">
@@ -5021,14 +5309,13 @@
         <v>6</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E78" s="13">
         <v>43335</v>
       </c>
       <c r="F78" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G78" s="3">
         <v>0</v>
@@ -5038,7 +5325,7 @@
         <v>-1</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="30" customHeight="1">
@@ -5050,14 +5337,13 @@
         <v>6</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E79" s="13">
         <v>43335</v>
       </c>
       <c r="F79" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -5067,7 +5353,7 @@
         <v>-1</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="30" customHeight="1">
@@ -5079,14 +5365,13 @@
         <v>6</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E80" s="13">
         <v>43335</v>
       </c>
       <c r="F80" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43335</v>
+        <v>43337</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -5096,7 +5381,7 @@
         <v>-1</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="30" customHeight="1">
@@ -5108,7 +5393,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E81" s="13">
         <v>43335</v>
@@ -5118,14 +5403,14 @@
         <v>43335</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="45">
@@ -5137,7 +5422,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E82" s="13">
         <v>43335</v>
@@ -5147,14 +5432,14 @@
         <v>43335</v>
       </c>
       <c r="G82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="30" customHeight="1">
@@ -5166,7 +5451,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E83" s="13">
         <v>43335</v>
@@ -5176,11 +5461,11 @@
         <v>43335</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>62</v>
@@ -5195,7 +5480,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E84" s="23">
         <v>43335</v>
@@ -5205,13 +5490,702 @@
         <v>43335</v>
       </c>
       <c r="G84" s="19">
+        <v>1</v>
+      </c>
+      <c r="H84" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A85" s="47"/>
+      <c r="B85" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F85" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="10">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" ht="30" customHeight="1">
+      <c r="A86" s="48"/>
+      <c r="B86" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F86" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30" customHeight="1">
+      <c r="A87" s="48"/>
+      <c r="B87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F87" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="30" customHeight="1">
+      <c r="A88" s="48"/>
+      <c r="B88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F88" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="30" customHeight="1">
+      <c r="A89" s="48"/>
+      <c r="B89" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F89" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="30" customHeight="1">
+      <c r="A90" s="48"/>
+      <c r="B90" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F90" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30" customHeight="1">
+      <c r="A91" s="48"/>
+      <c r="B91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F91" s="6">
+        <v>43337</v>
+      </c>
+      <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H91" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I84" s="16" t="s">
+      <c r="I91" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="30" customHeight="1">
+      <c r="A92" s="48"/>
+      <c r="B92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F92" s="6">
+        <v>43337</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="30" customHeight="1">
+      <c r="A93" s="48"/>
+      <c r="B93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F93" s="6">
+        <v>43337</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="30" customHeight="1">
+      <c r="A94" s="48"/>
+      <c r="B94" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F94" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="45">
+      <c r="A95" s="48"/>
+      <c r="B95" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F95" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="30" customHeight="1">
+      <c r="A96" s="48"/>
+      <c r="B96" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="13">
+        <v>43336</v>
+      </c>
+      <c r="F96" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="H96" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A97" s="49"/>
+      <c r="B97" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="23">
+        <v>43336</v>
+      </c>
+      <c r="F97" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43336</v>
+      </c>
+      <c r="G97" s="19">
+        <v>1</v>
+      </c>
+      <c r="H97" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A98" s="52"/>
+      <c r="B98" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F98" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="30" customHeight="1">
+      <c r="A99" s="53"/>
+      <c r="B99" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F99" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="30" customHeight="1">
+      <c r="A100" s="53"/>
+      <c r="B100" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F100" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="30" customHeight="1">
+      <c r="A101" s="53"/>
+      <c r="B101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F101" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30" customHeight="1">
+      <c r="A102" s="53"/>
+      <c r="B102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F102" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="30" customHeight="1">
+      <c r="A103" s="53"/>
+      <c r="B103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F103" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="30" customHeight="1">
+      <c r="A104" s="53"/>
+      <c r="B104" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F104" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="30" customHeight="1">
+      <c r="A105" s="53"/>
+      <c r="B105" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F105" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="45">
+      <c r="A106" s="53"/>
+      <c r="B106" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F106" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="30" customHeight="1">
+      <c r="A107" s="53"/>
+      <c r="B107" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="13">
+        <v>43337</v>
+      </c>
+      <c r="F107" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A108" s="54"/>
+      <c r="B108" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="23">
+        <v>43337</v>
+      </c>
+      <c r="F108" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43337</v>
+      </c>
+      <c r="G108" s="19">
+        <v>0</v>
+      </c>
+      <c r="H108" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I108" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5221,7 +6195,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="182">
+    <cfRule type="dataBar" priority="285">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5235,7 +6209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="252">
+    <cfRule type="dataBar" priority="355">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5249,7 +6223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="178">
+    <cfRule type="dataBar" priority="281">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5263,7 +6237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="279">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5277,7 +6251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="174">
+    <cfRule type="dataBar" priority="277">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5291,7 +6265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="275">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5305,7 +6279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="171">
+    <cfRule type="dataBar" priority="274">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5319,7 +6293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="170">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5333,7 +6307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="169">
+    <cfRule type="dataBar" priority="272">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5347,7 +6321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="163">
+    <cfRule type="dataBar" priority="266">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5361,7 +6335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="262">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5375,7 +6349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G40">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="264">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5389,7 +6363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="260">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5403,7 +6377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5417,7 +6391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G38">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="258">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5431,7 +6405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="257">
+    <cfRule type="dataBar" priority="360">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5444,19 +6418,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D26 D28:D33 D35:D40 D72:D84">
-    <cfRule type="cellIs" dxfId="59" priority="151" operator="equal">
+  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D83 D35:D40 D85:D88 D90:D96 D98:D108">
+    <cfRule type="cellIs" dxfId="80" priority="254" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="255" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="256" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="147">
+    <cfRule type="dataBar" priority="250">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5470,7 +6444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5484,18 +6458,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="56" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="245" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="246" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="247" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5509,7 +6483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="139">
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5523,18 +6497,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="53" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="239" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="240" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="241" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="135">
+    <cfRule type="dataBar" priority="238">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5548,7 +6522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5562,18 +6536,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="50" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="233" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="234" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="235" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5587,7 +6561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5601,29 +6575,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="47" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="227" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="228" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="229" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="44" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="221" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="222" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="223" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5637,7 +6611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5651,7 +6625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5665,7 +6639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G54">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5678,19 +6652,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D48 D51:D56">
-    <cfRule type="cellIs" dxfId="41" priority="105" operator="equal">
+  <conditionalFormatting sqref="D44:D48 D54:D56">
+    <cfRule type="cellIs" dxfId="62" priority="208" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="209" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="210" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="91">
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5704,7 +6678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="193">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5718,18 +6692,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="38" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="190" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="191" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="192" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G26">
-    <cfRule type="dataBar" priority="259">
+    <cfRule type="dataBar" priority="362">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5743,7 +6717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="dataBar" priority="261">
+    <cfRule type="dataBar" priority="364">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5757,7 +6731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="79">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5771,7 +6745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5785,29 +6759,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="35" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="178" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="179" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="180" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="32" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="169" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="170" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="171" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5821,7 +6795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5835,7 +6809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5849,7 +6823,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G68 G59:G63">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5863,18 +6837,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:D70 D58:D63">
-    <cfRule type="cellIs" dxfId="29" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="156" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="157" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="158" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5888,7 +6862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5902,18 +6876,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="150" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="151" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="152" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="268">
+    <cfRule type="dataBar" priority="371">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5927,7 +6901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="269">
+    <cfRule type="dataBar" priority="372">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5941,7 +6915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G56">
-    <cfRule type="dataBar" priority="277">
+    <cfRule type="dataBar" priority="380">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5955,7 +6929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="dataBar" priority="279">
+    <cfRule type="dataBar" priority="382">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5969,18 +6943,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="129" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="130" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="131" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5994,7 +6968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6008,7 +6982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6022,7 +6996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:G81 G73:G76">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6036,7 +7010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6050,7 +7024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6064,18 +7038,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="110" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="111" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="112" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:G83 G73:G76">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6089,7 +7063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6102,47 +7076,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8129DCFA-C236-4263-8EF5-0FF9C6F91310}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A6A6A585-9050-49B3-88A9-418BC419B04B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G65:G70 G59:G63">
-    <cfRule type="dataBar" priority="281">
+    <cfRule type="dataBar" priority="384">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6156,7 +7091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="dataBar" priority="283">
+    <cfRule type="dataBar" priority="386">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6170,7 +7105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="dataBar" priority="285">
+    <cfRule type="dataBar" priority="388">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6179,6 +7114,435 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1290EA9C-A05F-4355-BAAA-112A755B0B72}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="38" priority="101" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="102" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="103" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="dataBar" priority="99">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5051AEEF-099C-4580-83AF-C1BA606F4D71}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="dataBar" priority="98">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2AE6ADB1-2970-422F-BE07-5BB74FAE982E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="35" priority="95" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="96" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="97" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="dataBar" priority="87">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19F4DA75-2D3E-4BD2-B2D8-31885EEFA401}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95">
+    <cfRule type="dataBar" priority="84">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C654C9FC-B9F9-42B2-9A78-4AE3A869BDBB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G94 G86:G88">
+    <cfRule type="dataBar" priority="82">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7F1C1194-19DB-49F6-AD04-08E9AE5B9633}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="dataBar" priority="80">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27D42487-EAF9-4385-8155-9EC65C31DF86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="dataBar" priority="79">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{40D76B60-6360-4911-B4AA-4D547B4649C0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="cellIs" dxfId="32" priority="76" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="77" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="78" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:D53">
+    <cfRule type="cellIs" dxfId="29" priority="64" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="65" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="66" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="cellIs" dxfId="26" priority="61" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="62" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="63" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{08067957-B427-42AC-9B00-DAD16ACA3F51}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{56990EE5-83FF-4399-87F3-9EE974AAD3CD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="cellIs" dxfId="23" priority="55" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="56" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="57" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="20" priority="51" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="52" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="53" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="46" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="47" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A60D234C-DD1C-4CA1-B421-47C6372BCA4E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8188D3FB-D323-4534-8BCB-EF23D124F33A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100:G107">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A95ADA9-335C-4F8B-9166-7295A5EB9616}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5F475BB-1D69-4ED1-AE76-82D30F864CFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106:G107">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28775F83-624D-4DD1-817C-76A683739385}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B03B315E-3401-4A1E-8012-73E0D9C13309}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3A8A01FC-6046-4803-B31D-22C8A3D72FAB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86:G88 G91:G96">
+    <cfRule type="dataBar" priority="391">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79CFF436-6C1A-4015-AC80-BCF256083C24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G96">
+    <cfRule type="dataBar" priority="393">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A83062BF-EA99-46D4-8755-963CFED92372}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95:G96">
+    <cfRule type="dataBar" priority="395">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5336265-7486-4EA5-AAB9-8F4512838642}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="dataBar" priority="396">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B0D0226-F7B9-4E26-AC71-1A79387F5540}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100:G105">
+    <cfRule type="dataBar" priority="405">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A95ADA9-335C-4F8B-9166-7295A5EB9616}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99:G107">
+    <cfRule type="dataBar" priority="411">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6195,16 +7559,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D84">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D108">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C84">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C108">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G84">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G108">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F84">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F108">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -6846,30 +8210,6 @@
           <xm:sqref>G83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8129DCFA-C236-4263-8EF5-0FF9C6F91310}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A6A6A585-9050-49B3-88A9-418BC419B04B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B8693DD9-A599-4D7D-8111-29C3C5991E84}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -6906,7 +8246,91 @@
           <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="183" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+          <x14:cfRule type="dataBar" id="{5051AEEF-099C-4580-83AF-C1BA606F4D71}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2AE6ADB1-2970-422F-BE07-5BB74FAE982E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{19F4DA75-2D3E-4BD2-B2D8-31885EEFA401}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G85</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C654C9FC-B9F9-42B2-9A78-4AE3A869BDBB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7F1C1194-19DB-49F6-AD04-08E9AE5B9633}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G91:G94 G86:G88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27D42487-EAF9-4385-8155-9EC65C31DF86}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{40D76B60-6360-4911-B4AA-4D547B4649C0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="286" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6925,7 +8349,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="254" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="357" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6944,7 +8368,7 @@
           <xm:sqref>H5:H12 H15:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="179" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+          <x14:cfRule type="iconSet" priority="282" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6963,7 +8387,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="177" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+          <x14:cfRule type="iconSet" priority="280" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6982,7 +8406,7 @@
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="175" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+          <x14:cfRule type="iconSet" priority="278" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7001,7 +8425,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="173" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+          <x14:cfRule type="iconSet" priority="276" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7020,7 +8444,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="164" id="{DB40E23A-4955-4431-9D71-245224111316}">
+          <x14:cfRule type="iconSet" priority="267" id="{DB40E23A-4955-4431-9D71-245224111316}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7039,7 +8463,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="160" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+          <x14:cfRule type="iconSet" priority="263" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7058,7 +8482,7 @@
           <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="162" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+          <x14:cfRule type="iconSet" priority="265" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7077,7 +8501,7 @@
           <xm:sqref>H30:H33 H35:H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="158" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+          <x14:cfRule type="iconSet" priority="261" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7096,7 +8520,7 @@
           <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="258" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+          <x14:cfRule type="iconSet" priority="361" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7115,7 +8539,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="146" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+          <x14:cfRule type="iconSet" priority="249" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7134,7 +8558,7 @@
           <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="140" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+          <x14:cfRule type="iconSet" priority="243" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7153,7 +8577,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="134" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+          <x14:cfRule type="iconSet" priority="237" id="{9C071051-09D3-47FD-B263-7164F1337403}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7172,7 +8596,7 @@
           <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="129" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+          <x14:cfRule type="iconSet" priority="232" id="{67EF7A37-F542-4178-9F13-936880230B01}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7191,7 +8615,7 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="117" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+          <x14:cfRule type="iconSet" priority="220" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7210,7 +8634,7 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="113" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+          <x14:cfRule type="iconSet" priority="216" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7229,7 +8653,7 @@
           <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="115" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+          <x14:cfRule type="iconSet" priority="218" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7248,7 +8672,7 @@
           <xm:sqref>H45:H48 H51:H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="92" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+          <x14:cfRule type="iconSet" priority="195" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7267,7 +8691,7 @@
           <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="260" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+          <x14:cfRule type="iconSet" priority="363" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7286,7 +8710,7 @@
           <xm:sqref>H17:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="263" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+          <x14:cfRule type="iconSet" priority="366" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7305,7 +8729,7 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="80" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+          <x14:cfRule type="iconSet" priority="183" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7324,7 +8748,7 @@
           <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="65" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
+          <x14:cfRule type="iconSet" priority="168" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7343,7 +8767,7 @@
           <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="61" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
+          <x14:cfRule type="iconSet" priority="164" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7362,7 +8786,7 @@
           <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="63" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+          <x14:cfRule type="iconSet" priority="166" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7381,7 +8805,7 @@
           <xm:sqref>H65:H68 H59:H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="52" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+          <x14:cfRule type="iconSet" priority="155" id="{B287672E-9797-4B22-A572-AC10C293B364}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7400,7 +8824,7 @@
           <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="270" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+          <x14:cfRule type="iconSet" priority="373" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7419,7 +8843,7 @@
           <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="280" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+          <x14:cfRule type="iconSet" priority="383" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7438,7 +8862,7 @@
           <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{E688FAB8-B424-4796-9349-26D597696460}">
+          <x14:cfRule type="iconSet" priority="125" id="{E688FAB8-B424-4796-9349-26D597696460}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7457,7 +8881,7 @@
           <xm:sqref>H72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
+          <x14:cfRule type="iconSet" priority="122" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7476,7 +8900,7 @@
           <xm:sqref>H82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
+          <x14:cfRule type="iconSet" priority="123" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7495,7 +8919,7 @@
           <xm:sqref>H78:H81 H73:H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
+          <x14:cfRule type="iconSet" priority="115" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7514,7 +8938,7 @@
           <xm:sqref>H77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
+          <x14:cfRule type="iconSet" priority="128" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7533,7 +8957,7 @@
           <xm:sqref>H83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{DA0A36CC-3D30-4C4B-B2F7-FDCC4C0E3A0F}">
+          <x14:cfRule type="iconSet" priority="387" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7549,10 +8973,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="284" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+          <xm:sqref>H70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="390" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7568,10 +8992,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="287" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
+          <xm:sqref>H71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="100" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7587,7 +9011,434 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="88" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H85</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="85" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="86" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H91:H94 H86:H88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="81" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{08067957-B427-42AC-9B00-DAD16ACA3F51}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{56990EE5-83FF-4399-87F3-9EE974AAD3CD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="60" id="{A824115C-A50E-4989-B554-7048899EEC61}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A60D234C-DD1C-4CA1-B421-47C6372BCA4E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8188D3FB-D323-4534-8BCB-EF23D124F33A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A95ADA9-335C-4F8B-9166-7295A5EB9616}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G100:G107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5F475BB-1D69-4ED1-AE76-82D30F864CFA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="38" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="35" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="41" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28775F83-624D-4DD1-817C-76A683739385}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G106:G107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B03B315E-3401-4A1E-8012-73E0D9C13309}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3A8A01FC-6046-4803-B31D-22C8A3D72FAB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{3F54355B-3E20-43CB-A5E8-55212FDD6030}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79CFF436-6C1A-4015-AC80-BCF256083C24}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G86:G88 G91:G96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A83062BF-EA99-46D4-8755-963CFED92372}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="394" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5336265-7486-4EA5-AAB9-8F4512838642}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G95:G96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B0D0226-F7B9-4E26-AC71-1A79387F5540}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="398" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A95ADA9-335C-4F8B-9166-7295A5EB9616}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G100:G105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="409" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H100:H105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G99:G107</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7627,16 +9478,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -7921,13 +9772,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D11">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8068,16 +9919,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -8306,13 +10157,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D9">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="117">
   <si>
     <t>Task</t>
   </si>
@@ -997,9 +997,6 @@
       </rPr>
       <t>4h 14m</t>
     </r>
-  </si>
-  <si>
-    <t>Deferred</t>
   </si>
   <si>
     <r>
@@ -1043,6 +1040,109 @@
   </si>
   <si>
     <t>Java: Introduction</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 6)
+Duolingo (15m)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Strings
+Problem_Solving: Warmup
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Java Web Fundamentals
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2h 28m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Front End Libraries: React (3/3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lower Back Relaxation
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Knee Push-up: 20 rep (times: 1)
+Push-up: 8 rep (times: 1)
+Plank: 1 minute 40 second (times: 3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5m</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1137,7 +1237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,6 +1328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1295,7 +1401,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1446,9 +1552,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1459,6 +1562,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1479,7 +1594,133 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="122">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2281,22 +2522,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="103"/>
-      <tableStyleElement type="headerRow" dxfId="102"/>
-      <tableStyleElement type="secondRowStripe" dxfId="101"/>
+      <tableStyleElement type="wholeTable" dxfId="121"/>
+      <tableStyleElement type="headerRow" dxfId="120"/>
+      <tableStyleElement type="secondRowStripe" dxfId="119"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="100"/>
-      <tableStyleElement type="totalRow" dxfId="99"/>
-      <tableStyleElement type="firstRowStripe" dxfId="98"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="97"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="96"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="95"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="94"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="93"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="92"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="91"/>
-      <tableStyleElement type="pageFieldValues" dxfId="90"/>
+      <tableStyleElement type="headerRow" dxfId="118"/>
+      <tableStyleElement type="totalRow" dxfId="117"/>
+      <tableStyleElement type="firstRowStripe" dxfId="116"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="115"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="114"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="113"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="112"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="111"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="110"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="109"/>
+      <tableStyleElement type="pageFieldValues" dxfId="108"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2731,25 +2972,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I108" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I108">
-    <filterColumn colId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I119" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I119">
+    <filterColumn colId="3">
       <filters>
-        <dateGroupItem year="2018" month="8" day="22" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="8" day="23" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="25" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="89" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="107" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="88" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="87" dataCellStyle="Date"/>
-    <tableColumn id="7" name="Due Date " dataDxfId="86" dataCellStyle="Date">
+    <tableColumn id="4" name="Status " dataDxfId="106" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="105" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataDxfId="104" dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="85" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="103" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -2767,9 +3007,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="102" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="101" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2791,9 +3031,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="100" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="81" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="99" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -3112,10 +3352,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
@@ -3139,16 +3379,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -4068,7 +4308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" customHeight="1">
+    <row r="35" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="9" t="s">
         <v>17</v>
@@ -4077,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E35" s="13">
         <v>43332</v>
@@ -4090,13 +4330,13 @@
       </c>
       <c r="H35" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" customHeight="1">
+    <row r="36" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A36" s="32"/>
       <c r="B36" s="9" t="s">
         <v>18</v>
@@ -4105,7 +4345,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E36" s="13">
         <v>43332</v>
@@ -4118,13 +4358,13 @@
       </c>
       <c r="H36" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" customHeight="1">
+    <row r="37" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="9" t="s">
         <v>18</v>
@@ -4133,7 +4373,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E37" s="13">
         <v>43332</v>
@@ -4146,7 +4386,7 @@
       </c>
       <c r="H37" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>104</v>
@@ -4527,7 +4767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" customHeight="1">
+    <row r="51" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A51" s="38"/>
       <c r="B51" s="9" t="s">
         <v>17</v>
@@ -4536,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E51" s="13">
         <v>43332</v>
@@ -4549,13 +4789,13 @@
       </c>
       <c r="H51" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="30" customHeight="1">
+    <row r="52" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A52" s="38"/>
       <c r="B52" s="9" t="s">
         <v>18</v>
@@ -4564,7 +4804,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E52" s="13">
         <v>43332</v>
@@ -4577,13 +4817,13 @@
       </c>
       <c r="H52" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" customHeight="1">
+    <row r="53" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>18</v>
@@ -4592,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E53" s="13">
         <v>43332</v>
@@ -4605,7 +4845,7 @@
       </c>
       <c r="H53" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>104</v>
@@ -4727,7 +4967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="58" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A58" s="40"/>
       <c r="B58" s="9" t="s">
         <v>22</v>
@@ -4754,7 +4994,7 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="30" customHeight="1">
+    <row r="59" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A59" s="41"/>
       <c r="B59" s="9" t="s">
         <v>13</v>
@@ -4783,7 +5023,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30" customHeight="1">
+    <row r="60" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A60" s="41"/>
       <c r="B60" s="9" t="s">
         <v>16</v>
@@ -4812,7 +5052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30" customHeight="1">
+    <row r="61" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A61" s="41"/>
       <c r="B61" s="9" t="s">
         <v>14</v>
@@ -4841,7 +5081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" customHeight="1">
+    <row r="62" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A62" s="41"/>
       <c r="B62" s="9" t="s">
         <v>15</v>
@@ -4870,7 +5110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30" customHeight="1">
+    <row r="63" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A63" s="41"/>
       <c r="B63" s="28" t="s">
         <v>90</v>
@@ -4899,7 +5139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="30" customHeight="1">
+    <row r="64" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A64" s="41"/>
       <c r="B64" s="9" t="s">
         <v>52</v>
@@ -4928,7 +5168,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="30" customHeight="1">
+    <row r="65" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A65" s="41"/>
       <c r="B65" s="9" t="s">
         <v>17</v>
@@ -4956,7 +5196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="30" customHeight="1">
+    <row r="66" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A66" s="41"/>
       <c r="B66" s="9" t="s">
         <v>18</v>
@@ -4984,7 +5224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" customHeight="1">
+    <row r="67" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A67" s="41"/>
       <c r="B67" s="9" t="s">
         <v>18</v>
@@ -5012,7 +5252,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="30" customHeight="1">
+    <row r="68" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A68" s="41"/>
       <c r="B68" s="9" t="s">
         <v>19</v>
@@ -5041,7 +5281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="45">
+    <row r="69" spans="1:9" ht="45" hidden="1">
       <c r="A69" s="41"/>
       <c r="B69" s="9" t="s">
         <v>20</v>
@@ -5070,7 +5310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="30" customHeight="1">
+    <row r="70" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A70" s="41"/>
       <c r="B70" s="9" t="s">
         <v>21</v>
@@ -5099,7 +5339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="71" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A71" s="42"/>
       <c r="B71" s="15" t="s">
         <v>23</v>
@@ -5128,7 +5368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="72" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A72" s="45"/>
       <c r="B72" s="9" t="s">
         <v>100</v>
@@ -5155,7 +5395,7 @@
       </c>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" ht="30" customHeight="1">
+    <row r="73" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A73" s="44"/>
       <c r="B73" s="9" t="s">
         <v>13</v>
@@ -5184,7 +5424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="30" customHeight="1">
+    <row r="74" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A74" s="44"/>
       <c r="B74" s="9" t="s">
         <v>16</v>
@@ -5213,7 +5453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" customHeight="1">
+    <row r="75" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A75" s="44"/>
       <c r="B75" s="9" t="s">
         <v>14</v>
@@ -5242,7 +5482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="30" customHeight="1">
+    <row r="76" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A76" s="44"/>
       <c r="B76" s="9" t="s">
         <v>15</v>
@@ -5271,7 +5511,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="30" customHeight="1">
+    <row r="77" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A77" s="44"/>
       <c r="B77" s="9" t="s">
         <v>52</v>
@@ -5300,7 +5540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="30" customHeight="1">
+    <row r="78" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A78" s="44"/>
       <c r="B78" s="9" t="s">
         <v>17</v>
@@ -5309,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E78" s="13">
         <v>43335</v>
@@ -5318,17 +5558,17 @@
         <v>43337</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30" customHeight="1">
+    <row r="79" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A79" s="44"/>
       <c r="B79" s="9" t="s">
         <v>18</v>
@@ -5337,7 +5577,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E79" s="13">
         <v>43335</v>
@@ -5346,17 +5586,17 @@
         <v>43337</v>
       </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30" customHeight="1">
+    <row r="80" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A80" s="44"/>
       <c r="B80" s="9" t="s">
         <v>18</v>
@@ -5365,7 +5605,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E80" s="13">
         <v>43335</v>
@@ -5374,17 +5614,17 @@
         <v>43337</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="30" customHeight="1">
+    <row r="81" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A81" s="44"/>
       <c r="B81" s="9" t="s">
         <v>19</v>
@@ -5413,7 +5653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="45">
+    <row r="82" spans="1:9" ht="45" hidden="1">
       <c r="A82" s="44"/>
       <c r="B82" s="9" t="s">
         <v>20</v>
@@ -5442,7 +5682,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="30" customHeight="1">
+    <row r="83" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A83" s="44"/>
       <c r="B83" s="9" t="s">
         <v>21</v>
@@ -5471,7 +5711,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="84" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A84" s="46"/>
       <c r="B84" s="15" t="s">
         <v>23</v>
@@ -5500,7 +5740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="85" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A85" s="47"/>
       <c r="B85" s="9" t="s">
         <v>100</v>
@@ -5527,7 +5767,7 @@
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" ht="30" customHeight="1">
+    <row r="86" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A86" s="48"/>
       <c r="B86" s="9" t="s">
         <v>16</v>
@@ -5556,7 +5796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="30" customHeight="1">
+    <row r="87" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A87" s="48"/>
       <c r="B87" s="9" t="s">
         <v>14</v>
@@ -5585,7 +5825,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="30" customHeight="1">
+    <row r="88" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A88" s="48"/>
       <c r="B88" s="9" t="s">
         <v>15</v>
@@ -5614,7 +5854,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" customHeight="1">
+    <row r="89" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A89" s="48"/>
       <c r="B89" s="28" t="s">
         <v>90</v>
@@ -5643,7 +5883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" customHeight="1">
+    <row r="90" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A90" s="48"/>
       <c r="B90" s="9" t="s">
         <v>52</v>
@@ -5672,7 +5912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="30" customHeight="1">
+    <row r="91" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A91" s="48"/>
       <c r="B91" s="9" t="s">
         <v>17</v>
@@ -5681,7 +5921,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E91" s="13">
         <v>43336</v>
@@ -5690,17 +5930,17 @@
         <v>43337</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="30" customHeight="1">
+    <row r="92" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A92" s="48"/>
       <c r="B92" s="9" t="s">
         <v>18</v>
@@ -5709,7 +5949,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E92" s="13">
         <v>43336</v>
@@ -5718,17 +5958,17 @@
         <v>43337</v>
       </c>
       <c r="G92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30" customHeight="1">
+    <row r="93" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A93" s="48"/>
       <c r="B93" s="9" t="s">
         <v>18</v>
@@ -5737,7 +5977,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E93" s="13">
         <v>43336</v>
@@ -5746,17 +5986,17 @@
         <v>43337</v>
       </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="30" customHeight="1">
+    <row r="94" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A94" s="48"/>
       <c r="B94" s="9" t="s">
         <v>19</v>
@@ -5785,7 +6025,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="45">
+    <row r="95" spans="1:9" ht="45" hidden="1">
       <c r="A95" s="48"/>
       <c r="B95" s="9" t="s">
         <v>20</v>
@@ -5814,7 +6054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="30" customHeight="1">
+    <row r="96" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A96" s="48"/>
       <c r="B96" s="9" t="s">
         <v>21</v>
@@ -5843,7 +6083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="97" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A97" s="49"/>
       <c r="B97" s="15" t="s">
         <v>23</v>
@@ -5873,7 +6113,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A98" s="52"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
@@ -5881,7 +6121,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E98" s="13">
         <v>43337</v>
@@ -5891,16 +6131,16 @@
         <v>43337</v>
       </c>
       <c r="G98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="30" customHeight="1">
-      <c r="A99" s="53"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="9" t="s">
         <v>13</v>
       </c>
@@ -5908,7 +6148,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E99" s="13">
         <v>43337</v>
@@ -5918,26 +6158,26 @@
         <v>43337</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I99" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="60">
+      <c r="A100" s="52"/>
+      <c r="B100" s="9" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="30" customHeight="1">
-      <c r="A100" s="53"/>
-      <c r="B100" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E100" s="13">
         <v>43337</v>
@@ -5947,18 +6187,18 @@
         <v>43337</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="30" customHeight="1">
-      <c r="A101" s="53"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="9" t="s">
         <v>17</v>
       </c>
@@ -5966,7 +6206,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E101" s="13">
         <v>43337</v>
@@ -5976,7 +6216,7 @@
         <v>43337</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H101" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
@@ -5987,7 +6227,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="30" customHeight="1">
-      <c r="A102" s="53"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="9" t="s">
         <v>18</v>
       </c>
@@ -5995,7 +6235,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E102" s="13">
         <v>43337</v>
@@ -6005,18 +6245,18 @@
         <v>43337</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="30" customHeight="1">
-      <c r="A103" s="53"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="9" t="s">
         <v>18</v>
       </c>
@@ -6024,7 +6264,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E103" s="13">
         <v>43337</v>
@@ -6045,15 +6285,15 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="30" customHeight="1">
-      <c r="A104" s="53"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="51" t="s">
-        <v>9</v>
+      <c r="D104" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="E104" s="13">
         <v>43337</v>
@@ -6063,18 +6303,18 @@
         <v>43337</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30" customHeight="1">
-      <c r="A105" s="53"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="9" t="s">
         <v>19</v>
       </c>
@@ -6082,7 +6322,7 @@
         <v>7</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E105" s="13">
         <v>43337</v>
@@ -6092,18 +6332,18 @@
         <v>43337</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="45">
-      <c r="A106" s="53"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="9" t="s">
         <v>20</v>
       </c>
@@ -6111,7 +6351,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E106" s="13">
         <v>43337</v>
@@ -6121,18 +6361,18 @@
         <v>43337</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" customHeight="1">
-      <c r="A107" s="53"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="9" t="s">
         <v>21</v>
       </c>
@@ -6140,7 +6380,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E107" s="13">
         <v>43337</v>
@@ -6150,18 +6390,18 @@
         <v>43337</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A108" s="54"/>
+      <c r="A108" s="53"/>
       <c r="B108" s="15" t="s">
         <v>23</v>
       </c>
@@ -6169,7 +6409,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E108" s="23">
         <v>43337</v>
@@ -6179,13 +6419,330 @@
         <v>43337</v>
       </c>
       <c r="G108" s="19">
+        <v>1</v>
+      </c>
+      <c r="H108" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A109" s="55"/>
+      <c r="B109" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F109" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G109" s="3">
         <v>0</v>
       </c>
-      <c r="H108" s="20">
+      <c r="H109" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I108" s="16" t="s">
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="30" customHeight="1">
+      <c r="A110" s="56"/>
+      <c r="B110" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F110" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="60">
+      <c r="A111" s="56"/>
+      <c r="B111" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F111" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" customHeight="1">
+      <c r="A112" s="56"/>
+      <c r="B112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F112" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="30" customHeight="1">
+      <c r="A113" s="56"/>
+      <c r="B113" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F113" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="30" customHeight="1">
+      <c r="A114" s="56"/>
+      <c r="B114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F114" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="45">
+      <c r="A115" s="56"/>
+      <c r="B115" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F115" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="30" customHeight="1">
+      <c r="A116" s="56"/>
+      <c r="B116" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F116" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="45">
+      <c r="A117" s="56"/>
+      <c r="B117" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F117" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="30" customHeight="1">
+      <c r="A118" s="56"/>
+      <c r="B118" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F118" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A119" s="57"/>
+      <c r="B119" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="23">
+        <v>43338</v>
+      </c>
+      <c r="F119" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43338</v>
+      </c>
+      <c r="G119" s="19">
+        <v>0</v>
+      </c>
+      <c r="H119" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I119" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6195,7 +6752,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="285">
+    <cfRule type="dataBar" priority="332">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6209,7 +6766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="355">
+    <cfRule type="dataBar" priority="402">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6223,7 +6780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="281">
+    <cfRule type="dataBar" priority="328">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6237,7 +6794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="279">
+    <cfRule type="dataBar" priority="326">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6251,7 +6808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="277">
+    <cfRule type="dataBar" priority="324">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6265,7 +6822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="275">
+    <cfRule type="dataBar" priority="322">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6279,7 +6836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="274">
+    <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6293,7 +6850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="273">
+    <cfRule type="dataBar" priority="320">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6307,7 +6864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="272">
+    <cfRule type="dataBar" priority="319">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6321,7 +6878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="266">
+    <cfRule type="dataBar" priority="313">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6335,7 +6892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="262">
+    <cfRule type="dataBar" priority="309">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6349,7 +6906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G40">
-    <cfRule type="dataBar" priority="264">
+    <cfRule type="dataBar" priority="311">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6363,7 +6920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="260">
+    <cfRule type="dataBar" priority="307">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6377,7 +6934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="259">
+    <cfRule type="dataBar" priority="306">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6391,7 +6948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G38">
-    <cfRule type="dataBar" priority="258">
+    <cfRule type="dataBar" priority="305">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6405,7 +6962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="360">
+    <cfRule type="dataBar" priority="407">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6418,19 +6975,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D83 D35:D40 D85:D88 D90:D96 D98:D108">
-    <cfRule type="cellIs" dxfId="80" priority="254" operator="equal">
+  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D98:D107 D81:D83 D94:D96">
+    <cfRule type="cellIs" dxfId="98" priority="301" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="302" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="303" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="250">
+    <cfRule type="dataBar" priority="297">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6444,7 +7001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="248">
+    <cfRule type="dataBar" priority="295">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6458,18 +7015,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="77" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="292" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="293" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="294" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="244">
+    <cfRule type="dataBar" priority="291">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6483,7 +7040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="242">
+    <cfRule type="dataBar" priority="289">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6497,18 +7054,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="74" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="286" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="287" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="288" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="238">
+    <cfRule type="dataBar" priority="285">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6522,7 +7079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="236">
+    <cfRule type="dataBar" priority="283">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6536,18 +7093,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="71" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="280" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="281" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="282" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="231">
+    <cfRule type="dataBar" priority="278">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6561,7 +7118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="230">
+    <cfRule type="dataBar" priority="277">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6575,29 +7132,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="68" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="274" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="275" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="276" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="65" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="268" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="269" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="270" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="dataBar" priority="219">
+    <cfRule type="dataBar" priority="266">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6611,7 +7168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="262">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6625,7 +7182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="dataBar" priority="212">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6639,7 +7196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G54">
-    <cfRule type="dataBar" priority="211">
+    <cfRule type="dataBar" priority="258">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6653,18 +7210,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D48 D54:D56">
-    <cfRule type="cellIs" dxfId="62" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="255" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="256" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="257" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="194">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6678,7 +7235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="193">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6692,18 +7249,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="59" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="237" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="238" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="239" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G26">
-    <cfRule type="dataBar" priority="362">
+    <cfRule type="dataBar" priority="409">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6717,7 +7274,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="dataBar" priority="364">
+    <cfRule type="dataBar" priority="411">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6731,7 +7288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="182">
+    <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6745,7 +7302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="181">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6759,29 +7316,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="56" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="225" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="226" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="227" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="53" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="216" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="217" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="218" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6795,7 +7352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="dataBar" priority="163">
+    <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6809,7 +7366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6823,7 +7380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G68 G59:G63">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="206">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6836,19 +7393,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D70 D58:D63">
-    <cfRule type="cellIs" dxfId="50" priority="156" operator="equal">
+  <conditionalFormatting sqref="D58:D63 D65:D70">
+    <cfRule type="cellIs" dxfId="68" priority="203" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="204" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="205" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="154">
+    <cfRule type="dataBar" priority="201">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6862,7 +7419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6876,18 +7433,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="47" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="197" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="198" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="199" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="371">
+    <cfRule type="dataBar" priority="418">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6901,7 +7458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="372">
+    <cfRule type="dataBar" priority="419">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6915,7 +7472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G56">
-    <cfRule type="dataBar" priority="380">
+    <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6929,7 +7486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="dataBar" priority="382">
+    <cfRule type="dataBar" priority="429">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6943,18 +7500,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="44" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="176" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="177" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="178" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6968,7 +7525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6982,7 +7539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6995,8 +7552,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:G81 G73:G76">
-    <cfRule type="dataBar" priority="119">
+  <conditionalFormatting sqref="G73:G76 G81">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7010,7 +7567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="114">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7024,7 +7581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7038,18 +7595,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="41" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="157" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="158" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="159" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:G83 G73:G76">
-    <cfRule type="dataBar" priority="126">
+  <conditionalFormatting sqref="G81:G83 G73:G76">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7063,7 +7620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7077,7 +7634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G70 G59:G63">
-    <cfRule type="dataBar" priority="384">
+    <cfRule type="dataBar" priority="431">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7091,7 +7648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="dataBar" priority="386">
+    <cfRule type="dataBar" priority="433">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7105,7 +7662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="dataBar" priority="388">
+    <cfRule type="dataBar" priority="435">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7119,18 +7676,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="38" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="148" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="149" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="150" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7144,7 +7701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7158,18 +7715,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="35" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="142" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="143" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="144" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7183,7 +7740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7196,8 +7753,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:G94 G86:G88">
-    <cfRule type="dataBar" priority="82">
+  <conditionalFormatting sqref="G86:G88 G94">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7211,7 +7768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7225,7 +7782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="79">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7239,40 +7796,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="32" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="123" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="124" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="125" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D53">
-    <cfRule type="cellIs" dxfId="29" priority="64" operator="equal">
+  <conditionalFormatting sqref="D89">
+    <cfRule type="cellIs" dxfId="47" priority="108" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="109" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="110" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="26" priority="61" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="62" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="63" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7286,7 +7832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="58">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7300,40 +7846,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="23" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="102" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="103" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="104" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="20" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="98" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="99" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="100" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="92" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="93" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="94" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7347,7 +7893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7360,8 +7906,75 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100:G107">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="G86:G88 G94:G96">
+    <cfRule type="dataBar" priority="438">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79CFF436-6C1A-4015-AC80-BCF256083C24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G96">
+    <cfRule type="dataBar" priority="440">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A83062BF-EA99-46D4-8755-963CFED92372}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95:G96">
+    <cfRule type="dataBar" priority="442">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5336265-7486-4EA5-AAB9-8F4512838642}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="dataBar" priority="443">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B0D0226-F7B9-4E26-AC71-1A79387F5540}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99">
+    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="53" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100:G105">
+    <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7374,8 +7987,303 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D91:D93 D78:D80 D51:D53 D35:D37">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93 G78:G80">
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{91035889-4DE8-42E0-851B-600D475BBF25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93 G78:G80">
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E51AB6E1-ED14-43D1-86A4-A57B18BFDB4F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0659398-CDF2-431E-AC80-1791804886B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B45E785F-1A15-4DCC-AAEA-7CD890710991}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109:D118">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A7B4F896-F232-4CFE-8DF4-BC843867BE4F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8672D1C9-C9BF-441B-A351-3E2A37848D94}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111:G118">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6EBB5B25-5DD8-403E-9B3C-9738B97F69DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{774117C8-368B-4861-A04D-31B3B8F28D9D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117:G118">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{525DE30E-694F-4CD3-8AAC-02F1BB6F1FBA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110:D118">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111:G116">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DEEF296-7408-4D6F-A2B3-DE7C68282DBA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110:G118">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DE3A79C-526F-4E82-9967-DFC87AF1A3DF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E5C1027-4E40-420F-8B8E-534ACB7CFD37}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9C90BAAE-330F-411B-92EC-40D9ADA2523A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100:G107">
+    <cfRule type="dataBar" priority="459">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63892313-5C2E-4F48-A49D-B8A8EE3594DA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="460">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7389,7 +8297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:G107">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="461">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7402,139 +8310,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B03B315E-3401-4A1E-8012-73E0D9C13309}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3A8A01FC-6046-4803-B31D-22C8A3D72FAB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G88 G91:G96">
-    <cfRule type="dataBar" priority="391">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79CFF436-6C1A-4015-AC80-BCF256083C24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G96">
-    <cfRule type="dataBar" priority="393">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A83062BF-EA99-46D4-8755-963CFED92372}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G95:G96">
-    <cfRule type="dataBar" priority="395">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5336265-7486-4EA5-AAB9-8F4512838642}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
-    <cfRule type="dataBar" priority="396">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0B0D0226-F7B9-4E26-AC71-1A79387F5540}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G100:G105">
-    <cfRule type="dataBar" priority="405">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0A95ADA9-335C-4F8B-9166-7295A5EB9616}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G99:G107">
-    <cfRule type="dataBar" priority="411">
+    <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7559,16 +8336,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D108">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D119">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C108">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C119">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G108">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G119">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F108">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F119">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -8159,7 +8936,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G78:G81 G73:G76</xm:sqref>
+          <xm:sqref>G73:G76 G81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5BE0C837-A42B-40EE-A321-E8AE3BD5525F}">
@@ -8195,7 +8972,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G78:G83 G73:G76</xm:sqref>
+          <xm:sqref>G81:G83 G73:G76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22FDE620-6CDE-4971-893F-E703D1748BF2}">
@@ -8303,7 +9080,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G91:G94 G86:G88</xm:sqref>
+          <xm:sqref>G86:G88 G94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{27D42487-EAF9-4385-8155-9EC65C31DF86}">
@@ -8330,766 +9107,6 @@
           <xm:sqref>G90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="286" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="357" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H5:H12 H15:H16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="282" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="280" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="278" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="276" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="267" id="{DB40E23A-4955-4431-9D71-245224111316}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="263" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="265" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H30:H33 H35:H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="261" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="361" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="249" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="243" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="237" id="{9C071051-09D3-47FD-B263-7164F1337403}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="232" id="{67EF7A37-F542-4178-9F13-936880230B01}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="220" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="216" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="218" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H45:H48 H51:H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="195" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="363" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H17:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="366" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="183" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="168" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="164" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="166" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H65:H68 H59:H63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="155" id="{B287672E-9797-4B22-A572-AC10C293B364}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="373" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="383" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="125" id="{E688FAB8-B424-4796-9349-26D597696460}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="122" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="123" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H78:H81 H73:H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="115" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="128" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="387" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="390" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="100" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="88" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="85" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="86" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H91:H94 H86:H88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="81" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08067957-B427-42AC-9B00-DAD16ACA3F51}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -9114,25 +9131,6 @@
           <xm:sqref>G89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="60" id="{A824115C-A50E-4989-B554-7048899EEC61}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A60D234C-DD1C-4CA1-B421-47C6372BCA4E}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -9157,6 +9155,54 @@
           <xm:sqref>G106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79CFF436-6C1A-4015-AC80-BCF256083C24}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G86:G88 G94:G96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A83062BF-EA99-46D4-8755-963CFED92372}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5336265-7486-4EA5-AAB9-8F4512838642}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G95:G96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B0D0226-F7B9-4E26-AC71-1A79387F5540}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0A95ADA9-335C-4F8B-9166-7295A5EB9616}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -9166,6 +9212,1200 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G100:G105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{91035889-4DE8-42E0-851B-600D475BBF25}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G91:G93 G78:G80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E51AB6E1-ED14-43D1-86A4-A57B18BFDB4F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G91:G93 G78:G80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="333" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="404" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H5:H12 H15:H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="329" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="327" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="325" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="323" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="314" id="{DB40E23A-4955-4431-9D71-245224111316}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="310" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="312" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H30:H33 H35:H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="308" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="408" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="296" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="290" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="284" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="279" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="267" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="263" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="265" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H45:H48 H51:H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="242" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="410" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H17:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="413" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="230" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="215" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="211" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="213" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H65:H68 H59:H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="202" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="420" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="430" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="172" id="{E688FAB8-B424-4796-9349-26D597696460}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="169" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="170" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H78:H81 H73:H76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="162" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="175" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="434" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="437" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="147" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="135" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H85</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="132" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="133" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H91:H94 H86:H88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="128" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="107" id="{A824115C-A50E-4989-B554-7048899EEC61}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="85" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="82" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="441" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="445" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="50" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="456" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H100:H105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0659398-CDF2-431E-AC80-1791804886B4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B45E785F-1A15-4DCC-AAEA-7CD890710991}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="36" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A7B4F896-F232-4CFE-8DF4-BC843867BE4F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G109</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8672D1C9-C9BF-441B-A351-3E2A37848D94}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6EBB5B25-5DD8-403E-9B3C-9738B97F69DE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G111:G118</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{774117C8-368B-4861-A04D-31B3B8F28D9D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G118</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{525DE30E-694F-4CD3-8AAC-02F1BB6F1FBA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G118</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DEEF296-7408-4D6F-A2B3-DE7C68282DBA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G111:G116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DE3A79C-526F-4E82-9967-DFC87AF1A3DF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G110:G118</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H109</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="24" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H118</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="29" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H111:H116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E5C1027-4E40-420F-8B8E-534ACB7CFD37}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G119</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9C90BAAE-330F-411B-92EC-40D9ADA2523A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G119</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{C42B2214-99B1-4315-A9FC-34AA66510BF7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H119</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63892313-5C2E-4F48-A49D-B8A8EE3594DA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>G100:G107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -9181,63 +10421,6 @@
           <xm:sqref>G107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{28775F83-624D-4DD1-817C-76A683739385}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -9250,185 +10433,6 @@
           <xm:sqref>G106:G107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B03B315E-3401-4A1E-8012-73E0D9C13309}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A8A01FC-6046-4803-B31D-22C8A3D72FAB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{3F54355B-3E20-43CB-A5E8-55212FDD6030}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79CFF436-6C1A-4015-AC80-BCF256083C24}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G86:G88 G91:G96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A83062BF-EA99-46D4-8755-963CFED92372}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="394" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5336265-7486-4EA5-AAB9-8F4512838642}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G95:G96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0B0D0226-F7B9-4E26-AC71-1A79387F5540}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="398" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0A95ADA9-335C-4F8B-9166-7295A5EB9616}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G100:G105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="409" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H100:H105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -9439,6 +10443,25 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>G99:G107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="463" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H107</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9478,16 +10501,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -9919,16 +10942,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="116">
   <si>
     <t>Task</t>
   </si>
@@ -1076,22 +1076,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>1h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java: Java Web Fundamentals
-Estimate: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Century Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2h 28m</t>
     </r>
   </si>
   <si>
@@ -1564,9 +1548,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1575,6 +1556,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1594,49 +1578,7 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="122">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="116">
     <dxf>
       <fill>
         <patternFill>
@@ -2522,22 +2464,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="121"/>
-      <tableStyleElement type="headerRow" dxfId="120"/>
-      <tableStyleElement type="secondRowStripe" dxfId="119"/>
+      <tableStyleElement type="wholeTable" dxfId="115"/>
+      <tableStyleElement type="headerRow" dxfId="114"/>
+      <tableStyleElement type="secondRowStripe" dxfId="113"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="118"/>
-      <tableStyleElement type="totalRow" dxfId="117"/>
-      <tableStyleElement type="firstRowStripe" dxfId="116"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="115"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="114"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="113"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="112"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="111"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="110"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="109"/>
-      <tableStyleElement type="pageFieldValues" dxfId="108"/>
+      <tableStyleElement type="headerRow" dxfId="112"/>
+      <tableStyleElement type="totalRow" dxfId="111"/>
+      <tableStyleElement type="firstRowStripe" dxfId="110"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="109"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="108"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="107"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="106"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="105"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="104"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="103"/>
+      <tableStyleElement type="pageFieldValues" dxfId="102"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2972,8 +2914,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I119" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I115" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I115">
     <filterColumn colId="3">
       <filters>
         <dateGroupItem year="2018" month="8" day="25" dateTimeGrouping="day"/>
@@ -2981,15 +2923,15 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="107" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="101" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="106" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="105" dataCellStyle="Date"/>
-    <tableColumn id="7" name="Due Date " dataDxfId="104" dataCellStyle="Date">
+    <tableColumn id="4" name="Status " dataDxfId="100" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="99" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataDxfId="98" dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="103" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="97" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -3007,9 +2949,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="102" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="96" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="95" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -3031,9 +2973,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="100" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="94" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="99" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="93" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -3352,9 +3294,9 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3379,16 +3321,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -6228,19 +6170,19 @@
     </row>
     <row r="102" spans="1:9" ht="30" customHeight="1">
       <c r="A102" s="52"/>
-      <c r="B102" s="9" t="s">
-        <v>18</v>
+      <c r="B102" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D102" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="13">
         <v>43337</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="43">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43337</v>
       </c>
@@ -6252,19 +6194,19 @@
         <v>1</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="30" customHeight="1">
       <c r="A103" s="52"/>
       <c r="B103" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="E103" s="13">
         <v>43337</v>
@@ -6274,31 +6216,31 @@
         <v>43337</v>
       </c>
       <c r="G103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="30" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="45">
       <c r="A104" s="52"/>
-      <c r="B104" s="28" t="s">
-        <v>108</v>
+      <c r="B104" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="13">
         <v>43337</v>
       </c>
-      <c r="F104" s="43">
+      <c r="F104" s="6">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43337</v>
       </c>
@@ -6310,16 +6252,16 @@
         <v>1</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30" customHeight="1">
       <c r="A105" s="52"/>
       <c r="B105" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>11</v>
@@ -6339,103 +6281,101 @@
         <v>1</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="45">
-      <c r="A106" s="52"/>
-      <c r="B106" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A106" s="53"/>
+      <c r="B106" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="23">
         <v>43337</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="18">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43337</v>
       </c>
-      <c r="G106" s="3">
-        <v>1</v>
-      </c>
-      <c r="H106" s="7">
+      <c r="G106" s="19">
+        <v>1</v>
+      </c>
+      <c r="H106" s="20">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="I106" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="30" customHeight="1">
-      <c r="A107" s="52"/>
+      <c r="I106" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A107" s="54"/>
       <c r="B107" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E107" s="13">
-        <v>43337</v>
-      </c>
-      <c r="F107" s="6">
+        <v>43338</v>
+      </c>
+      <c r="F107" s="1">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43337</v>
+        <v>43338</v>
       </c>
       <c r="G107" s="3">
-        <v>1</v>
-      </c>
-      <c r="H107" s="7">
+        <v>0</v>
+      </c>
+      <c r="H107" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A108" s="53"/>
-      <c r="B108" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="23">
-        <v>43337</v>
-      </c>
-      <c r="F108" s="18">
+        <v>-1</v>
+      </c>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" ht="30" customHeight="1">
+      <c r="A108" s="55"/>
+      <c r="B108" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="13">
+        <v>43338</v>
+      </c>
+      <c r="F108" s="6">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43337</v>
-      </c>
-      <c r="G108" s="19">
-        <v>1</v>
-      </c>
-      <c r="H108" s="20">
+        <v>43338</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+        <v>-1</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="60">
       <c r="A109" s="55"/>
       <c r="B109" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>9</v>
@@ -6443,26 +6383,28 @@
       <c r="E109" s="13">
         <v>43338</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="6">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43338</v>
       </c>
       <c r="G109" s="3">
         <v>0</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I109" s="5"/>
+      <c r="I109" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="30" customHeight="1">
-      <c r="A110" s="56"/>
+      <c r="A110" s="55"/>
       <c r="B110" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>9</v>
@@ -6482,16 +6424,16 @@
         <v>-1</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="60">
-      <c r="A111" s="56"/>
-      <c r="B111" s="9" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="45">
+      <c r="A111" s="55"/>
+      <c r="B111" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>9</v>
@@ -6499,7 +6441,7 @@
       <c r="E111" s="13">
         <v>43338</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="43">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43338</v>
       </c>
@@ -6511,16 +6453,16 @@
         <v>-1</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1">
-      <c r="A112" s="56"/>
+      <c r="A112" s="55"/>
       <c r="B112" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>9</v>
@@ -6540,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="30" customHeight="1">
-      <c r="A113" s="56"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="45">
+      <c r="A113" s="55"/>
       <c r="B113" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>9</v>
@@ -6569,16 +6511,16 @@
         <v>-1</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="30" customHeight="1">
-      <c r="A114" s="56"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>9</v>
@@ -6598,151 +6540,35 @@
         <v>-1</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A115" s="56"/>
-      <c r="B115" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="12" t="s">
+      <c r="B115" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="23">
         <v>43338</v>
       </c>
-      <c r="F115" s="43">
+      <c r="F115" s="18">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43338</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="19">
         <v>0</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="20">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I115" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="30" customHeight="1">
-      <c r="A116" s="56"/>
-      <c r="B116" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="13">
-        <v>43338</v>
-      </c>
-      <c r="F116" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43338</v>
-      </c>
-      <c r="G116" s="3">
-        <v>0</v>
-      </c>
-      <c r="H116" s="7">
-        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="45">
-      <c r="A117" s="56"/>
-      <c r="B117" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="13">
-        <v>43338</v>
-      </c>
-      <c r="F117" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43338</v>
-      </c>
-      <c r="G117" s="3">
-        <v>0</v>
-      </c>
-      <c r="H117" s="7">
-        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="30" customHeight="1">
-      <c r="A118" s="56"/>
-      <c r="B118" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="13">
-        <v>43338</v>
-      </c>
-      <c r="F118" s="6">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43338</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="7">
-        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A119" s="57"/>
-      <c r="B119" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="23">
-        <v>43338</v>
-      </c>
-      <c r="F119" s="18">
-        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43338</v>
-      </c>
-      <c r="G119" s="19">
-        <v>0</v>
-      </c>
-      <c r="H119" s="20">
-        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="I119" s="16" t="s">
+      <c r="I115" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6975,14 +6801,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D98:D107 D81:D83 D94:D96">
-    <cfRule type="cellIs" dxfId="98" priority="301" operator="equal">
+  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D81:D83 D94:D96 D98:D105 D107:D114">
+    <cfRule type="cellIs" dxfId="92" priority="301" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="302" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="303" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7015,13 +6841,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="95" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="292" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="293" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="294" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7054,13 +6880,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="92" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="286" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="287" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="288" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7093,13 +6919,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="89" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="280" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="281" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="282" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7132,24 +6958,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="86" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="274" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="275" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="276" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="83" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="268" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="269" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="270" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7210,13 +7036,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D48 D54:D56">
-    <cfRule type="cellIs" dxfId="80" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="255" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="256" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="257" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7249,13 +7075,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="77" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="237" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="238" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="239" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7316,24 +7142,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="74" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="225" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="226" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="227" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="71" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="216" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="217" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="218" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7394,13 +7220,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D63 D65:D70">
-    <cfRule type="cellIs" dxfId="68" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="203" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="204" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="205" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7433,13 +7259,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="65" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="197" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="198" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="199" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7500,13 +7326,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="62" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="176" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="177" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="178" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7595,13 +7421,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="59" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="157" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="158" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="159" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7676,13 +7502,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="56" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="148" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="149" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="150" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7715,13 +7541,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="53" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="142" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="143" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="144" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7796,24 +7622,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="50" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="123" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="124" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="125" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="47" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="108" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="109" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="110" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7846,35 +7672,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="44" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="102" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="103" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="104" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="41" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="98" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="99" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="100" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="38" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="92" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="93" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="94" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7892,7 +7718,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
+  <conditionalFormatting sqref="G104">
     <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
@@ -7963,13 +7789,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="52" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="53" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="54" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7988,13 +7814,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D93 D78:D80 D51:D53 D35:D37">
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="45" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="46" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="47" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8026,29 +7852,29 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
+  <conditionalFormatting sqref="D106">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+  <conditionalFormatting sqref="D106">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
+  <conditionalFormatting sqref="G106">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
@@ -8062,7 +7888,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
+  <conditionalFormatting sqref="G106">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
@@ -8076,29 +7902,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+  <conditionalFormatting sqref="D106">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D109:D118">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G109">
+  <conditionalFormatting sqref="G107">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -8112,7 +7927,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
+  <conditionalFormatting sqref="G113">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -8126,21 +7941,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G118">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6EBB5B25-5DD8-403E-9B3C-9738B97F69DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G118">
+  <conditionalFormatting sqref="G114">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -8154,7 +7955,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G117:G118">
+  <conditionalFormatting sqref="G113:G114">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -8168,18 +7969,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D118">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G116">
+  <conditionalFormatting sqref="G109:G114">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
@@ -8193,21 +7983,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110:G118">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DE3A79C-526F-4E82-9967-DFC87AF1A3DF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
+  <conditionalFormatting sqref="D115">
     <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -8218,7 +7994,7 @@
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
+  <conditionalFormatting sqref="D115">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -8229,7 +8005,7 @@
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G119">
+  <conditionalFormatting sqref="G115">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -8243,7 +8019,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G119">
+  <conditionalFormatting sqref="G115">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -8257,7 +8033,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
+  <conditionalFormatting sqref="D115">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
@@ -8268,21 +8044,7 @@
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100:G107">
-    <cfRule type="dataBar" priority="459">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63892313-5C2E-4F48-A49D-B8A8EE3594DA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107">
+  <conditionalFormatting sqref="G105">
     <cfRule type="dataBar" priority="460">
       <dataBar>
         <cfvo type="min"/>
@@ -8296,7 +8058,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106:G107">
+  <conditionalFormatting sqref="G104:G105">
     <cfRule type="dataBar" priority="461">
       <dataBar>
         <cfvo type="min"/>
@@ -8310,8 +8072,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:G107">
-    <cfRule type="dataBar" priority="462">
+  <conditionalFormatting sqref="G100:G103">
+    <cfRule type="dataBar" priority="470">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A95ADA9-335C-4F8B-9166-7295A5EB9616}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99:G105">
+    <cfRule type="dataBar" priority="474">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8320,6 +8096,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109:G112">
+    <cfRule type="dataBar" priority="491">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DEEF296-7408-4D6F-A2B3-DE7C68282DBA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108:G114">
+    <cfRule type="dataBar" priority="493">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DE3A79C-526F-4E82-9967-DFC87AF1A3DF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8336,16 +8140,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D119">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D115">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C119">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C115">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G119">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G115">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F119">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F115">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -9152,7 +8956,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G106</xm:sqref>
+          <xm:sqref>G104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79CFF436-6C1A-4015-AC80-BCF256083C24}">
@@ -9239,899 +9043,6 @@
           <xm:sqref>G91:G93 G78:G80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="333" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="404" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H5:H12 H15:H16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="329" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="327" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="325" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="323" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="314" id="{DB40E23A-4955-4431-9D71-245224111316}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="310" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="312" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H30:H33 H35:H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="308" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="408" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="296" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="290" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="284" id="{9C071051-09D3-47FD-B263-7164F1337403}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="279" id="{67EF7A37-F542-4178-9F13-936880230B01}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="267" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="263" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="265" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H45:H48 H51:H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="242" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="410" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H17:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="413" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="230" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="215" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="211" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="213" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H65:H68 H59:H63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="202" id="{B287672E-9797-4B22-A572-AC10C293B364}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="420" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="430" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="172" id="{E688FAB8-B424-4796-9349-26D597696460}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="169" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="170" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H78:H81 H73:H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="162" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="175" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="434" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="437" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="147" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="135" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="132" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="133" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H91:H94 H86:H88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="128" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="107" id="{A824115C-A50E-4989-B554-7048899EEC61}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="85" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="82" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="441" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="445" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="456" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H100:H105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B0659398-CDF2-431E-AC80-1791804886B4}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -10141,7 +9052,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G108</xm:sqref>
+          <xm:sqref>G106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B45E785F-1A15-4DCC-AAEA-7CD890710991}">
@@ -10153,26 +9064,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
+          <xm:sqref>G106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7B4F896-F232-4CFE-8DF4-BC843867BE4F}">
@@ -10184,7 +9076,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G109</xm:sqref>
+          <xm:sqref>G107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8672D1C9-C9BF-441B-A351-3E2A37848D94}">
@@ -10196,19 +9088,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6EBB5B25-5DD8-403E-9B3C-9738B97F69DE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G111:G118</xm:sqref>
+          <xm:sqref>G113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{774117C8-368B-4861-A04D-31B3B8F28D9D}">
@@ -10220,7 +9100,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G118</xm:sqref>
+          <xm:sqref>G114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{525DE30E-694F-4CD3-8AAC-02F1BB6F1FBA}">
@@ -10232,7 +9112,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G117:G118</xm:sqref>
+          <xm:sqref>G113:G114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DEEF296-7408-4D6F-A2B3-DE7C68282DBA}">
@@ -10244,7 +9124,1117 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G111:G116</xm:sqref>
+          <xm:sqref>G109:G114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E5C1027-4E40-420F-8B8E-534ACB7CFD37}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9C90BAAE-330F-411B-92EC-40D9ADA2523A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5F475BB-1D69-4ED1-AE76-82D30F864CFA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28775F83-624D-4DD1-817C-76A683739385}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G104:G105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="333" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="404" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H5:H12 H15:H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="329" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="327" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="325" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="323" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="314" id="{DB40E23A-4955-4431-9D71-245224111316}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="310" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="312" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H30:H33 H35:H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="308" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="408" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="296" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="290" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="284" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="279" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="267" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="263" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="265" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H45:H48 H51:H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="242" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="410" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H17:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="413" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="230" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="215" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="211" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="213" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H65:H68 H59:H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="202" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="420" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="430" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="172" id="{E688FAB8-B424-4796-9349-26D597696460}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="169" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="170" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H78:H81 H73:H76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="162" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="175" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="434" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="437" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="147" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="135" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H85</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="132" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="133" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H91:H94 H86:H88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="128" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="107" id="{A824115C-A50E-4989-B554-7048899EEC61}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="85" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="82" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="441" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="445" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="50" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="36" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H113</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="24" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{C42B2214-99B1-4315-A9FC-34AA66510BF7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="463" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A95ADA9-335C-4F8B-9166-7295A5EB9616}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G100:G103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G99:G105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="476" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H100:H103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DEEF296-7408-4D6F-A2B3-DE7C68282DBA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G109:G112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8DE3A79C-526F-4E82-9967-DFC87AF1A3DF}">
@@ -10256,10 +10246,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G110:G118</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
+          <xm:sqref>G108:G114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="495" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10275,193 +10265,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H109</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H118</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H110</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H111:H116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6E5C1027-4E40-420F-8B8E-534ACB7CFD37}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G119</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9C90BAAE-330F-411B-92EC-40D9ADA2523A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G119</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{C42B2214-99B1-4315-A9FC-34AA66510BF7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H119</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63892313-5C2E-4F48-A49D-B8A8EE3594DA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G100:G107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A5F475BB-1D69-4ED1-AE76-82D30F864CFA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28775F83-624D-4DD1-817C-76A683739385}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G106:G107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G99:G107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="463" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
+          <xm:sqref>H109:H112</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10501,16 +10305,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -10942,16 +10746,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="119">
   <si>
     <t>Task</t>
   </si>
@@ -1042,9 +1042,6 @@
     <t>Java: Introduction</t>
   </si>
   <si>
-    <t>Deferred</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Easy Japanese (Lesson 6)
 Duolingo (15m)
@@ -1059,23 +1056,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>30m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java: Strings
-Problem_Solving: Warmup
-Estimate: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Century Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1h</t>
     </r>
   </si>
   <si>
@@ -1126,6 +1106,91 @@
         <scheme val="minor"/>
       </rPr>
       <t>5m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Strings (6/10)
+Problem_Solving: Warmup (7/10)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Strings (10/10)
+Problem_Solving: Warmup (10/10)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Easy Japanese (Lesson 7)
+Duolingo (15m)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HIIT Full Body
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Knee Push-up: 20 rep (times: 2)
+Push-up: 8 rep (times: 2)
+Plank: 2 minutes second (times: 1)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6m</t>
     </r>
   </si>
 </sst>
@@ -1221,7 +1286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,6 +1383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1385,7 +1456,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1557,6 +1628,15 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1578,658 +1658,7 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="116">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="128">
     <dxf>
       <font>
         <b val="0"/>
@@ -2253,6 +1682,27 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2275,6 +1725,27 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
     </dxf>
     <dxf>
@@ -2294,6 +1765,699 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2464,22 +2628,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="115"/>
-      <tableStyleElement type="headerRow" dxfId="114"/>
-      <tableStyleElement type="secondRowStripe" dxfId="113"/>
+      <tableStyleElement type="wholeTable" dxfId="127"/>
+      <tableStyleElement type="headerRow" dxfId="126"/>
+      <tableStyleElement type="secondRowStripe" dxfId="125"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="112"/>
-      <tableStyleElement type="totalRow" dxfId="111"/>
-      <tableStyleElement type="firstRowStripe" dxfId="110"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="109"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="108"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="107"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="106"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="105"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="104"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="103"/>
-      <tableStyleElement type="pageFieldValues" dxfId="102"/>
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="totalRow" dxfId="123"/>
+      <tableStyleElement type="firstRowStripe" dxfId="122"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="121"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="120"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="119"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="118"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="117"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="116"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="115"/>
+      <tableStyleElement type="pageFieldValues" dxfId="114"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2914,24 +3078,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I115" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I125" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I125">
     <filterColumn colId="3">
       <filters>
-        <dateGroupItem year="2018" month="8" day="25" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="26" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="27" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="101" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="14" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="100" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="99" dataCellStyle="Date"/>
-    <tableColumn id="7" name="Due Date " dataDxfId="98" dataCellStyle="Date">
+    <tableColumn id="4" name="Status " dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="12" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataDxfId="11" dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="97" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="10" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -2949,9 +3114,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="96" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="6" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="95" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="5" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -2973,9 +3138,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="94" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="93" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -3294,10 +3459,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
@@ -3321,16 +3486,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -6054,10 +6219,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="98" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A98" s="51"/>
       <c r="B98" s="9" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -6081,7 +6246,7 @@
       </c>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" ht="30" customHeight="1">
+    <row r="99" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A99" s="52"/>
       <c r="B99" s="9" t="s">
         <v>13</v>
@@ -6110,7 +6275,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="60">
+    <row r="100" spans="1:9" ht="60" hidden="1">
       <c r="A100" s="52"/>
       <c r="B100" s="9" t="s">
         <v>106</v>
@@ -6139,7 +6304,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="30" customHeight="1">
+    <row r="101" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A101" s="52"/>
       <c r="B101" s="9" t="s">
         <v>17</v>
@@ -6148,7 +6313,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="E101" s="13">
         <v>43337</v>
@@ -6158,17 +6323,17 @@
         <v>43337</v>
       </c>
       <c r="G101" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H101" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="30" customHeight="1">
+    <row r="102" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A102" s="52"/>
       <c r="B102" s="28" t="s">
         <v>108</v>
@@ -6197,7 +6362,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="30" customHeight="1">
+    <row r="103" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A103" s="52"/>
       <c r="B103" s="9" t="s">
         <v>19</v>
@@ -6226,7 +6391,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="45">
+    <row r="104" spans="1:9" ht="45" hidden="1">
       <c r="A104" s="52"/>
       <c r="B104" s="9" t="s">
         <v>20</v>
@@ -6255,7 +6420,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="30" customHeight="1">
+    <row r="105" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A105" s="52"/>
       <c r="B105" s="9" t="s">
         <v>21</v>
@@ -6284,7 +6449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="106" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A106" s="53"/>
       <c r="B106" s="15" t="s">
         <v>23</v>
@@ -6322,7 +6487,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E107" s="13">
         <v>43338</v>
@@ -6332,11 +6497,11 @@
         <v>43338</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I107" s="5"/>
     </row>
@@ -6349,7 +6514,7 @@
         <v>7</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E108" s="13">
         <v>43338</v>
@@ -6359,14 +6524,14 @@
         <v>43338</v>
       </c>
       <c r="G108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="60">
@@ -6378,7 +6543,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E109" s="13">
         <v>43338</v>
@@ -6388,14 +6553,14 @@
         <v>43338</v>
       </c>
       <c r="G109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="30" customHeight="1">
@@ -6407,7 +6572,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E110" s="13">
         <v>43338</v>
@@ -6417,14 +6582,14 @@
         <v>43338</v>
       </c>
       <c r="G110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="45">
@@ -6436,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E111" s="13">
         <v>43338</v>
@@ -6446,14 +6611,14 @@
         <v>43338</v>
       </c>
       <c r="G111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1">
@@ -6465,7 +6630,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E112" s="13">
         <v>43338</v>
@@ -6475,11 +6640,11 @@
         <v>43338</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>56</v>
@@ -6494,7 +6659,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E113" s="13">
         <v>43338</v>
@@ -6504,14 +6669,14 @@
         <v>43338</v>
       </c>
       <c r="G113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="30" customHeight="1">
@@ -6523,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E114" s="13">
         <v>43338</v>
@@ -6533,11 +6698,11 @@
         <v>43338</v>
       </c>
       <c r="G114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>62</v>
@@ -6552,7 +6717,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E115" s="23">
         <v>43338</v>
@@ -6562,13 +6727,301 @@
         <v>43338</v>
       </c>
       <c r="G115" s="19">
+        <v>1</v>
+      </c>
+      <c r="H115" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A116" s="57"/>
+      <c r="B116" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F116" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G116" s="3">
         <v>0</v>
       </c>
-      <c r="H115" s="20">
+      <c r="H116" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I115" s="16" t="s">
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" ht="30" customHeight="1">
+      <c r="A117" s="58"/>
+      <c r="B117" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F117" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="60">
+      <c r="A118" s="58"/>
+      <c r="B118" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F118" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="28.5">
+      <c r="A119" s="58"/>
+      <c r="B119" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F119" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="30" customHeight="1">
+      <c r="A120" s="58"/>
+      <c r="B120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F120" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="45">
+      <c r="A121" s="58"/>
+      <c r="B121" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F121" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30" customHeight="1">
+      <c r="A122" s="58"/>
+      <c r="B122" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F122" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="45">
+      <c r="A123" s="58"/>
+      <c r="B123" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F123" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="30" customHeight="1">
+      <c r="A124" s="58"/>
+      <c r="B124" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="13">
+        <v>43339</v>
+      </c>
+      <c r="F124" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A125" s="59"/>
+      <c r="B125" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="23">
+        <v>43339</v>
+      </c>
+      <c r="F125" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43339</v>
+      </c>
+      <c r="G125" s="19">
+        <v>0</v>
+      </c>
+      <c r="H125" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I125" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6578,7 +7031,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="332">
+    <cfRule type="dataBar" priority="376">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6592,7 +7045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="402">
+    <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6606,7 +7059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="328">
+    <cfRule type="dataBar" priority="372">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6620,7 +7073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="326">
+    <cfRule type="dataBar" priority="370">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6634,7 +7087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="324">
+    <cfRule type="dataBar" priority="368">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6648,7 +7101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="322">
+    <cfRule type="dataBar" priority="366">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6662,7 +7115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="321">
+    <cfRule type="dataBar" priority="365">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6676,7 +7129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="320">
+    <cfRule type="dataBar" priority="364">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6690,7 +7143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="319">
+    <cfRule type="dataBar" priority="363">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6704,7 +7157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="313">
+    <cfRule type="dataBar" priority="357">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6718,7 +7171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="309">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6732,7 +7185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G40">
-    <cfRule type="dataBar" priority="311">
+    <cfRule type="dataBar" priority="355">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6746,7 +7199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="307">
+    <cfRule type="dataBar" priority="351">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6760,7 +7213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="306">
+    <cfRule type="dataBar" priority="350">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6774,7 +7227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G38">
-    <cfRule type="dataBar" priority="305">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6788,7 +7241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="407">
+    <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6802,18 +7255,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D81:D83 D94:D96 D98:D105 D107:D114">
-    <cfRule type="cellIs" dxfId="92" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="345" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="346" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="347" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="297">
+    <cfRule type="dataBar" priority="341">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6827,7 +7280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="295">
+    <cfRule type="dataBar" priority="339">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6841,18 +7294,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="89" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="336" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="337" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="338" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="291">
+    <cfRule type="dataBar" priority="335">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6866,7 +7319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="289">
+    <cfRule type="dataBar" priority="333">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6880,18 +7333,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="86" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="330" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="331" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="332" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="285">
+    <cfRule type="dataBar" priority="329">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6905,7 +7358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="283">
+    <cfRule type="dataBar" priority="327">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6919,18 +7372,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="83" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="324" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="325" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="326" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="278">
+    <cfRule type="dataBar" priority="322">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6944,7 +7397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="277">
+    <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6958,29 +7411,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="80" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="318" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="319" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="320" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="77" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="312" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="313" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="314" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="dataBar" priority="266">
+    <cfRule type="dataBar" priority="310">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6994,7 +7447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="dataBar" priority="262">
+    <cfRule type="dataBar" priority="306">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7008,7 +7461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="dataBar" priority="259">
+    <cfRule type="dataBar" priority="303">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7022,7 +7475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G54">
-    <cfRule type="dataBar" priority="258">
+    <cfRule type="dataBar" priority="302">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7036,18 +7489,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D48 D54:D56">
-    <cfRule type="cellIs" dxfId="74" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="299" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="300" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="301" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="241">
+    <cfRule type="dataBar" priority="285">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7061,7 +7514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="240">
+    <cfRule type="dataBar" priority="284">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7075,18 +7528,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="71" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="281" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="282" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="283" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G26">
-    <cfRule type="dataBar" priority="409">
+    <cfRule type="dataBar" priority="453">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7100,7 +7553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="dataBar" priority="411">
+    <cfRule type="dataBar" priority="455">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7114,7 +7567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="229">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7128,7 +7581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="228">
+    <cfRule type="dataBar" priority="272">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7142,29 +7595,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="68" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="269" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="270" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="271" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="65" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="260" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="261" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="262" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="dataBar" priority="214">
+    <cfRule type="dataBar" priority="258">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7178,7 +7631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="dataBar" priority="210">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7192,7 +7645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="dataBar" priority="207">
+    <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7206,7 +7659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G68 G59:G63">
-    <cfRule type="dataBar" priority="206">
+    <cfRule type="dataBar" priority="250">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7220,18 +7673,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D63 D65:D70">
-    <cfRule type="cellIs" dxfId="62" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="247" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="248" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="249" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="201">
+    <cfRule type="dataBar" priority="245">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7245,7 +7698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="200">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7259,18 +7712,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="59" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="241" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="242" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="243" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="418">
+    <cfRule type="dataBar" priority="462">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7284,7 +7737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="419">
+    <cfRule type="dataBar" priority="463">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7298,7 +7751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G56">
-    <cfRule type="dataBar" priority="427">
+    <cfRule type="dataBar" priority="471">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7312,7 +7765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="dataBar" priority="429">
+    <cfRule type="dataBar" priority="473">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7326,18 +7779,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="56" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="220" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="221" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="222" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="dataBar" priority="171">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7351,7 +7804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="dataBar" priority="168">
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7365,7 +7818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7379,7 +7832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G76 G81">
-    <cfRule type="dataBar" priority="166">
+    <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7393,7 +7846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7407,7 +7860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="204">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7421,18 +7874,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="53" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="201" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="202" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="203" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:G83 G73:G76">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7446,7 +7899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="dataBar" priority="174">
+    <cfRule type="dataBar" priority="218">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7460,7 +7913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G70 G59:G63">
-    <cfRule type="dataBar" priority="431">
+    <cfRule type="dataBar" priority="475">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7474,7 +7927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="dataBar" priority="433">
+    <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7488,7 +7941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="dataBar" priority="435">
+    <cfRule type="dataBar" priority="479">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7502,18 +7955,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="50" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="192" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="193" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="194" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="146">
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7527,7 +7980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7541,18 +7994,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="47" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="186" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="187" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="188" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7566,7 +8019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="dataBar" priority="131">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7580,7 +8033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G88 G94">
-    <cfRule type="dataBar" priority="129">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7594,7 +8047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="127">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7608,7 +8061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="126">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7622,29 +8075,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="44" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="167" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="168" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="169" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="41" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="152" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="153" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="154" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7658,7 +8111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="105">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7672,40 +8125,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="38" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="146" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="147" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="148" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="35" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="142" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="143" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="144" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="32" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="136" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="137" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="138" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7719,7 +8172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7733,7 +8186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G88 G94:G96">
-    <cfRule type="dataBar" priority="438">
+    <cfRule type="dataBar" priority="482">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7747,7 +8200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96">
-    <cfRule type="dataBar" priority="440">
+    <cfRule type="dataBar" priority="484">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7761,7 +8214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:G96">
-    <cfRule type="dataBar" priority="442">
+    <cfRule type="dataBar" priority="486">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7775,7 +8228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="dataBar" priority="443">
+    <cfRule type="dataBar" priority="487">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7789,18 +8242,230 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="29" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="96" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="98" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G105">
-    <cfRule type="dataBar" priority="452">
+    <cfRule type="dataBar" priority="496">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3668E7E1-8F65-49CD-BC66-3FA2276AFD9B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:D93 D78:D80 D51:D53 D35:D37">
+    <cfRule type="cellIs" dxfId="47" priority="89" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="90" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="91" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93 G78:G80">
+    <cfRule type="dataBar" priority="87">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{91035889-4DE8-42E0-851B-600D475BBF25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G93 G78:G80">
+    <cfRule type="dataBar" priority="88">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E51AB6E1-ED14-43D1-86A4-A57B18BFDB4F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="cellIs" dxfId="44" priority="84" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="85" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="86" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="cellIs" dxfId="41" priority="81" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="82" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="83" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="dataBar" priority="79">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0659398-CDF2-431E-AC80-1791804886B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="dataBar" priority="78">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B45E785F-1A15-4DCC-AAEA-7CD890710991}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="cellIs" dxfId="38" priority="75" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="76" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="77" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A7B4F896-F232-4CFE-8DF4-BC843867BE4F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G113">
+    <cfRule type="dataBar" priority="63">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8672D1C9-C9BF-441B-A351-3E2A37848D94}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="dataBar" priority="67">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{774117C8-368B-4861-A04D-31B3B8F28D9D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G113:G114">
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{525DE30E-694F-4CD3-8AAC-02F1BB6F1FBA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109:G114">
+    <cfRule type="dataBar" priority="72">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B1BB440C-4A84-4899-B97F-B634037736B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G105">
+    <cfRule type="dataBar" priority="504">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5F475BB-1D69-4ED1-AE76-82D30F864CFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G104:G105">
+    <cfRule type="dataBar" priority="505">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{28775F83-624D-4DD1-817C-76A683739385}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100:G103">
+    <cfRule type="dataBar" priority="514">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7813,19 +8478,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91:D93 D78:D80 D51:D53 D35:D37">
-    <cfRule type="cellIs" dxfId="26" priority="45" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="46" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="47" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91:G93 G78:G80">
-    <cfRule type="dataBar" priority="43">
+  <conditionalFormatting sqref="G99:G105">
+    <cfRule type="dataBar" priority="518">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7833,144 +8487,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91035889-4DE8-42E0-851B-600D475BBF25}</x14:id>
+          <x14:id>{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:G93 G78:G80">
-    <cfRule type="dataBar" priority="44">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E51AB6E1-ED14-43D1-86A4-A57B18BFDB4F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0659398-CDF2-431E-AC80-1791804886B4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B45E785F-1A15-4DCC-AAEA-7CD890710991}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A7B4F896-F232-4CFE-8DF4-BC843867BE4F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G113">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8672D1C9-C9BF-441B-A351-3E2A37848D94}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G114">
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{774117C8-368B-4861-A04D-31B3B8F28D9D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G113:G114">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{525DE30E-694F-4CD3-8AAC-02F1BB6F1FBA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G109:G114">
-    <cfRule type="dataBar" priority="28">
+  <conditionalFormatting sqref="G109:G112">
+    <cfRule type="dataBar" priority="535">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7983,29 +8506,280 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G108:G114">
+    <cfRule type="dataBar" priority="537">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DE3A79C-526F-4E82-9967-DFC87AF1A3DF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C4DB3F4-10AD-49BD-82E8-E7E50FE7A24B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EFE72C0-69A3-4B9D-BDE8-2987E6213551}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116:D124">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F062024-386C-402C-8DA6-ABAF440EF074}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2E268FB-EA5F-47FA-99AF-AFE72A8CC51E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F673DC5-0CBD-4E27-9A90-91A1532CF8EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123:G124">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDA6869A-6196-4EF5-A812-2B9A66F8BDD8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117:G124">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AB576218-3E27-4B57-A581-84F9E1456F8E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118:G122">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E87FDB86-7927-4D54-AB85-32DBEB2F733E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117:G124">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AFF8B413-A49F-4D0C-9D47-65A5B6627CF5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5CAFEF28-B7F2-46EA-97C3-A37A445AACC5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A6A0B9A-C96F-42E4-94E8-0F7B09591479}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2FA96CB5-37B0-4177-8B1E-336304C6C3DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD0472CE-D108-4C7E-9509-7FB277552E2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -8014,13 +8788,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E5C1027-4E40-420F-8B8E-534ACB7CFD37}</x14:id>
+          <x14:id>{E900EF44-8F69-4BC0-8F02-08876F9A49B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="G117:G121">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8028,24 +8802,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9C90BAAE-330F-411B-92EC-40D9ADA2523A}</x14:id>
+          <x14:id>{C281551C-D685-4995-A867-8BCC794144FB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
-    <cfRule type="dataBar" priority="460">
+  <conditionalFormatting sqref="G117:G121">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8053,77 +8816,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A5F475BB-1D69-4ED1-AE76-82D30F864CFA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G104:G105">
-    <cfRule type="dataBar" priority="461">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28775F83-624D-4DD1-817C-76A683739385}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G100:G103">
-    <cfRule type="dataBar" priority="470">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0A95ADA9-335C-4F8B-9166-7295A5EB9616}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G99:G105">
-    <cfRule type="dataBar" priority="474">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G109:G112">
-    <cfRule type="dataBar" priority="491">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5DEEF296-7408-4D6F-A2B3-DE7C68282DBA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G114">
-    <cfRule type="dataBar" priority="493">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DE3A79C-526F-4E82-9967-DFC87AF1A3DF}</x14:id>
+          <x14:id>{0B32E749-F8BF-4F12-A9EC-E1C52EECD0A8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8140,16 +8833,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D115">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D125">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C115">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C125">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G115">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G125">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F115">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F125">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -9007,6 +9700,150 @@
           <xm:sqref>G97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3668E7E1-8F65-49CD-BC66-3FA2276AFD9B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G100:G105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{91035889-4DE8-42E0-851B-600D475BBF25}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G91:G93 G78:G80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E51AB6E1-ED14-43D1-86A4-A57B18BFDB4F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G91:G93 G78:G80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0659398-CDF2-431E-AC80-1791804886B4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B45E785F-1A15-4DCC-AAEA-7CD890710991}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A7B4F896-F232-4CFE-8DF4-BC843867BE4F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8672D1C9-C9BF-441B-A351-3E2A37848D94}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G113</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{774117C8-368B-4861-A04D-31B3B8F28D9D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{525DE30E-694F-4CD3-8AAC-02F1BB6F1FBA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G113:G114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1BB440C-4A84-4899-B97F-B634037736B3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G109:G114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5F475BB-1D69-4ED1-AE76-82D30F864CFA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{28775F83-624D-4DD1-817C-76A683739385}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G104:G105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0A95ADA9-335C-4F8B-9166-7295A5EB9616}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -9016,10 +9853,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G100:G105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91035889-4DE8-42E0-851B-600D475BBF25}">
+          <xm:sqref>G100:G103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9028,91 +9865,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G91:G93 G78:G80</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E51AB6E1-ED14-43D1-86A4-A57B18BFDB4F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G91:G93 G78:G80</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B0659398-CDF2-431E-AC80-1791804886B4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B45E785F-1A15-4DCC-AAEA-7CD890710991}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A7B4F896-F232-4CFE-8DF4-BC843867BE4F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8672D1C9-C9BF-441B-A351-3E2A37848D94}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{774117C8-368B-4861-A04D-31B3B8F28D9D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{525DE30E-694F-4CD3-8AAC-02F1BB6F1FBA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G113:G114</xm:sqref>
+          <xm:sqref>G99:G105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DEEF296-7408-4D6F-A2B3-DE7C68282DBA}">
@@ -9124,1116 +9877,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G109:G114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6E5C1027-4E40-420F-8B8E-534ACB7CFD37}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9C90BAAE-330F-411B-92EC-40D9ADA2523A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A5F475BB-1D69-4ED1-AE76-82D30F864CFA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28775F83-624D-4DD1-817C-76A683739385}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G104:G105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="333" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="404" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H5:H12 H15:H16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="329" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="327" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="325" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="323" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="314" id="{DB40E23A-4955-4431-9D71-245224111316}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="310" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="312" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H30:H33 H35:H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="308" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="408" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="296" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="290" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="284" id="{9C071051-09D3-47FD-B263-7164F1337403}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="279" id="{67EF7A37-F542-4178-9F13-936880230B01}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="267" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="263" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="265" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H45:H48 H51:H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="242" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="410" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H17:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="413" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="230" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="215" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="211" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="213" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H65:H68 H59:H63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="202" id="{B287672E-9797-4B22-A572-AC10C293B364}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="420" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="430" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="172" id="{E688FAB8-B424-4796-9349-26D597696460}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="169" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="170" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H78:H81 H73:H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="162" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="175" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="434" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="437" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="147" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="135" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="132" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="133" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H91:H94 H86:H88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="128" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="107" id="{A824115C-A50E-4989-B554-7048899EEC61}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="85" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="82" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="441" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="445" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{C42B2214-99B1-4315-A9FC-34AA66510BF7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="463" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0A95ADA9-335C-4F8B-9166-7295A5EB9616}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G100:G103</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{847D962E-17E1-44B1-98BF-4DDEAE9E26B5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G99:G105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="476" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H100:H103</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5DEEF296-7408-4D6F-A2B3-DE7C68282DBA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <xm:sqref>G109:G112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -10249,7 +9892,199 @@
           <xm:sqref>G108:G114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="495" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
+          <x14:cfRule type="dataBar" id="{3C4DB3F4-10AD-49BD-82E8-E7E50FE7A24B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9EFE72C0-69A3-4B9D-BDE8-2987E6213551}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F062024-386C-402C-8DA6-ABAF440EF074}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E2E268FB-EA5F-47FA-99AF-AFE72A8CC51E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G123</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F673DC5-0CBD-4E27-9A90-91A1532CF8EF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FDA6869A-6196-4EF5-A812-2B9A66F8BDD8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G123:G124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AB576218-3E27-4B57-A581-84F9E1456F8E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E87FDB86-7927-4D54-AB85-32DBEB2F733E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G118:G122</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AFF8B413-A49F-4D0C-9D47-65A5B6627CF5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5CAFEF28-B7F2-46EA-97C3-A37A445AACC5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G125</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7A6A0B9A-C96F-42E4-94E8-0F7B09591479}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G125</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2FA96CB5-37B0-4177-8B1E-336304C6C3DB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD0472CE-D108-4C7E-9509-7FB277552E2C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E900EF44-8F69-4BC0-8F02-08876F9A49B6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C281551C-D685-4995-A867-8BCC794144FB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G121</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B32E749-F8BF-4F12-A9EC-E1C52EECD0A8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G121</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="377" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10265,7 +10100,1147 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="448" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H5:H12 H15:H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="373" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="371" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="369" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="367" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="358" id="{DB40E23A-4955-4431-9D71-245224111316}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="354" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="356" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H30:H33 H35:H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="352" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="452" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="340" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="334" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="328" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="323" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="311" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="307" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="309" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H45:H48 H51:H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="286" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="454" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H17:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="457" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="274" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="259" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="255" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="257" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H65:H68 H59:H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="246" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="464" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="474" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="216" id="{E688FAB8-B424-4796-9349-26D597696460}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="213" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="214" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H78:H81 H73:H76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="206" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="219" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="478" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="481" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="191" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="179" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H85</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="176" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="177" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H91:H94 H86:H88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="172" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="151" id="{A824115C-A50E-4989-B554-7048899EEC61}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="129" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="126" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="485" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="489" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="94" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="80" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="66" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="64" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H113</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="68" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="57" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="507" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="520" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H100:H103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="539" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
           <xm:sqref>H109:H112</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="38" id="{A308E5E6-A658-4221-B31A-F89435044FE7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{E69AB2D9-A0AA-4F2A-AC85-DA276E8AC646}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{5F170627-2D69-455F-B4C8-636F1A186F85}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H123</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{554332C0-03DC-4AD1-8DA4-219B49F76E65}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{CC312E0C-E867-44B0-A255-EB5324547AD4}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="32" id="{16BDAC98-D542-4021-83AA-0894FCD4480E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H118:H122</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{2B8C47A3-7077-4CC4-A961-55089C866064}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H125</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10305,16 +11280,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -10599,13 +11574,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10746,16 +11721,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -10984,13 +11959,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="122">
   <si>
     <t>Task</t>
   </si>
@@ -1127,23 +1127,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Java: Strings (10/10)
-Problem_Solving: Warmup (10/10)
-Estimate: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Century Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1h</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Easy Japanese (Lesson 7)
 Duolingo (15m)
 Estimate: </t>
@@ -1191,6 +1174,61 @@
         <scheme val="minor"/>
       </rPr>
       <t>6m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Knee Push-up: 20 rep (times: 3)
+Push-up: 8 rep (times: 3)
+Plank: 2 minutes second (times: 2)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6m</t>
+    </r>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Strings (11/11)
+Problem_Solving: Implementation (2/66)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Strings (9/11)
+Problem_Solving: Warmup (10/10)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
     </r>
   </si>
 </sst>
@@ -1456,7 +1494,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1637,6 +1675,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1658,7 +1699,7 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="140">
     <dxf>
       <font>
         <b val="0"/>
@@ -1765,6 +1806,90 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2628,22 +2753,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="127"/>
-      <tableStyleElement type="headerRow" dxfId="126"/>
-      <tableStyleElement type="secondRowStripe" dxfId="125"/>
+      <tableStyleElement type="wholeTable" dxfId="139"/>
+      <tableStyleElement type="headerRow" dxfId="138"/>
+      <tableStyleElement type="secondRowStripe" dxfId="137"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="124"/>
-      <tableStyleElement type="totalRow" dxfId="123"/>
-      <tableStyleElement type="firstRowStripe" dxfId="122"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="121"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="120"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="119"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="118"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="117"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="116"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="115"/>
-      <tableStyleElement type="pageFieldValues" dxfId="114"/>
+      <tableStyleElement type="headerRow" dxfId="136"/>
+      <tableStyleElement type="totalRow" dxfId="135"/>
+      <tableStyleElement type="firstRowStripe" dxfId="134"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="133"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="132"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="131"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="130"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="129"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="128"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="127"/>
+      <tableStyleElement type="pageFieldValues" dxfId="126"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3078,12 +3203,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I125" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I135" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I135">
     <filterColumn colId="3">
       <filters>
-        <dateGroupItem year="2018" month="8" day="26" dateTimeGrouping="day"/>
         <dateGroupItem year="2018" month="8" day="27" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="28" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3459,10 +3584,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
@@ -3486,16 +3611,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -6478,7 +6603,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="107" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A107" s="54"/>
       <c r="B107" s="9" t="s">
         <v>100</v>
@@ -6505,7 +6630,7 @@
       </c>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" ht="30" customHeight="1">
+    <row r="108" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A108" s="55"/>
       <c r="B108" s="9" t="s">
         <v>13</v>
@@ -6534,7 +6659,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="60">
+    <row r="109" spans="1:9" ht="60" hidden="1">
       <c r="A109" s="55"/>
       <c r="B109" s="9" t="s">
         <v>106</v>
@@ -6563,7 +6688,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="30" customHeight="1">
+    <row r="110" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A110" s="55"/>
       <c r="B110" s="9" t="s">
         <v>17</v>
@@ -6592,7 +6717,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="45">
+    <row r="111" spans="1:9" ht="45" hidden="1">
       <c r="A111" s="55"/>
       <c r="B111" s="28" t="s">
         <v>108</v>
@@ -6621,7 +6746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="30" customHeight="1">
+    <row r="112" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A112" s="55"/>
       <c r="B112" s="9" t="s">
         <v>19</v>
@@ -6650,7 +6775,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="45">
+    <row r="113" spans="1:9" ht="45" hidden="1">
       <c r="A113" s="55"/>
       <c r="B113" s="9" t="s">
         <v>20</v>
@@ -6679,7 +6804,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="30" customHeight="1">
+    <row r="114" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A114" s="55"/>
       <c r="B114" s="9" t="s">
         <v>21</v>
@@ -6708,7 +6833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="115" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A115" s="56"/>
       <c r="B115" s="15" t="s">
         <v>23</v>
@@ -6746,7 +6871,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E116" s="13">
         <v>43339</v>
@@ -6756,11 +6881,11 @@
         <v>43339</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I116" s="5"/>
     </row>
@@ -6773,7 +6898,7 @@
         <v>7</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E117" s="13">
         <v>43339</v>
@@ -6790,7 +6915,7 @@
         <v>-1</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="60">
@@ -6802,7 +6927,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E118" s="13">
         <v>43339</v>
@@ -6812,14 +6937,14 @@
         <v>43339</v>
       </c>
       <c r="G118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="28.5">
@@ -6831,7 +6956,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E119" s="13">
         <v>43339</v>
@@ -6841,11 +6966,11 @@
         <v>43339</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>75</v>
@@ -6860,7 +6985,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E120" s="13">
         <v>43339</v>
@@ -6889,7 +7014,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E121" s="13">
         <v>43339</v>
@@ -6899,14 +7024,14 @@
         <v>43339</v>
       </c>
       <c r="G121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="30" customHeight="1">
@@ -6918,7 +7043,7 @@
         <v>7</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E122" s="13">
         <v>43339</v>
@@ -6947,7 +7072,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E123" s="13">
         <v>43339</v>
@@ -6957,14 +7082,14 @@
         <v>43339</v>
       </c>
       <c r="G123" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H123" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="30" customHeight="1">
@@ -6976,7 +7101,7 @@
         <v>8</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E124" s="13">
         <v>43339</v>
@@ -6986,11 +7111,11 @@
         <v>43339</v>
       </c>
       <c r="G124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>62</v>
@@ -7005,7 +7130,7 @@
         <v>8</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E125" s="23">
         <v>43339</v>
@@ -7015,13 +7140,301 @@
         <v>43339</v>
       </c>
       <c r="G125" s="19">
+        <v>1</v>
+      </c>
+      <c r="H125" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I125" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A126" s="60"/>
+      <c r="B126" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F126" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G126" s="3">
         <v>0</v>
       </c>
-      <c r="H125" s="20">
+      <c r="H126" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I125" s="16" t="s">
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" ht="30" customHeight="1">
+      <c r="A127" s="29"/>
+      <c r="B127" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F127" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="60">
+      <c r="A128" s="29"/>
+      <c r="B128" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F128" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="28.5">
+      <c r="A129" s="29"/>
+      <c r="B129" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F129" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="30" customHeight="1">
+      <c r="A130" s="29"/>
+      <c r="B130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F130" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="45">
+      <c r="A131" s="29"/>
+      <c r="B131" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F131" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="30" customHeight="1">
+      <c r="A132" s="29"/>
+      <c r="B132" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F132" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="45">
+      <c r="A133" s="29"/>
+      <c r="B133" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F133" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="30" customHeight="1">
+      <c r="A134" s="29"/>
+      <c r="B134" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="13">
+        <v>43340</v>
+      </c>
+      <c r="F134" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A135" s="30"/>
+      <c r="B135" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="23">
+        <v>43340</v>
+      </c>
+      <c r="F135" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43340</v>
+      </c>
+      <c r="G135" s="19">
+        <v>0</v>
+      </c>
+      <c r="H135" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I135" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7031,7 +7444,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="376">
+    <cfRule type="dataBar" priority="420">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7045,7 +7458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="446">
+    <cfRule type="dataBar" priority="490">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7059,7 +7472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="372">
+    <cfRule type="dataBar" priority="416">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7073,7 +7486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="370">
+    <cfRule type="dataBar" priority="414">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7087,7 +7500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="368">
+    <cfRule type="dataBar" priority="412">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7101,7 +7514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="366">
+    <cfRule type="dataBar" priority="410">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7115,7 +7528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="365">
+    <cfRule type="dataBar" priority="409">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7129,7 +7542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="364">
+    <cfRule type="dataBar" priority="408">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7143,7 +7556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="363">
+    <cfRule type="dataBar" priority="407">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7157,7 +7570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="357">
+    <cfRule type="dataBar" priority="401">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7171,7 +7584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="353">
+    <cfRule type="dataBar" priority="397">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7185,7 +7598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G40">
-    <cfRule type="dataBar" priority="355">
+    <cfRule type="dataBar" priority="399">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7199,7 +7612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="351">
+    <cfRule type="dataBar" priority="395">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7213,7 +7626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="350">
+    <cfRule type="dataBar" priority="394">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7227,7 +7640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G38">
-    <cfRule type="dataBar" priority="349">
+    <cfRule type="dataBar" priority="393">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7241,7 +7654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="451">
+    <cfRule type="dataBar" priority="495">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7255,18 +7668,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D81:D83 D94:D96 D98:D105 D107:D114">
-    <cfRule type="cellIs" dxfId="113" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="389" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="390" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="391" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="341">
+    <cfRule type="dataBar" priority="385">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7280,7 +7693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="339">
+    <cfRule type="dataBar" priority="383">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7294,18 +7707,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="110" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="380" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="381" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="382" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="335">
+    <cfRule type="dataBar" priority="379">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7319,7 +7732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="333">
+    <cfRule type="dataBar" priority="377">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7333,18 +7746,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="107" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="374" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="375" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="376" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="329">
+    <cfRule type="dataBar" priority="373">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7358,7 +7771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="327">
+    <cfRule type="dataBar" priority="371">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7372,18 +7785,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="104" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="368" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="369" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="370" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="322">
+    <cfRule type="dataBar" priority="366">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7397,7 +7810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="321">
+    <cfRule type="dataBar" priority="365">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7411,29 +7824,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="101" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="362" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="363" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="364" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="98" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="356" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="357" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="358" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="dataBar" priority="310">
+    <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7447,7 +7860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="dataBar" priority="306">
+    <cfRule type="dataBar" priority="350">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7461,7 +7874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="dataBar" priority="303">
+    <cfRule type="dataBar" priority="347">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7475,7 +7888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G54">
-    <cfRule type="dataBar" priority="302">
+    <cfRule type="dataBar" priority="346">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7489,18 +7902,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D48 D54:D56">
-    <cfRule type="cellIs" dxfId="95" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="343" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="344" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="345" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="285">
+    <cfRule type="dataBar" priority="329">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7514,7 +7927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="284">
+    <cfRule type="dataBar" priority="328">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7528,18 +7941,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="92" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="325" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="326" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="327" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G26">
-    <cfRule type="dataBar" priority="453">
+    <cfRule type="dataBar" priority="497">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7553,7 +7966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="dataBar" priority="455">
+    <cfRule type="dataBar" priority="499">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7567,7 +7980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="273">
+    <cfRule type="dataBar" priority="317">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7581,7 +7994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="272">
+    <cfRule type="dataBar" priority="316">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7595,29 +8008,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="89" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="313" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="314" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="315" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="86" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="304" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="305" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="306" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="dataBar" priority="258">
+    <cfRule type="dataBar" priority="302">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7631,7 +8044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="dataBar" priority="254">
+    <cfRule type="dataBar" priority="298">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7645,7 +8058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="dataBar" priority="251">
+    <cfRule type="dataBar" priority="295">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7659,7 +8072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G68 G59:G63">
-    <cfRule type="dataBar" priority="250">
+    <cfRule type="dataBar" priority="294">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7673,18 +8086,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D63 D65:D70">
-    <cfRule type="cellIs" dxfId="83" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="291" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="292" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="293" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="245">
+    <cfRule type="dataBar" priority="289">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7698,7 +8111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="244">
+    <cfRule type="dataBar" priority="288">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7712,18 +8125,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="80" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="285" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="286" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="287" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="462">
+    <cfRule type="dataBar" priority="506">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7737,7 +8150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="463">
+    <cfRule type="dataBar" priority="507">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7751,7 +8164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G56">
-    <cfRule type="dataBar" priority="471">
+    <cfRule type="dataBar" priority="515">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7765,7 +8178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="dataBar" priority="473">
+    <cfRule type="dataBar" priority="517">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7779,18 +8192,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="77" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="264" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="265" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="266" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7804,7 +8217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="dataBar" priority="212">
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7818,7 +8231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="211">
+    <cfRule type="dataBar" priority="255">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7832,7 +8245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G76 G81">
-    <cfRule type="dataBar" priority="210">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7846,7 +8259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="205">
+    <cfRule type="dataBar" priority="249">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7860,7 +8273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="204">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7874,18 +8287,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="74" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="245" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="246" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="247" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:G83 G73:G76">
-    <cfRule type="dataBar" priority="217">
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7899,7 +8312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="dataBar" priority="218">
+    <cfRule type="dataBar" priority="262">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7913,7 +8326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G70 G59:G63">
-    <cfRule type="dataBar" priority="475">
+    <cfRule type="dataBar" priority="519">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7927,7 +8340,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="dataBar" priority="477">
+    <cfRule type="dataBar" priority="521">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7941,7 +8354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="dataBar" priority="479">
+    <cfRule type="dataBar" priority="523">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7955,18 +8368,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="71" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="236" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="237" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="238" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="190">
+    <cfRule type="dataBar" priority="234">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7980,7 +8393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="189">
+    <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7994,18 +8407,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="68" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="230" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="231" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="232" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="dataBar" priority="178">
+    <cfRule type="dataBar" priority="222">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8019,7 +8432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8033,7 +8446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G88 G94">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8047,7 +8460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="171">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8061,7 +8474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="170">
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8075,29 +8488,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="65" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="211" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="212" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="213" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="62" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="196" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="197" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="198" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="150">
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8111,7 +8524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="149">
+    <cfRule type="dataBar" priority="193">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8125,40 +8538,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="59" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="190" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="191" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="192" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="56" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="186" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="187" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="188" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="53" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="180" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="181" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="182" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="dataBar" priority="128">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8172,7 +8585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8186,7 +8599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G88 G94:G96">
-    <cfRule type="dataBar" priority="482">
+    <cfRule type="dataBar" priority="526">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8200,7 +8613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96">
-    <cfRule type="dataBar" priority="484">
+    <cfRule type="dataBar" priority="528">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8214,7 +8627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:G96">
-    <cfRule type="dataBar" priority="486">
+    <cfRule type="dataBar" priority="530">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8228,7 +8641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="dataBar" priority="487">
+    <cfRule type="dataBar" priority="531">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8242,18 +8655,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="50" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="140" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="141" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="142" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G105">
-    <cfRule type="dataBar" priority="496">
+    <cfRule type="dataBar" priority="540">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8267,18 +8680,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D93 D78:D80 D51:D53 D35:D37">
-    <cfRule type="cellIs" dxfId="47" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="133" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="134" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="135" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:G93 G78:G80">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8292,7 +8705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:G93 G78:G80">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8306,29 +8719,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="44" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="128" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="129" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="130" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="41" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="125" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="126" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="127" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="79">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8342,7 +8755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8356,18 +8769,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="38" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="119" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="120" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="121" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8381,7 +8794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113">
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8395,7 +8808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114">
-    <cfRule type="dataBar" priority="67">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8409,7 +8822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:G114">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8423,7 +8836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G109:G114">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8437,7 +8850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="dataBar" priority="504">
+    <cfRule type="dataBar" priority="548">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8451,7 +8864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104:G105">
-    <cfRule type="dataBar" priority="505">
+    <cfRule type="dataBar" priority="549">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8465,7 +8878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G103">
-    <cfRule type="dataBar" priority="514">
+    <cfRule type="dataBar" priority="558">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8479,7 +8892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99:G105">
-    <cfRule type="dataBar" priority="518">
+    <cfRule type="dataBar" priority="562">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8493,7 +8906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G109:G112">
-    <cfRule type="dataBar" priority="535">
+    <cfRule type="dataBar" priority="579">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8507,7 +8920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:G114">
-    <cfRule type="dataBar" priority="537">
+    <cfRule type="dataBar" priority="581">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8521,29 +8934,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="86" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="87" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="88" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="83" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="85" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8557,7 +8970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8571,29 +8984,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="77" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="78" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="79" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116:D124">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="71" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="72" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="73" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G116">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8607,7 +9020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8620,8 +9033,407 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G118:G122">
+    <cfRule type="dataBar" priority="74">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E87FDB86-7927-4D54-AB85-32DBEB2F733E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117:G124">
+    <cfRule type="dataBar" priority="75">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AFF8B413-A49F-4D0C-9D47-65A5B6627CF5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2FA96CB5-37B0-4177-8B1E-336304C6C3DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD0472CE-D108-4C7E-9509-7FB277552E2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E900EF44-8F69-4BC0-8F02-08876F9A49B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117:G121">
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C281551C-D685-4995-A867-8BCC794144FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117:G121">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B32E749-F8BF-4F12-A9EC-E1C52EECD0A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E10FE25F-9484-4D00-949C-77C5567D1A6A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67193C0F-CC4B-4BFB-AFCC-8F44E5C8C916}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126:D134">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3FA76EB4-E787-46EE-A41A-8A8188E16FB8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6753A047-12E7-4629-A3DE-32F5998C2D2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33D3812D-3183-4CEE-96DC-DDE9DF480DFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133:G134">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0102CEFD-D7F8-49BC-83BF-68CBB2069CBE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G134">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{47E8B1B6-C4DC-4600-B7EA-B3A32492FDF8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128:G132">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2301BD64-2567-4655-8CCE-246C98DB5DF6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G134">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FCAE0FA4-6D37-4BB6-8E0C-CD9CF4014387}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5AD7BC91-E11D-4D84-B1BA-BE37D7881155}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D1C978D-FFEA-4D45-BA53-6663BC3A8707}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8E9253EE-2D2F-4072-8372-A6FAEBC76E06}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G131">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BD3E7F73-9ED3-4141-8CF7-E530F47EDEC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G131">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{191121B7-1D43-43A2-B7F1-A8374029795B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4884DAD-4C4F-4926-B45E-F96B91808C77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6152F1D4-426F-4CA9-9E49-ACFA29E98C3E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="584">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8635,7 +9447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123:G124">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="585">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8649,7 +9461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:G124">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="586">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8658,165 +9470,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{AB576218-3E27-4B57-A581-84F9E1456F8E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G118:G122">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E87FDB86-7927-4D54-AB85-32DBEB2F733E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117:G124">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AFF8B413-A49F-4D0C-9D47-65A5B6627CF5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5CAFEF28-B7F2-46EA-97C3-A37A445AACC5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7A6A0B9A-C96F-42E4-94E8-0F7B09591479}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2FA96CB5-37B0-4177-8B1E-336304C6C3DB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD0472CE-D108-4C7E-9509-7FB277552E2C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E900EF44-8F69-4BC0-8F02-08876F9A49B6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117:G121">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C281551C-D685-4995-A867-8BCC794144FB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117:G121">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0B32E749-F8BF-4F12-A9EC-E1C52EECD0A8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8833,16 +9486,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D125">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D135">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C125">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C135">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G125">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G135">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F125">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F135">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -9940,6 +10593,282 @@
           <xm:sqref>G123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E87FDB86-7927-4D54-AB85-32DBEB2F733E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G118:G122</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AFF8B413-A49F-4D0C-9D47-65A5B6627CF5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2FA96CB5-37B0-4177-8B1E-336304C6C3DB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD0472CE-D108-4C7E-9509-7FB277552E2C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E900EF44-8F69-4BC0-8F02-08876F9A49B6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C281551C-D685-4995-A867-8BCC794144FB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G121</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B32E749-F8BF-4F12-A9EC-E1C52EECD0A8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G121</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E10FE25F-9484-4D00-949C-77C5567D1A6A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G125</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67193C0F-CC4B-4BFB-AFCC-8F44E5C8C916}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G125</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3FA76EB4-E787-46EE-A41A-8A8188E16FB8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G126</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6753A047-12E7-4629-A3DE-32F5998C2D2D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33D3812D-3183-4CEE-96DC-DDE9DF480DFA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0102CEFD-D7F8-49BC-83BF-68CBB2069CBE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G133:G134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{47E8B1B6-C4DC-4600-B7EA-B3A32492FDF8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127:G134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2301BD64-2567-4655-8CCE-246C98DB5DF6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G128:G132</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FCAE0FA4-6D37-4BB6-8E0C-CD9CF4014387}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127:G134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5AD7BC91-E11D-4D84-B1BA-BE37D7881155}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D1C978D-FFEA-4D45-BA53-6663BC3A8707}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8E9253EE-2D2F-4072-8372-A6FAEBC76E06}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BD3E7F73-9ED3-4141-8CF7-E530F47EDEC2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127:G131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{191121B7-1D43-43A2-B7F1-A8374029795B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127:G131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4884DAD-4C4F-4926-B45E-F96B91808C77}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G135</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6152F1D4-426F-4CA9-9E49-ACFA29E98C3E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G135</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9F673DC5-0CBD-4E27-9A90-91A1532CF8EF}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -9976,115 +10905,7 @@
           <xm:sqref>G117:G124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E87FDB86-7927-4D54-AB85-32DBEB2F733E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G118:G122</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AFF8B413-A49F-4D0C-9D47-65A5B6627CF5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G117:G124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5CAFEF28-B7F2-46EA-97C3-A37A445AACC5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G125</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7A6A0B9A-C96F-42E4-94E8-0F7B09591479}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G125</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2FA96CB5-37B0-4177-8B1E-336304C6C3DB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FD0472CE-D108-4C7E-9509-7FB277552E2C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E900EF44-8F69-4BC0-8F02-08876F9A49B6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C281551C-D685-4995-A867-8BCC794144FB}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G117:G121</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0B32E749-F8BF-4F12-A9EC-E1C52EECD0A8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G117:G121</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="377" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+          <x14:cfRule type="iconSet" priority="421" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10103,7 +10924,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="448" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+          <x14:cfRule type="iconSet" priority="492" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10122,7 +10943,7 @@
           <xm:sqref>H5:H12 H15:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="373" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+          <x14:cfRule type="iconSet" priority="417" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10141,7 +10962,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="371" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+          <x14:cfRule type="iconSet" priority="415" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10160,7 +10981,7 @@
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="369" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+          <x14:cfRule type="iconSet" priority="413" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10179,7 +11000,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="367" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+          <x14:cfRule type="iconSet" priority="411" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10198,7 +11019,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="358" id="{DB40E23A-4955-4431-9D71-245224111316}">
+          <x14:cfRule type="iconSet" priority="402" id="{DB40E23A-4955-4431-9D71-245224111316}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10217,7 +11038,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="354" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+          <x14:cfRule type="iconSet" priority="398" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10236,7 +11057,7 @@
           <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="356" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+          <x14:cfRule type="iconSet" priority="400" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10255,7 +11076,7 @@
           <xm:sqref>H30:H33 H35:H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="352" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+          <x14:cfRule type="iconSet" priority="396" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10274,7 +11095,7 @@
           <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="452" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+          <x14:cfRule type="iconSet" priority="496" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10293,7 +11114,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="340" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+          <x14:cfRule type="iconSet" priority="384" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10312,7 +11133,7 @@
           <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="334" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+          <x14:cfRule type="iconSet" priority="378" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10331,7 +11152,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="328" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+          <x14:cfRule type="iconSet" priority="372" id="{9C071051-09D3-47FD-B263-7164F1337403}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10350,7 +11171,7 @@
           <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="323" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+          <x14:cfRule type="iconSet" priority="367" id="{67EF7A37-F542-4178-9F13-936880230B01}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10369,7 +11190,7 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="311" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+          <x14:cfRule type="iconSet" priority="355" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10388,7 +11209,7 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="307" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+          <x14:cfRule type="iconSet" priority="351" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10407,7 +11228,7 @@
           <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="309" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+          <x14:cfRule type="iconSet" priority="353" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10426,7 +11247,7 @@
           <xm:sqref>H45:H48 H51:H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="286" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+          <x14:cfRule type="iconSet" priority="330" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10445,7 +11266,7 @@
           <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="454" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+          <x14:cfRule type="iconSet" priority="498" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10464,7 +11285,7 @@
           <xm:sqref>H17:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="457" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+          <x14:cfRule type="iconSet" priority="501" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10483,7 +11304,7 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="274" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+          <x14:cfRule type="iconSet" priority="318" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10502,7 +11323,7 @@
           <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="259" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
+          <x14:cfRule type="iconSet" priority="303" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10521,7 +11342,7 @@
           <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="255" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
+          <x14:cfRule type="iconSet" priority="299" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10540,7 +11361,7 @@
           <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="257" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+          <x14:cfRule type="iconSet" priority="301" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10559,7 +11380,7 @@
           <xm:sqref>H65:H68 H59:H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="246" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+          <x14:cfRule type="iconSet" priority="290" id="{B287672E-9797-4B22-A572-AC10C293B364}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10578,7 +11399,7 @@
           <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="464" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+          <x14:cfRule type="iconSet" priority="508" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10597,7 +11418,7 @@
           <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="474" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+          <x14:cfRule type="iconSet" priority="518" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10616,7 +11437,7 @@
           <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="216" id="{E688FAB8-B424-4796-9349-26D597696460}">
+          <x14:cfRule type="iconSet" priority="260" id="{E688FAB8-B424-4796-9349-26D597696460}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10635,7 +11456,7 @@
           <xm:sqref>H72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="213" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
+          <x14:cfRule type="iconSet" priority="257" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10654,7 +11475,7 @@
           <xm:sqref>H82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="214" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
+          <x14:cfRule type="iconSet" priority="258" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10673,7 +11494,7 @@
           <xm:sqref>H78:H81 H73:H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="206" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
+          <x14:cfRule type="iconSet" priority="250" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10692,7 +11513,7 @@
           <xm:sqref>H77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="219" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
+          <x14:cfRule type="iconSet" priority="263" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10711,7 +11532,7 @@
           <xm:sqref>H83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="478" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+          <x14:cfRule type="iconSet" priority="522" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10730,7 +11551,7 @@
           <xm:sqref>H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="481" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
+          <x14:cfRule type="iconSet" priority="525" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10749,7 +11570,7 @@
           <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="191" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
+          <x14:cfRule type="iconSet" priority="235" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10768,7 +11589,7 @@
           <xm:sqref>H84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="179" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
+          <x14:cfRule type="iconSet" priority="223" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10787,7 +11608,7 @@
           <xm:sqref>H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="176" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
+          <x14:cfRule type="iconSet" priority="220" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10806,7 +11627,7 @@
           <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="177" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
+          <x14:cfRule type="iconSet" priority="221" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10825,7 +11646,7 @@
           <xm:sqref>H91:H94 H86:H88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="172" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
+          <x14:cfRule type="iconSet" priority="216" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10844,7 +11665,7 @@
           <xm:sqref>H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="151" id="{A824115C-A50E-4989-B554-7048899EEC61}">
+          <x14:cfRule type="iconSet" priority="195" id="{A824115C-A50E-4989-B554-7048899EEC61}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10863,7 +11684,7 @@
           <xm:sqref>H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="129" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
+          <x14:cfRule type="iconSet" priority="173" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10882,7 +11703,7 @@
           <xm:sqref>H98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="126" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
+          <x14:cfRule type="iconSet" priority="170" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10901,7 +11722,7 @@
           <xm:sqref>H104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="485" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
+          <x14:cfRule type="iconSet" priority="529" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10920,7 +11741,7 @@
           <xm:sqref>H96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="489" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
+          <x14:cfRule type="iconSet" priority="533" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10939,7 +11760,7 @@
           <xm:sqref>H97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="94" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
+          <x14:cfRule type="iconSet" priority="138" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10958,7 +11779,7 @@
           <xm:sqref>H99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="80" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
+          <x14:cfRule type="iconSet" priority="124" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10977,7 +11798,7 @@
           <xm:sqref>H106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="66" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
+          <x14:cfRule type="iconSet" priority="110" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10996,7 +11817,7 @@
           <xm:sqref>H107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="64" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
+          <x14:cfRule type="iconSet" priority="108" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11015,7 +11836,7 @@
           <xm:sqref>H113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="68" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
+          <x14:cfRule type="iconSet" priority="112" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11034,7 +11855,7 @@
           <xm:sqref>H114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
+          <x14:cfRule type="iconSet" priority="101" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11053,7 +11874,7 @@
           <xm:sqref>H108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="507" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
+          <x14:cfRule type="iconSet" priority="551" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11072,7 +11893,7 @@
           <xm:sqref>H105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="520" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
+          <x14:cfRule type="iconSet" priority="564" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11091,7 +11912,7 @@
           <xm:sqref>H100:H103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="539" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
+          <x14:cfRule type="iconSet" priority="583" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11110,7 +11931,7 @@
           <xm:sqref>H109:H112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{A308E5E6-A658-4221-B31A-F89435044FE7}">
+          <x14:cfRule type="iconSet" priority="82" id="{A308E5E6-A658-4221-B31A-F89435044FE7}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11129,7 +11950,7 @@
           <xm:sqref>H115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{E69AB2D9-A0AA-4F2A-AC85-DA276E8AC646}">
+          <x14:cfRule type="iconSet" priority="67" id="{E69AB2D9-A0AA-4F2A-AC85-DA276E8AC646}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11148,7 +11969,7 @@
           <xm:sqref>H116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{5F170627-2D69-455F-B4C8-636F1A186F85}">
+          <x14:cfRule type="iconSet" priority="65" id="{5F170627-2D69-455F-B4C8-636F1A186F85}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11167,7 +11988,7 @@
           <xm:sqref>H123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{554332C0-03DC-4AD1-8DA4-219B49F76E65}">
+          <x14:cfRule type="iconSet" priority="62" id="{CC312E0C-E867-44B0-A255-EB5324547AD4}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11183,10 +12004,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{CC312E0C-E867-44B0-A255-EB5324547AD4}">
+          <xm:sqref>H117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="76" id="{16BDAC98-D542-4021-83AA-0894FCD4480E}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11202,10 +12023,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{16BDAC98-D542-4021-83AA-0894FCD4480E}">
+          <xm:sqref>H118:H122</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="38" id="{E93164F3-4F27-485B-8FDA-237C117384E2}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11221,10 +12042,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H118:H122</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{2B8C47A3-7077-4CC4-A961-55089C866064}">
+          <xm:sqref>H125</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{FBFB31B8-38F6-4D64-BBBA-758CDACDAEC1}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11240,7 +12061,121 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H125</xm:sqref>
+          <xm:sqref>H126</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{3AE452B4-CD3E-42A3-9669-0F4D8E6DBF85}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{F28B2C17-11B5-4224-893A-6A71677FCFF5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{64995B7B-4F1B-40E1-A00D-F559C84D4C1C}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H127</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="32" id="{47C311DD-02DF-4A81-81EF-422B8200C284}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H128:H132</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{A42ECB16-1452-476F-AF09-48DC2E012361}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H135</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="587" id="{554332C0-03DC-4AD1-8DA4-219B49F76E65}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H124</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11280,16 +12215,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">
@@ -11721,16 +12656,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="84" customHeight="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="B3" s="8" t="s">

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="122">
   <si>
     <t>Task</t>
   </si>
@@ -1699,7 +1699,889 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="149">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1723,27 +2605,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1766,27 +2627,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
     </dxf>
     <dxf>
@@ -1806,783 +2646,6 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2753,22 +2816,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="139"/>
-      <tableStyleElement type="headerRow" dxfId="138"/>
-      <tableStyleElement type="secondRowStripe" dxfId="137"/>
+      <tableStyleElement type="wholeTable" dxfId="148"/>
+      <tableStyleElement type="headerRow" dxfId="147"/>
+      <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="136"/>
-      <tableStyleElement type="totalRow" dxfId="135"/>
-      <tableStyleElement type="firstRowStripe" dxfId="134"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="133"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="132"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="131"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="130"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="129"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="128"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="127"/>
-      <tableStyleElement type="pageFieldValues" dxfId="126"/>
+      <tableStyleElement type="headerRow" dxfId="145"/>
+      <tableStyleElement type="totalRow" dxfId="144"/>
+      <tableStyleElement type="firstRowStripe" dxfId="143"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="142"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="141"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="140"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="139"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="138"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="137"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="136"/>
+      <tableStyleElement type="pageFieldValues" dxfId="135"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3203,8 +3266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I135" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I144" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I144">
     <filterColumn colId="3">
       <filters>
         <dateGroupItem year="2018" month="8" day="27" dateTimeGrouping="day"/>
@@ -3213,15 +3276,15 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="134" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="12" dataCellStyle="Date"/>
-    <tableColumn id="7" name="Due Date " dataDxfId="11" dataCellStyle="Date">
+    <tableColumn id="4" name="Status " dataDxfId="133" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="132" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataDxfId="131" dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="10" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="130" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -3239,9 +3302,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="129" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="128" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -3263,9 +3326,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="127" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="126" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -3584,10 +3647,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
@@ -6912,7 +6975,7 @@
       </c>
       <c r="H117" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>116</v>
@@ -6999,7 +7062,7 @@
       </c>
       <c r="H120" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>111</v>
@@ -7057,7 +7120,7 @@
       </c>
       <c r="H122" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>56</v>
@@ -7086,7 +7149,7 @@
       </c>
       <c r="H123" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>115</v>
@@ -7159,7 +7222,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E126" s="13">
         <v>43340</v>
@@ -7169,24 +7232,24 @@
         <v>43340</v>
       </c>
       <c r="G126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" ht="30" customHeight="1">
+    <row r="127" spans="1:9" ht="60">
       <c r="A127" s="29"/>
       <c r="B127" s="9" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E127" s="13">
         <v>43340</v>
@@ -7196,60 +7259,60 @@
         <v>43340</v>
       </c>
       <c r="G127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="60">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="28.5">
       <c r="A128" s="29"/>
-      <c r="B128" s="9" t="s">
-        <v>106</v>
+      <c r="B128" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E128" s="13">
         <v>43340</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F128" s="43">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43340</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="28.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="30" customHeight="1">
       <c r="A129" s="29"/>
-      <c r="B129" s="28" t="s">
-        <v>52</v>
+      <c r="B129" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E129" s="13">
         <v>43340</v>
       </c>
-      <c r="F129" s="43">
+      <c r="F129" s="6">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43340</v>
       </c>
@@ -7261,24 +7324,24 @@
         <v>-1</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="30" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="45">
       <c r="A130" s="29"/>
-      <c r="B130" s="9" t="s">
-        <v>17</v>
+      <c r="B130" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E130" s="13">
         <v>43340</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130" s="43">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43340</v>
       </c>
@@ -7290,24 +7353,24 @@
         <v>-1</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="30" customHeight="1">
       <c r="A131" s="29"/>
-      <c r="B131" s="28" t="s">
-        <v>108</v>
+      <c r="B131" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E131" s="13">
         <v>43340</v>
       </c>
-      <c r="F131" s="43">
+      <c r="F131" s="6">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43340</v>
       </c>
@@ -7319,19 +7382,19 @@
         <v>-1</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="30" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="45">
       <c r="A132" s="29"/>
       <c r="B132" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E132" s="13">
         <v>43340</v>
@@ -7348,19 +7411,19 @@
         <v>-1</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="30" customHeight="1">
       <c r="A133" s="29"/>
       <c r="B133" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E133" s="13">
         <v>43340</v>
@@ -7370,71 +7433,330 @@
         <v>43340</v>
       </c>
       <c r="G133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="30" customHeight="1">
-      <c r="A134" s="29"/>
-      <c r="B134" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C134" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A134" s="30"/>
+      <c r="B134" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" s="13">
+      <c r="D134" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="23">
         <v>43340</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F134" s="18">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43340</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="19">
+        <v>1</v>
+      </c>
+      <c r="H134" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I134" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A135" s="34"/>
+      <c r="B135" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F135" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G135" s="3">
         <v>0</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H135" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" ht="30" customHeight="1">
+      <c r="A136" s="35"/>
+      <c r="B136" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F136" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="60">
+      <c r="A137" s="35"/>
+      <c r="B137" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F137" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="28.5">
+      <c r="A138" s="35"/>
+      <c r="B138" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F138" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="30" customHeight="1">
+      <c r="A139" s="35"/>
+      <c r="B139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F139" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="45">
+      <c r="A140" s="35"/>
+      <c r="B140" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F140" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="30" customHeight="1">
+      <c r="A141" s="35"/>
+      <c r="B141" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F141" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="45">
+      <c r="A142" s="35"/>
+      <c r="B142" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F142" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="30" customHeight="1">
+      <c r="A143" s="35"/>
+      <c r="B143" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="13">
+        <v>43341</v>
+      </c>
+      <c r="F143" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43341</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I143" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A135" s="30"/>
-      <c r="B135" s="15" t="s">
+    <row r="144" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A144" s="36"/>
+      <c r="B144" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C144" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D144" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="23">
-        <v>43340</v>
-      </c>
-      <c r="F135" s="18">
+      <c r="E144" s="23">
+        <v>43341</v>
+      </c>
+      <c r="F144" s="18">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
-        <v>43340</v>
-      </c>
-      <c r="G135" s="19">
+        <v>43341</v>
+      </c>
+      <c r="G144" s="19">
         <v>0</v>
       </c>
-      <c r="H135" s="20">
+      <c r="H144" s="20">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I135" s="16" t="s">
+      <c r="I144" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7444,7 +7766,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="420">
+    <cfRule type="dataBar" priority="464">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7458,7 +7780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="490">
+    <cfRule type="dataBar" priority="534">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7472,7 +7794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="416">
+    <cfRule type="dataBar" priority="460">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7486,7 +7808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="414">
+    <cfRule type="dataBar" priority="458">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7500,7 +7822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="412">
+    <cfRule type="dataBar" priority="456">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7514,7 +7836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="410">
+    <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7528,7 +7850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="409">
+    <cfRule type="dataBar" priority="453">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7542,7 +7864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="408">
+    <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7556,7 +7878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="407">
+    <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7570,7 +7892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="401">
+    <cfRule type="dataBar" priority="445">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7584,7 +7906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="397">
+    <cfRule type="dataBar" priority="441">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7598,7 +7920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G40">
-    <cfRule type="dataBar" priority="399">
+    <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7612,7 +7934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="395">
+    <cfRule type="dataBar" priority="439">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7626,7 +7948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="394">
+    <cfRule type="dataBar" priority="438">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7640,7 +7962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G38">
-    <cfRule type="dataBar" priority="393">
+    <cfRule type="dataBar" priority="437">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7654,7 +7976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="495">
+    <cfRule type="dataBar" priority="539">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7667,19 +7989,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D81:D83 D94:D96 D98:D105 D107:D114">
-    <cfRule type="cellIs" dxfId="125" priority="389" operator="equal">
+  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D81:D83 D94:D96 D98:D105 D107:D114 D126:D133">
+    <cfRule type="cellIs" dxfId="125" priority="433" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="434" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="435" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="385">
+    <cfRule type="dataBar" priority="429">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7693,7 +8015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="383">
+    <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7707,18 +8029,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="122" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="424" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="425" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="426" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="379">
+    <cfRule type="dataBar" priority="423">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7732,7 +8054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="377">
+    <cfRule type="dataBar" priority="421">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7746,18 +8068,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="119" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="418" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="419" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="420" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="373">
+    <cfRule type="dataBar" priority="417">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7771,7 +8093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="371">
+    <cfRule type="dataBar" priority="415">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7785,18 +8107,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="116" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="412" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="413" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="414" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="366">
+    <cfRule type="dataBar" priority="410">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7810,7 +8132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="365">
+    <cfRule type="dataBar" priority="409">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7824,29 +8146,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="113" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="406" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="407" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="408" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="110" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="400" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="401" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="402" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="dataBar" priority="354">
+    <cfRule type="dataBar" priority="398">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7860,7 +8182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="dataBar" priority="350">
+    <cfRule type="dataBar" priority="394">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7874,7 +8196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="dataBar" priority="347">
+    <cfRule type="dataBar" priority="391">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7888,7 +8210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G54">
-    <cfRule type="dataBar" priority="346">
+    <cfRule type="dataBar" priority="390">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7902,18 +8224,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D48 D54:D56">
-    <cfRule type="cellIs" dxfId="107" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="387" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="388" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="389" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="329">
+    <cfRule type="dataBar" priority="373">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7927,7 +8249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="328">
+    <cfRule type="dataBar" priority="372">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7941,18 +8263,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="104" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="369" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="370" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="371" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G26">
-    <cfRule type="dataBar" priority="497">
+    <cfRule type="dataBar" priority="541">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7966,7 +8288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="dataBar" priority="499">
+    <cfRule type="dataBar" priority="543">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7980,7 +8302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="317">
+    <cfRule type="dataBar" priority="361">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7994,7 +8316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="316">
+    <cfRule type="dataBar" priority="360">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8008,29 +8330,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="101" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="357" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="358" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="359" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="98" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="348" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="349" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="350" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="dataBar" priority="302">
+    <cfRule type="dataBar" priority="346">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8044,7 +8366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="dataBar" priority="298">
+    <cfRule type="dataBar" priority="342">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8058,7 +8380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="dataBar" priority="295">
+    <cfRule type="dataBar" priority="339">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8072,7 +8394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G68 G59:G63">
-    <cfRule type="dataBar" priority="294">
+    <cfRule type="dataBar" priority="338">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8086,18 +8408,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D63 D65:D70">
-    <cfRule type="cellIs" dxfId="95" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="335" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="336" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="337" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="289">
+    <cfRule type="dataBar" priority="333">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8111,7 +8433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="288">
+    <cfRule type="dataBar" priority="332">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8125,18 +8447,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="92" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="329" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="330" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="331" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="506">
+    <cfRule type="dataBar" priority="550">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8150,7 +8472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="507">
+    <cfRule type="dataBar" priority="551">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8164,7 +8486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G56">
-    <cfRule type="dataBar" priority="515">
+    <cfRule type="dataBar" priority="559">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8178,7 +8500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="dataBar" priority="517">
+    <cfRule type="dataBar" priority="561">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8192,18 +8514,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="89" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="308" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="309" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="310" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="dataBar" priority="259">
+    <cfRule type="dataBar" priority="303">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8217,7 +8539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="dataBar" priority="256">
+    <cfRule type="dataBar" priority="300">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8231,7 +8553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="255">
+    <cfRule type="dataBar" priority="299">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8245,7 +8567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G76 G81">
-    <cfRule type="dataBar" priority="254">
+    <cfRule type="dataBar" priority="298">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8259,7 +8581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="249">
+    <cfRule type="dataBar" priority="293">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8273,7 +8595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="248">
+    <cfRule type="dataBar" priority="292">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8287,18 +8609,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="86" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="289" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="290" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="291" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:G83 G73:G76">
-    <cfRule type="dataBar" priority="261">
+    <cfRule type="dataBar" priority="305">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8312,7 +8634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="dataBar" priority="262">
+    <cfRule type="dataBar" priority="306">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8326,7 +8648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G70 G59:G63">
-    <cfRule type="dataBar" priority="519">
+    <cfRule type="dataBar" priority="563">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8340,7 +8662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="dataBar" priority="521">
+    <cfRule type="dataBar" priority="565">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8354,7 +8676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="dataBar" priority="523">
+    <cfRule type="dataBar" priority="567">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8368,18 +8690,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="83" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="280" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="281" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="282" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="234">
+    <cfRule type="dataBar" priority="278">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8393,7 +8715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="233">
+    <cfRule type="dataBar" priority="277">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8407,18 +8729,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="80" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="274" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="275" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="276" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="dataBar" priority="222">
+    <cfRule type="dataBar" priority="266">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8432,7 +8754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="dataBar" priority="219">
+    <cfRule type="dataBar" priority="263">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8446,7 +8768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G88 G94">
-    <cfRule type="dataBar" priority="217">
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8460,7 +8782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8474,7 +8796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="214">
+    <cfRule type="dataBar" priority="258">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8488,29 +8810,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="77" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="255" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="256" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="257" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="74" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="240" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="241" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="242" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="194">
+    <cfRule type="dataBar" priority="238">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8524,7 +8846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="193">
+    <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8538,40 +8860,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="71" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="234" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="235" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="236" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="68" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="230" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="231" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="232" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="65" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="224" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="225" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="226" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8585,7 +8907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104">
-    <cfRule type="dataBar" priority="169">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8599,7 +8921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G88 G94:G96">
-    <cfRule type="dataBar" priority="526">
+    <cfRule type="dataBar" priority="570">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8613,7 +8935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96">
-    <cfRule type="dataBar" priority="528">
+    <cfRule type="dataBar" priority="572">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8627,7 +8949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:G96">
-    <cfRule type="dataBar" priority="530">
+    <cfRule type="dataBar" priority="574">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8641,7 +8963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="dataBar" priority="531">
+    <cfRule type="dataBar" priority="575">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8655,18 +8977,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="62" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="184" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="185" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="186" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G105">
-    <cfRule type="dataBar" priority="540">
+    <cfRule type="dataBar" priority="584">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8680,18 +9002,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D93 D78:D80 D51:D53 D35:D37">
-    <cfRule type="cellIs" dxfId="59" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="177" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="178" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="179" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:G93 G78:G80">
-    <cfRule type="dataBar" priority="131">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8705,7 +9027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:G93 G78:G80">
-    <cfRule type="dataBar" priority="132">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8719,29 +9041,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="56" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="172" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="173" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="174" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="53" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="169" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="170" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="171" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="123">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8755,7 +9077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="122">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8769,18 +9091,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="50" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="163" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="164" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="165" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8794,7 +9116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113">
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8808,7 +9130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114">
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8822,7 +9144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:G114">
-    <cfRule type="dataBar" priority="105">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8836,7 +9158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G109:G114">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8850,7 +9172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="dataBar" priority="548">
+    <cfRule type="dataBar" priority="592">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8864,7 +9186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104:G105">
-    <cfRule type="dataBar" priority="549">
+    <cfRule type="dataBar" priority="593">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8878,7 +9200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G103">
-    <cfRule type="dataBar" priority="558">
+    <cfRule type="dataBar" priority="602">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8892,7 +9214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99:G105">
-    <cfRule type="dataBar" priority="562">
+    <cfRule type="dataBar" priority="606">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8906,7 +9228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G109:G112">
-    <cfRule type="dataBar" priority="579">
+    <cfRule type="dataBar" priority="623">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8920,7 +9242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:G114">
-    <cfRule type="dataBar" priority="581">
+    <cfRule type="dataBar" priority="625">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8934,29 +9256,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="47" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="130" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="131" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="132" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="44" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="127" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="128" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="129" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8970,7 +9292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8984,29 +9306,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="41" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="121" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="122" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="123" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116:D124">
-    <cfRule type="cellIs" dxfId="38" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="115" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="116" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="117" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G116">
-    <cfRule type="dataBar" priority="66">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9020,7 +9342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9034,7 +9356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G118:G122">
-    <cfRule type="dataBar" priority="74">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9048,7 +9370,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:G124">
-    <cfRule type="dataBar" priority="75">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9062,7 +9384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9076,7 +9398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9090,7 +9412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9104,7 +9426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:G121">
-    <cfRule type="dataBar" priority="46">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9118,7 +9440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:G121">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9132,29 +9454,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="86" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="87" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="88" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="83" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="84" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="85" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9168,7 +9490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9182,29 +9504,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="77" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="78" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="79" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D126:D134">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G126">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9217,8 +9528,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G133">
-    <cfRule type="dataBar" priority="20">
+  <conditionalFormatting sqref="G132">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9231,8 +9542,365 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G131">
+    <cfRule type="dataBar" priority="74">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2301BD64-2567-4655-8CCE-246C98DB5DF6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="dataBar" priority="628">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F673DC5-0CBD-4E27-9A90-91A1532CF8EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123:G124">
+    <cfRule type="dataBar" priority="629">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDA6869A-6196-4EF5-A812-2B9A66F8BDD8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117:G124">
+    <cfRule type="dataBar" priority="630">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AB576218-3E27-4B57-A581-84F9E1456F8E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="40" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G134">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F3C0D64-CA51-476C-8D62-9B03A265F5C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6CD7A3CB-AA45-4AFB-809C-C271876D36F8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135:D143">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F9D9A3B-90FB-45BB-9A96-A2292AB7FAC0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G142">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB6EC7FE-EE5D-4B08-9111-61BAFF66EBD6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
     <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58358DE5-A13D-4B67-A02E-84AB0BBAA8BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G142:G143">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A9E0DAF6-3EB0-4F87-856C-67433922DD01}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136:G143">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4A63F03-5F6D-412F-B206-4E2D23A02566}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G137:G141">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CE397303-B022-496C-9463-426A25BA3E29}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136:G143">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{32ECE442-B666-4E5D-A027-2FFC369087F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73426A7C-E518-448B-9066-0E2BC74F2EF0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{57406E03-F7ED-4A66-8DA2-5B0408AD3039}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24A7E220-EDC9-4D4B-BB6C-F459981143C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136:G140">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2707E54F-C2BC-42AE-9DC1-F92844484CA4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136:G140">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9ED8C728-581A-4D1C-8B57-5ECEEAEFC08B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AF9E96E6-CABC-4943-B05B-6DB1CA902875}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3DD28CF9-9CEC-423E-BD13-41AAB49AA1AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="dataBar" priority="632">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9245,8 +9913,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G133:G134">
-    <cfRule type="dataBar" priority="19">
+  <conditionalFormatting sqref="G132:G133">
+    <cfRule type="dataBar" priority="633">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9259,92 +9927,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G134">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{47E8B1B6-C4DC-4600-B7EA-B3A32492FDF8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G128:G132">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2301BD64-2567-4655-8CCE-246C98DB5DF6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G134">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FCAE0FA4-6D37-4BB6-8E0C-CD9CF4014387}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5AD7BC91-E11D-4D84-B1BA-BE37D7881155}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7D1C978D-FFEA-4D45-BA53-6663BC3A8707}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E9253EE-2D2F-4072-8372-A6FAEBC76E06}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G131">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="G127:G130">
+    <cfRule type="dataBar" priority="643">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9357,8 +9941,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G131">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="G127:G133">
+    <cfRule type="dataBar" priority="645">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9366,110 +9950,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{191121B7-1D43-43A2-B7F1-A8374029795B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G135">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B4884DAD-4C4F-4926-B45E-F96B91808C77}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G135">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6152F1D4-426F-4CA9-9E49-ACFA29E98C3E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="dataBar" priority="584">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9F673DC5-0CBD-4E27-9A90-91A1532CF8EF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123:G124">
-    <cfRule type="dataBar" priority="585">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FDA6869A-6196-4EF5-A812-2B9A66F8BDD8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117:G124">
-    <cfRule type="dataBar" priority="586">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AB576218-3E27-4B57-A581-84F9E1456F8E}</x14:id>
+          <x14:id>{47E8B1B6-C4DC-4600-B7EA-B3A32492FDF8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9486,16 +9967,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D135">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D144">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C135">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C144">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G135">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G144">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F135">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F144">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -10722,7 +11203,1596 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G133</xm:sqref>
+          <xm:sqref>G132</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2301BD64-2567-4655-8CCE-246C98DB5DF6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127:G131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F673DC5-0CBD-4E27-9A90-91A1532CF8EF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FDA6869A-6196-4EF5-A812-2B9A66F8BDD8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G123:G124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AB576218-3E27-4B57-A581-84F9E1456F8E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G117:G124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="465" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="536" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H5:H12 H15:H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="461" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="459" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="457" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="455" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="446" id="{DB40E23A-4955-4431-9D71-245224111316}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="442" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="444" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H30:H33 H35:H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="440" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="540" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="428" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="422" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="416" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="411" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="399" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="395" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="397" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H45:H48 H51:H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="374" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="542" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H17:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="545" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="362" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="347" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="343" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="345" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H65:H68 H59:H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="334" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="552" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="562" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="304" id="{E688FAB8-B424-4796-9349-26D597696460}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H72</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="301" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="302" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H78:H81 H73:H76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="294" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="307" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="566" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H70</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="569" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="279" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="267" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H85</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="264" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="265" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H91:H94 H86:H88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="260" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="239" id="{A824115C-A50E-4989-B554-7048899EEC61}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="217" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="214" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="573" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="577" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="182" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="168" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="154" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="152" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H113</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="156" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="145" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="595" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="608" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H100:H103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="627" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H109:H112</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="126" id="{A308E5E6-A658-4221-B31A-F89435044FE7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="111" id="{E69AB2D9-A0AA-4F2A-AC85-DA276E8AC646}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="109" id="{5F170627-2D69-455F-B4C8-636F1A186F85}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H123</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="106" id="{CC312E0C-E867-44B0-A255-EB5324547AD4}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="120" id="{16BDAC98-D542-4021-83AA-0894FCD4480E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H118:H122</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="82" id="{E93164F3-4F27-485B-8FDA-237C117384E2}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H125</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="67" id="{FBFB31B8-38F6-4D64-BBBA-758CDACDAEC1}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H126</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="65" id="{3AE452B4-CD3E-42A3-9669-0F4D8E6DBF85}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H132</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="76" id="{47C311DD-02DF-4A81-81EF-422B8200C284}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H127:H131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="631" id="{554332C0-03DC-4AD1-8DA4-219B49F76E65}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1F3C0D64-CA51-476C-8D62-9B03A265F5C6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6CD7A3CB-AA45-4AFB-809C-C271876D36F8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="38" id="{9C81B131-490D-4596-8C48-073E09769E97}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F9D9A3B-90FB-45BB-9A96-A2292AB7FAC0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G135</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CB6EC7FE-EE5D-4B08-9111-61BAFF66EBD6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G142</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58358DE5-A13D-4B67-A02E-84AB0BBAA8BA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G143</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A9E0DAF6-3EB0-4F87-856C-67433922DD01}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G142:G143</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4A63F03-5F6D-412F-B206-4E2D23A02566}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G136:G143</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CE397303-B022-496C-9463-426A25BA3E29}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G137:G141</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{32ECE442-B666-4E5D-A027-2FFC369087F1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G136:G143</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{73426A7C-E518-448B-9066-0E2BC74F2EF0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G136</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{57406E03-F7ED-4A66-8DA2-5B0408AD3039}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G136</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24A7E220-EDC9-4D4B-BB6C-F459981143C5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G136</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2707E54F-C2BC-42AE-9DC1-F92844484CA4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G136:G140</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9ED8C728-581A-4D1C-8B57-5ECEEAEFC08B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G136:G140</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="23" id="{5142B712-C343-4D30-BF6E-1CF6A6C891CE}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H135</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="21" id="{8377D6FC-9B87-403E-85B8-D5D6734AE36B}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H142</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="25" id="{00BC4154-758F-41A0-820E-B16D5052F224}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H143</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{B9DC93D7-8BDA-4CC1-A5C4-EBEA5B1B5B1B}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H136</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="32" id="{5DD57C2D-8B31-45BB-8CD2-35C3202AB6E9}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H137:H141</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AF9E96E6-CABC-4943-B05B-6DB1CA902875}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G144</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3DD28CF9-9CEC-423E-BD13-41AAB49AA1AD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G144</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{908F91BF-1D8C-48CB-B97A-9AC461660181}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{33D3812D-3183-4CEE-96DC-DDE9DF480DFA}">
@@ -10734,7 +12804,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G134</xm:sqref>
+          <xm:sqref>G133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0102CEFD-D7F8-49BC-83BF-68CBB2069CBE}">
@@ -10746,7 +12816,38 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G133:G134</xm:sqref>
+          <xm:sqref>G132:G133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="636" id="{F28B2C17-11B5-4224-893A-6A71677FCFF5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BD3E7F73-9ED3-4141-8CF7-E530F47EDEC2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127:G130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{47E8B1B6-C4DC-4600-B7EA-B3A32492FDF8}">
@@ -10758,1424 +12859,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G127:G134</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2301BD64-2567-4655-8CCE-246C98DB5DF6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G128:G132</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FCAE0FA4-6D37-4BB6-8E0C-CD9CF4014387}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G127:G134</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5AD7BC91-E11D-4D84-B1BA-BE37D7881155}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G127</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7D1C978D-FFEA-4D45-BA53-6663BC3A8707}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G127</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8E9253EE-2D2F-4072-8372-A6FAEBC76E06}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G127</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BD3E7F73-9ED3-4141-8CF7-E530F47EDEC2}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G127:G131</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{191121B7-1D43-43A2-B7F1-A8374029795B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G127:G131</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B4884DAD-4C4F-4926-B45E-F96B91808C77}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G135</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6152F1D4-426F-4CA9-9E49-ACFA29E98C3E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G135</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9F673DC5-0CBD-4E27-9A90-91A1532CF8EF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FDA6869A-6196-4EF5-A812-2B9A66F8BDD8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G123:G124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB576218-3E27-4B57-A581-84F9E1456F8E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor theme="3" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G117:G124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="421" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="492" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H5:H12 H15:H16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="417" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="415" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="413" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="411" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="402" id="{DB40E23A-4955-4431-9D71-245224111316}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="398" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="400" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H30:H33 H35:H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="396" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="496" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="384" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="378" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="372" id="{9C071051-09D3-47FD-B263-7164F1337403}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="367" id="{67EF7A37-F542-4178-9F13-936880230B01}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="355" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="351" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="353" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H45:H48 H51:H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="330" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="498" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H17:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="501" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="318" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="303" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="299" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="301" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H65:H68 H59:H63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="290" id="{B287672E-9797-4B22-A572-AC10C293B364}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="508" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="518" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="260" id="{E688FAB8-B424-4796-9349-26D597696460}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="257" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="258" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H78:H81 H73:H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="250" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="263" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="522" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="525" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="235" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="223" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="220" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="221" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H91:H94 H86:H88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="216" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="195" id="{A824115C-A50E-4989-B554-7048899EEC61}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="173" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="170" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="529" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="533" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="138" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="124" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="110" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="108" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="112" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="101" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="551" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="564" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H100:H103</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="583" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H109:H112</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="82" id="{A308E5E6-A658-4221-B31A-F89435044FE7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{E69AB2D9-A0AA-4F2A-AC85-DA276E8AC646}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="65" id="{5F170627-2D69-455F-B4C8-636F1A186F85}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H123</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="62" id="{CC312E0C-E867-44B0-A255-EB5324547AD4}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="76" id="{16BDAC98-D542-4021-83AA-0894FCD4480E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H118:H122</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{E93164F3-4F27-485B-8FDA-237C117384E2}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H125</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{FBFB31B8-38F6-4D64-BBBA-758CDACDAEC1}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H126</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{3AE452B4-CD3E-42A3-9669-0F4D8E6DBF85}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H133</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{F28B2C17-11B5-4224-893A-6A71677FCFF5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H134</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{64995B7B-4F1B-40E1-A00D-F559C84D4C1C}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H127</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{47C311DD-02DF-4A81-81EF-422B8200C284}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H128:H132</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{A42ECB16-1452-476F-AF09-48DC2E012361}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H135</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="587" id="{554332C0-03DC-4AD1-8DA4-219B49F76E65}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H124</xm:sqref>
+          <xm:sqref>G127:G133</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12509,13 +13193,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D11">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12894,13 +13578,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D9">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To-do-list.xlsx
+++ b/To-do-list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="125">
   <si>
     <t>Task</t>
   </si>
@@ -1231,6 +1231,57 @@
       <t>1h</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: Strings (11/11)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Knee Push-up: 25 rep (times: 1)
+Push-up: 8 rep (times: 4)
+Plank: 2 minutes second (times: 3)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java: BigDecimal (1/3)
+Problem_Solving: Implementation (2/66)
+Estimate: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Century Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1699,7 +1750,70 @@
     <cellStyle name="Percent" xfId="12" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="149">
+  <dxfs count="158">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2816,22 +2930,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="To Do List" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="To Do List" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="148"/>
-      <tableStyleElement type="headerRow" dxfId="147"/>
-      <tableStyleElement type="secondRowStripe" dxfId="146"/>
+      <tableStyleElement type="wholeTable" dxfId="157"/>
+      <tableStyleElement type="headerRow" dxfId="156"/>
+      <tableStyleElement type="secondRowStripe" dxfId="155"/>
     </tableStyle>
     <tableStyle name="To Do List Pivot" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="145"/>
-      <tableStyleElement type="totalRow" dxfId="144"/>
-      <tableStyleElement type="firstRowStripe" dxfId="143"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="142"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="141"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="140"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="139"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="138"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="137"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="136"/>
-      <tableStyleElement type="pageFieldValues" dxfId="135"/>
+      <tableStyleElement type="headerRow" dxfId="154"/>
+      <tableStyleElement type="totalRow" dxfId="153"/>
+      <tableStyleElement type="firstRowStripe" dxfId="152"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="151"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="150"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="149"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="148"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="147"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="146"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="145"/>
+      <tableStyleElement type="pageFieldValues" dxfId="144"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3266,25 +3380,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I144" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B3:I144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ToDoList" displayName="ToDoList" ref="B3:I153" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B3:I153">
     <filterColumn colId="3">
       <filters>
-        <dateGroupItem year="2018" month="8" day="27" dateTimeGrouping="day"/>
-        <dateGroupItem year="2018" month="8" day="28" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="29" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="8" day="30" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="134" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="143" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="133" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Start Date " dataDxfId="132" dataCellStyle="Date"/>
-    <tableColumn id="7" name="Due Date " dataDxfId="131" dataCellStyle="Date">
+    <tableColumn id="4" name="Status " dataDxfId="142" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Start Date " dataDxfId="141" dataCellStyle="Date"/>
+    <tableColumn id="7" name="Due Date " dataDxfId="140" dataCellStyle="Date">
       <calculatedColumnFormula>ToDoList[[#This Row],[Start Date ]]+0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Done/Overdue?" dataDxfId="130" dataCellStyle="Done/Overdue">
+    <tableColumn id="9" name="Done/Overdue?" dataDxfId="139" dataCellStyle="Done/Overdue">
       <calculatedColumnFormula>IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Notes" dataCellStyle="Normal"/>
@@ -3302,9 +3416,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ToDoList2" displayName="ToDoList2" ref="B3:I11" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="129" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="138" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="128" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="137" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -3326,9 +3440,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ToDoList3" displayName="ToDoList3" ref="B3:I9" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B3:I9"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Task" dataDxfId="127" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Task" dataDxfId="136" dataCellStyle="Normal"/>
     <tableColumn id="3" name="Priority " dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Status " dataDxfId="126" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Status " dataDxfId="135" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Start Date " dataCellStyle="Date"/>
     <tableColumn id="7" name="Due Date " dataCellStyle="Date"/>
     <tableColumn id="5" name="% Complete" dataCellStyle="Percent"/>
@@ -3647,10 +3761,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
@@ -6925,7 +7039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="116" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A116" s="57"/>
       <c r="B116" s="9" t="s">
         <v>100</v>
@@ -6952,7 +7066,7 @@
       </c>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" ht="30" customHeight="1">
+    <row r="117" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A117" s="58"/>
       <c r="B117" s="9" t="s">
         <v>13</v>
@@ -6981,7 +7095,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="60">
+    <row r="118" spans="1:9" ht="60" hidden="1">
       <c r="A118" s="58"/>
       <c r="B118" s="9" t="s">
         <v>106</v>
@@ -7010,7 +7124,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="28.5">
+    <row r="119" spans="1:9" ht="28.5" hidden="1">
       <c r="A119" s="58"/>
       <c r="B119" s="28" t="s">
         <v>52</v>
@@ -7039,7 +7153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" customHeight="1">
+    <row r="120" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A120" s="58"/>
       <c r="B120" s="9" t="s">
         <v>17</v>
@@ -7068,7 +7182,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="45">
+    <row r="121" spans="1:9" ht="45" hidden="1">
       <c r="A121" s="58"/>
       <c r="B121" s="28" t="s">
         <v>108</v>
@@ -7097,7 +7211,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="30" customHeight="1">
+    <row r="122" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A122" s="58"/>
       <c r="B122" s="9" t="s">
         <v>19</v>
@@ -7126,7 +7240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="45">
+    <row r="123" spans="1:9" ht="45" hidden="1">
       <c r="A123" s="58"/>
       <c r="B123" s="9" t="s">
         <v>20</v>
@@ -7155,7 +7269,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="30" customHeight="1">
+    <row r="124" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A124" s="58"/>
       <c r="B124" s="9" t="s">
         <v>21</v>
@@ -7184,7 +7298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="125" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A125" s="59"/>
       <c r="B125" s="15" t="s">
         <v>23</v>
@@ -7213,7 +7327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="126" spans="1:9" s="11" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A126" s="60"/>
       <c r="B126" s="9" t="s">
         <v>100</v>
@@ -7240,7 +7354,7 @@
       </c>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" ht="60">
+    <row r="127" spans="1:9" ht="60" hidden="1">
       <c r="A127" s="29"/>
       <c r="B127" s="9" t="s">
         <v>106</v>
@@ -7269,7 +7383,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="28.5">
+    <row r="128" spans="1:9" ht="28.5" hidden="1">
       <c r="A128" s="29"/>
       <c r="B128" s="28" t="s">
         <v>52</v>
@@ -7298,7 +7412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="30" customHeight="1">
+    <row r="129" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A129" s="29"/>
       <c r="B129" s="9" t="s">
         <v>17</v>
@@ -7321,13 +7435,13 @@
       </c>
       <c r="H129" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="45">
+    <row r="130" spans="1:9" ht="45" hidden="1">
       <c r="A130" s="29"/>
       <c r="B130" s="28" t="s">
         <v>108</v>
@@ -7350,13 +7464,13 @@
       </c>
       <c r="H130" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="30" customHeight="1">
+    <row r="131" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A131" s="29"/>
       <c r="B131" s="9" t="s">
         <v>19</v>
@@ -7379,13 +7493,13 @@
       </c>
       <c r="H131" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="45">
+    <row r="132" spans="1:9" ht="45" hidden="1">
       <c r="A132" s="29"/>
       <c r="B132" s="9" t="s">
         <v>20</v>
@@ -7408,13 +7522,13 @@
       </c>
       <c r="H132" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I132" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="30" customHeight="1">
+    <row r="133" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A133" s="29"/>
       <c r="B133" s="9" t="s">
         <v>21</v>
@@ -7443,7 +7557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="134" spans="1:9" s="21" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A134" s="30"/>
       <c r="B134" s="15" t="s">
         <v>23</v>
@@ -7481,7 +7595,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E135" s="13">
         <v>43341</v>
@@ -7491,24 +7605,24 @@
         <v>43341</v>
       </c>
       <c r="G135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I135" s="5"/>
     </row>
-    <row r="136" spans="1:9" ht="30" customHeight="1">
+    <row r="136" spans="1:9" ht="60">
       <c r="A136" s="35"/>
       <c r="B136" s="9" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E136" s="13">
         <v>43341</v>
@@ -7518,43 +7632,43 @@
         <v>43341</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="60">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="28.5" customHeight="1">
       <c r="A137" s="35"/>
-      <c r="B137" s="9" t="s">
-        <v>106</v>
+      <c r="B137" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E137" s="13">
         <v>43341</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="43">
         <f>ToDoList[[#This Row],[Start Date ]]+0</f>
         <v>43341</v>
       </c>
       <c r="G137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="28.5">
@@ -7566,7 +7680,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E138" s="13">
         <v>43341</v>
@@ -7576,11 +7690,11 @@
         <v>43341</v>
       </c>
       <c r="G138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>75</v>
@@ -7595,7 +7709,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E139" s="13">
         <v>43341</v>
@@ -7615,7 +7729,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="45">
+    <row r="140" spans="1:9">
       <c r="A140" s="35"/>
       <c r="B140" s="28" t="s">
         <v>108</v>
@@ -7624,7 +7738,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E140" s="13">
         <v>43341</v>
@@ -7634,14 +7748,14 @@
         <v>43341</v>
       </c>
       <c r="G140" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="30" customHeight="1">
@@ -7653,7 +7767,7 @@
         <v>7</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E141" s="13">
         <v>43341</v>
@@ -7682,7 +7796,7 @@
         <v>7</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="E142" s="13">
         <v>43341</v>
@@ -7711,7 +7825,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E143" s="13">
         <v>43341</v>
@@ -7721,11 +7835,11 @@
         <v>43341</v>
       </c>
       <c r="G143" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" s="7">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>62</v>
@@ -7740,7 +7854,7 @@
         <v>8</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E144" s="23">
         <v>43341</v>
@@ -7750,13 +7864,272 @@
         <v>43341</v>
       </c>
       <c r="G144" s="19">
+        <v>1</v>
+      </c>
+      <c r="H144" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I144" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A145" s="31"/>
+      <c r="B145" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F145" s="1">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G145" s="3">
         <v>0</v>
       </c>
-      <c r="H144" s="20">
+      <c r="H145" s="10">
         <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="I144" s="16" t="s">
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" ht="60">
+      <c r="A146" s="32"/>
+      <c r="B146" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F146" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="28.5">
+      <c r="A147" s="32"/>
+      <c r="B147" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F147" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="30" customHeight="1">
+      <c r="A148" s="32"/>
+      <c r="B148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F148" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="45">
+      <c r="A149" s="32"/>
+      <c r="B149" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F149" s="43">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="30" customHeight="1">
+      <c r="A150" s="32"/>
+      <c r="B150" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F150" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="45">
+      <c r="A151" s="32"/>
+      <c r="B151" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F151" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="30" customHeight="1">
+      <c r="A152" s="32"/>
+      <c r="B152" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F152" s="6">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="7">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A153" s="33"/>
+      <c r="B153" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="23">
+        <v>43342</v>
+      </c>
+      <c r="F153" s="18">
+        <f>ToDoList[[#This Row],[Start Date ]]+0</f>
+        <v>43342</v>
+      </c>
+      <c r="G153" s="19">
+        <v>0</v>
+      </c>
+      <c r="H153" s="20">
+        <f ca="1">IF(AND(ToDoList[[#This Row],[Status ]]="Complete",ToDoList[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList[[#This Row],[Due Date ]]),-1,IF(AND(ToDoList[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList[[#This Row],[Due Date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="I153" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7766,7 +8139,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G13">
-    <cfRule type="dataBar" priority="464">
+    <cfRule type="dataBar" priority="515">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7780,7 +8153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12 G15">
-    <cfRule type="dataBar" priority="534">
+    <cfRule type="dataBar" priority="585">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7794,7 +8167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="dataBar" priority="460">
+    <cfRule type="dataBar" priority="511">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7808,7 +8181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="dataBar" priority="458">
+    <cfRule type="dataBar" priority="509">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7822,7 +8195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="dataBar" priority="456">
+    <cfRule type="dataBar" priority="507">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7836,7 +8209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="dataBar" priority="454">
+    <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7850,7 +8223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="453">
+    <cfRule type="dataBar" priority="504">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7864,7 +8237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="452">
+    <cfRule type="dataBar" priority="503">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7878,7 +8251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G24">
-    <cfRule type="dataBar" priority="451">
+    <cfRule type="dataBar" priority="502">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7892,7 +8265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="dataBar" priority="445">
+    <cfRule type="dataBar" priority="496">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7906,7 +8279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="441">
+    <cfRule type="dataBar" priority="492">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7920,7 +8293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G40">
-    <cfRule type="dataBar" priority="443">
+    <cfRule type="dataBar" priority="494">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7934,7 +8307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="439">
+    <cfRule type="dataBar" priority="490">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7948,7 +8321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="dataBar" priority="438">
+    <cfRule type="dataBar" priority="489">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7962,7 +8335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G33 G35:G38">
-    <cfRule type="dataBar" priority="437">
+    <cfRule type="dataBar" priority="488">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7976,7 +8349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="539">
+    <cfRule type="dataBar" priority="590">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7989,19 +8362,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D81:D83 D94:D96 D98:D105 D107:D114 D126:D133">
-    <cfRule type="cellIs" dxfId="125" priority="433" operator="equal">
+  <conditionalFormatting sqref="D4:D26 D28:D33 D72:D77 D38:D40 D85:D88 D90 D81:D83 D94:D96 D98:D105 D107:D114 D126:D133 D135:D136 D138:D143 D145:D152">
+    <cfRule type="cellIs" dxfId="134" priority="484" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="485" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="486" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="429">
+    <cfRule type="dataBar" priority="480">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8015,7 +8388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="dataBar" priority="427">
+    <cfRule type="dataBar" priority="478">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8029,18 +8402,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="122" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="475" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="476" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="477" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="423">
+    <cfRule type="dataBar" priority="474">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8054,7 +8427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="dataBar" priority="421">
+    <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8068,18 +8441,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="119" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="469" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="470" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="471" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="417">
+    <cfRule type="dataBar" priority="468">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8093,7 +8466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="dataBar" priority="415">
+    <cfRule type="dataBar" priority="466">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8107,18 +8480,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="116" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="463" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="464" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="465" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="410">
+    <cfRule type="dataBar" priority="461">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8132,7 +8505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="dataBar" priority="409">
+    <cfRule type="dataBar" priority="460">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8146,29 +8519,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="113" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="457" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="458" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="459" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="110" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="451" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="452" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="453" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="dataBar" priority="398">
+    <cfRule type="dataBar" priority="449">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8182,7 +8555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="dataBar" priority="394">
+    <cfRule type="dataBar" priority="445">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8196,7 +8569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="dataBar" priority="391">
+    <cfRule type="dataBar" priority="442">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8210,7 +8583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G54">
-    <cfRule type="dataBar" priority="390">
+    <cfRule type="dataBar" priority="441">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8224,18 +8597,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D48 D54:D56">
-    <cfRule type="cellIs" dxfId="107" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="438" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="439" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="440" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="373">
+    <cfRule type="dataBar" priority="424">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8249,7 +8622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="dataBar" priority="372">
+    <cfRule type="dataBar" priority="423">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8263,18 +8636,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="104" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="420" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="421" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="422" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G26">
-    <cfRule type="dataBar" priority="541">
+    <cfRule type="dataBar" priority="592">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8288,7 +8661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="dataBar" priority="543">
+    <cfRule type="dataBar" priority="594">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8302,7 +8675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="361">
+    <cfRule type="dataBar" priority="412">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8316,7 +8689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="dataBar" priority="360">
+    <cfRule type="dataBar" priority="411">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8330,29 +8703,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="101" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="408" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="409" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="410" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="98" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="399" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="400" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="401" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="dataBar" priority="346">
+    <cfRule type="dataBar" priority="397">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8366,7 +8739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69">
-    <cfRule type="dataBar" priority="342">
+    <cfRule type="dataBar" priority="393">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8380,7 +8753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="dataBar" priority="339">
+    <cfRule type="dataBar" priority="390">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8394,7 +8767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G68 G59:G63">
-    <cfRule type="dataBar" priority="338">
+    <cfRule type="dataBar" priority="389">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8408,18 +8781,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D63 D65:D70">
-    <cfRule type="cellIs" dxfId="95" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="386" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="387" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="388" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="333">
+    <cfRule type="dataBar" priority="384">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8433,7 +8806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="dataBar" priority="332">
+    <cfRule type="dataBar" priority="383">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8447,18 +8820,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="92" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="380" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="381" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="382" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="550">
+    <cfRule type="dataBar" priority="601">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8472,7 +8845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="dataBar" priority="551">
+    <cfRule type="dataBar" priority="602">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8486,7 +8859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G48 G51:G56">
-    <cfRule type="dataBar" priority="559">
+    <cfRule type="dataBar" priority="610">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8500,7 +8873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="dataBar" priority="561">
+    <cfRule type="dataBar" priority="612">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8514,18 +8887,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="89" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="359" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="360" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="361" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72">
-    <cfRule type="dataBar" priority="303">
+    <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8539,7 +8912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="dataBar" priority="300">
+    <cfRule type="dataBar" priority="351">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8553,7 +8926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="dataBar" priority="299">
+    <cfRule type="dataBar" priority="350">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8567,7 +8940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G76 G81">
-    <cfRule type="dataBar" priority="298">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8581,7 +8954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="293">
+    <cfRule type="dataBar" priority="344">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8595,7 +8968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="dataBar" priority="292">
+    <cfRule type="dataBar" priority="343">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8609,18 +8982,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="86" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="340" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="341" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="342" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:G83 G73:G76">
-    <cfRule type="dataBar" priority="305">
+    <cfRule type="dataBar" priority="356">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8634,7 +9007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="dataBar" priority="306">
+    <cfRule type="dataBar" priority="357">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8648,7 +9021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G70 G59:G63">
-    <cfRule type="dataBar" priority="563">
+    <cfRule type="dataBar" priority="614">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8662,7 +9035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="dataBar" priority="565">
+    <cfRule type="dataBar" priority="616">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8676,7 +9049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="dataBar" priority="567">
+    <cfRule type="dataBar" priority="618">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8690,18 +9063,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="83" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="331" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="332" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="333" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="278">
+    <cfRule type="dataBar" priority="329">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8715,7 +9088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="dataBar" priority="277">
+    <cfRule type="dataBar" priority="328">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8729,18 +9102,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="80" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="325" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="326" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="327" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="dataBar" priority="266">
+    <cfRule type="dataBar" priority="317">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8754,7 +9127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="dataBar" priority="263">
+    <cfRule type="dataBar" priority="314">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8768,7 +9141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G88 G94">
-    <cfRule type="dataBar" priority="261">
+    <cfRule type="dataBar" priority="312">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8782,7 +9155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="259">
+    <cfRule type="dataBar" priority="310">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8796,7 +9169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90">
-    <cfRule type="dataBar" priority="258">
+    <cfRule type="dataBar" priority="309">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8810,29 +9183,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="77" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="306" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="307" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="308" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="74" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="291" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="292" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="293" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="238">
+    <cfRule type="dataBar" priority="289">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8846,7 +9219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="dataBar" priority="237">
+    <cfRule type="dataBar" priority="288">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8860,40 +9233,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="71" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="285" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="286" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="287" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="68" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="281" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="282" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="283" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="65" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="275" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="276" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="277" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="dataBar" priority="216">
+    <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8907,7 +9280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104">
-    <cfRule type="dataBar" priority="213">
+    <cfRule type="dataBar" priority="264">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8921,7 +9294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G88 G94:G96">
-    <cfRule type="dataBar" priority="570">
+    <cfRule type="dataBar" priority="621">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8935,7 +9308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96">
-    <cfRule type="dataBar" priority="572">
+    <cfRule type="dataBar" priority="623">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8949,7 +9322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95:G96">
-    <cfRule type="dataBar" priority="574">
+    <cfRule type="dataBar" priority="625">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8963,7 +9336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97">
-    <cfRule type="dataBar" priority="575">
+    <cfRule type="dataBar" priority="626">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8977,18 +9350,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="62" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="235" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="236" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="237" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G105">
-    <cfRule type="dataBar" priority="584">
+    <cfRule type="dataBar" priority="635">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9002,18 +9375,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:D93 D78:D80 D51:D53 D35:D37">
-    <cfRule type="cellIs" dxfId="59" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="228" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="229" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="230" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:G93 G78:G80">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="226">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9027,7 +9400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91:G93 G78:G80">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9041,29 +9414,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="56" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="223" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="224" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="225" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="53" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="220" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="221" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="222" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="218">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9077,7 +9450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106">
-    <cfRule type="dataBar" priority="166">
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9091,18 +9464,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="50" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="214" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="215" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="216" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="204">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9116,7 +9489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113">
-    <cfRule type="dataBar" priority="151">
+    <cfRule type="dataBar" priority="202">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9130,7 +9503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="206">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9144,7 +9517,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:G114">
-    <cfRule type="dataBar" priority="149">
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9158,7 +9531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G109:G114">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9172,7 +9545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="dataBar" priority="592">
+    <cfRule type="dataBar" priority="643">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9186,7 +9559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104:G105">
-    <cfRule type="dataBar" priority="593">
+    <cfRule type="dataBar" priority="644">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9200,7 +9573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G103">
-    <cfRule type="dataBar" priority="602">
+    <cfRule type="dataBar" priority="653">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9214,7 +9587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99:G105">
-    <cfRule type="dataBar" priority="606">
+    <cfRule type="dataBar" priority="657">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9228,7 +9601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G109:G112">
-    <cfRule type="dataBar" priority="623">
+    <cfRule type="dataBar" priority="674">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9242,7 +9615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G108:G114">
-    <cfRule type="dataBar" priority="625">
+    <cfRule type="dataBar" priority="676">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9256,29 +9629,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="47" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="181" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="182" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="183" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="44" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="178" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="179" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="180" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9292,7 +9665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G115">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9306,29 +9679,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="41" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="172" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="173" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="174" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116:D124">
-    <cfRule type="cellIs" dxfId="38" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="166" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="167" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="168" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G116">
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9342,7 +9715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9356,7 +9729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G118:G122">
-    <cfRule type="dataBar" priority="118">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9370,7 +9743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:G124">
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9384,7 +9757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9398,7 +9771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="91">
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9412,7 +9785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9426,7 +9799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:G121">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9440,7 +9813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:G121">
-    <cfRule type="dataBar" priority="89">
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9454,29 +9827,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="35" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="137" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="138" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="139" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="32" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="134" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="135" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="136" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9490,7 +9863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9504,18 +9877,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="29" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="128" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="129" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="130" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126">
-    <cfRule type="dataBar" priority="66">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9529,7 +9902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9543,7 +9916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G127:G131">
-    <cfRule type="dataBar" priority="74">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9557,7 +9930,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124">
-    <cfRule type="dataBar" priority="628">
+    <cfRule type="dataBar" priority="679">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9571,7 +9944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G123:G124">
-    <cfRule type="dataBar" priority="629">
+    <cfRule type="dataBar" priority="680">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9585,7 +9958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:G124">
-    <cfRule type="dataBar" priority="630">
+    <cfRule type="dataBar" priority="681">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9599,29 +9972,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134">
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="93" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="94" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="95" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134">
-    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="90" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="91" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="92" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9635,7 +10008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9649,29 +10022,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="84" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="85" operator="equal">
       <formula>"Deferred"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="86" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D135:D143">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G135">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9685,7 +10047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9698,8 +10060,270 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G138:G141 G136">
+    <cfRule type="dataBar" priority="81">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CE397303-B022-496C-9463-426A25BA3E29}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="dataBar" priority="683">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33D3812D-3183-4CEE-96DC-DDE9DF480DFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G132:G133">
+    <cfRule type="dataBar" priority="684">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0102CEFD-D7F8-49BC-83BF-68CBB2069CBE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G130">
+    <cfRule type="dataBar" priority="694">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BD3E7F73-9ED3-4141-8CF7-E530F47EDEC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G133">
+    <cfRule type="dataBar" priority="696">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{47E8B1B6-C4DC-4600-B7EA-B3A32492FDF8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="cellIs" dxfId="26" priority="49" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="50" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="51" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="48" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8ED9FE60-12D0-43E8-AA09-6EA3E4F8310B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FDEEAE07-22C8-4DDB-8D93-779A8BD664C3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D144">
+    <cfRule type="cellIs" dxfId="20" priority="40" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="41" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="42" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G145">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B2867639-160C-4371-A9C7-A09719DB9920}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G151">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EE503972-E830-481E-A524-BE58613BCCFB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G152">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2603DE93-8B38-4C52-8BA5-A8AF80BD7F8E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G151:G152">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{263F967C-1BB2-4515-960A-15837610A4DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G146:G150">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D4F7635-D495-4027-9296-F7EDDB9D0531}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G153">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4B058266-A610-463F-B747-77A048A05940}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G153">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D8AAD12C-251B-4ACC-B01A-1B57535C8A42}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G143">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="697">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9713,7 +10337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:G143">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="698">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9726,36 +10350,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G136:G143">
-    <cfRule type="dataBar" priority="26">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4A63F03-5F6D-412F-B206-4E2D23A02566}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G137:G141">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CE397303-B022-496C-9463-426A25BA3E29}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G136:G143">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="G138:G143 G136">
+    <cfRule type="dataBar" priority="707">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9768,50 +10364,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G136">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73426A7C-E518-448B-9066-0E2BC74F2EF0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G136">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{57406E03-F7ED-4A66-8DA2-5B0408AD3039}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G136">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24A7E220-EDC9-4D4B-BB6C-F459981143C5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G136:G140">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="G138:G140 G136">
+    <cfRule type="dataBar" priority="708">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9824,8 +10378,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G136:G140">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="D137">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Deferred"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G137">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9833,35 +10398,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ED8C728-581A-4D1C-8B57-5ECEEAEFC08B}</x14:id>
+          <x14:id>{88533CF8-16D7-4E6E-965F-8B6422087767}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G144">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="G137">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9869,13 +10412,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF9E96E6-CABC-4943-B05B-6DB1CA902875}</x14:id>
+          <x14:id>{094ADAEA-19A2-4196-BDB7-56153892204C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G144">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="G137">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9883,24 +10426,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3DD28CF9-9CEC-423E-BD13-41AAB49AA1AD}</x14:id>
+          <x14:id>{94DD498E-FA00-4CF3-8539-A1E5C78C9B3C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"Deferred"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G133">
-    <cfRule type="dataBar" priority="632">
+  <conditionalFormatting sqref="G146:G152">
+    <cfRule type="dataBar" priority="715">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9908,13 +10440,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33D3812D-3183-4CEE-96DC-DDE9DF480DFA}</x14:id>
+          <x14:id>{11C5F4B7-9BD5-4D4E-846F-C2BD73573480}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G132:G133">
-    <cfRule type="dataBar" priority="633">
+  <conditionalFormatting sqref="G146:G149">
+    <cfRule type="dataBar" priority="717">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9922,35 +10454,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0102CEFD-D7F8-49BC-83BF-68CBB2069CBE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G130">
-    <cfRule type="dataBar" priority="643">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BD3E7F73-9ED3-4141-8CF7-E530F47EDEC2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G133">
-    <cfRule type="dataBar" priority="645">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{47E8B1B6-C4DC-4600-B7EA-B3A32492FDF8}</x14:id>
+          <x14:id>{238F5D43-BDFF-455E-AB91-1C30FE38B4A3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9967,16 +10471,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. Flag indicates overdue tasks. Check mark indicates completed tasks" sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="I3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="I1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D144">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D4:D153">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C144">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C4:C153">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G144">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G4:G153">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F144">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F4:F153">
       <formula1>F4&gt;=E4</formula1>
     </dataValidation>
   </dataValidations>
@@ -11254,1222 +11758,6 @@
           <xm:sqref>G117:G124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="465" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="536" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H5:H12 H15:H16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="461" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="459" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="457" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="455" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="446" id="{DB40E23A-4955-4431-9D71-245224111316}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="442" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="444" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H30:H33 H35:H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="440" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="540" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="428" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="422" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="416" id="{9C071051-09D3-47FD-B263-7164F1337403}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="411" id="{67EF7A37-F542-4178-9F13-936880230B01}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="399" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="395" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="397" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H45:H48 H51:H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="374" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="542" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H17:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="545" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="362" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="347" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="343" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="345" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H65:H68 H59:H63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="334" id="{B287672E-9797-4B22-A572-AC10C293B364}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="552" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="562" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="304" id="{E688FAB8-B424-4796-9349-26D597696460}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="301" id="{C94FA546-E9DD-4953-86AE-A02091E28F84}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="302" id="{E0B9E7FB-91F0-4D26-9D4A-22E369E7557E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H78:H81 H73:H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="294" id="{0D007B4E-D57E-499F-B7DB-50B6D7EBF309}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="307" id="{6C906BD9-C005-457D-A17B-2E59ED183D91}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="566" id="{F5C9411F-FE82-4163-A3F3-02AA6640A526}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="569" id="{05829C20-25E2-48BF-8E6E-B7D702770B8B}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="279" id="{ED7F2813-06B5-41F1-A3DD-BC27DF2C1959}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="267" id="{3B701010-5132-40BF-9683-BE85B8634B4C}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="264" id="{773737AE-F351-49BB-A592-3D1BB91D12A6}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="265" id="{0EE000DE-F12D-4F9C-91AD-6B685D383AD7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H91:H94 H86:H88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="260" id="{BC435293-12A2-4B7F-A154-3F2123E2CB43}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="239" id="{A824115C-A50E-4989-B554-7048899EEC61}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="217" id="{412D2F26-9A6C-4C21-8204-3E6A06BB9378}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="214" id="{F86FDF1F-9FBD-4742-A51C-B621FDD2E9DE}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="573" id="{8A98A69E-21B8-4A10-9FEA-A8413678CDE3}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="577" id="{96C9A605-3FA7-40D5-84AD-E3EE0B52D21D}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="182" id="{6785FF24-0E18-4F07-8476-C3F7309AA415}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="168" id="{3C9B952B-E40D-43E7-A2C7-3B4DD36A5979}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="154" id="{625682AE-1C72-4CEA-8F5D-02578DD2B5E5}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="152" id="{7786D4A0-CDF6-44A8-9451-34341F8EDB27}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="156" id="{F86EF1FA-1FFD-44CE-B15A-809AC4885B4F}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="145" id="{4D15DB1B-DF64-4C5F-8419-F118D0298345}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="595" id="{1C4AAD8F-CE2F-458E-BAFB-993B3F2AEB33}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="608" id="{293CD25F-F3B6-4E52-BB16-EB206B9F6555}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H100:H103</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="627" id="{382C499D-0A3C-4D97-9CC8-825827B46505}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H109:H112</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="126" id="{A308E5E6-A658-4221-B31A-F89435044FE7}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="111" id="{E69AB2D9-A0AA-4F2A-AC85-DA276E8AC646}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="109" id="{5F170627-2D69-455F-B4C8-636F1A186F85}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H123</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="106" id="{CC312E0C-E867-44B0-A255-EB5324547AD4}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="120" id="{16BDAC98-D542-4021-83AA-0894FCD4480E}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H118:H122</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="82" id="{E93164F3-4F27-485B-8FDA-237C117384E2}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H125</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{FBFB31B8-38F6-4D64-BBBA-758CDACDAEC1}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H126</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="65" id="{3AE452B4-CD3E-42A3-9669-0F4D8E6DBF85}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H132</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="76" id="{47C311DD-02DF-4A81-81EF-422B8200C284}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H127:H131</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="631" id="{554332C0-03DC-4AD1-8DA4-219B49F76E65}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1F3C0D64-CA51-476C-8D62-9B03A265F5C6}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -12494,25 +11782,6 @@
           <xm:sqref>G134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{9C81B131-490D-4596-8C48-073E09769E97}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H134</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F9D9A3B-90FB-45BB-9A96-A2292AB7FAC0}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="autoMin"/>
@@ -12537,6 +11806,1599 @@
           <xm:sqref>G142</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CE397303-B022-496C-9463-426A25BA3E29}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G138:G141 G136</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33D3812D-3183-4CEE-96DC-DDE9DF480DFA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0102CEFD-D7F8-49BC-83BF-68CBB2069CBE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G132:G133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BD3E7F73-9ED3-4141-8CF7-E530F47EDEC2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127:G130</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{47E8B1B6-C4DC-4600-B7EA-B3A32492FDF8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="3" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G127:G133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="516" id="{D58C9AD5-020C-4E28-985E-B181CC96FA90}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="587" id="{61976558-4184-4BD1-B78A-DCBE6FDA3BC9}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H5:H12 H15:H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="512" id="{032868CA-CD1C-4878-90F5-2564CB7D2A9A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="510" id="{93CD2B76-09FA-470F-8811-A92087091F5F}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="508" id="{A15C6004-8326-4EA7-8400-0C37F72D6618}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="506" id="{020E768F-FD22-4D71-923A-4A99F0EB1478}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="497" id="{DB40E23A-4955-4431-9D71-245224111316}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="493" id="{62D6B88B-9D21-4AA8-82AB-AB1D9A80D5AD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="495" id="{54A553CB-A96E-4643-88F1-00287D2492EB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H30:H33 H35:H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="491" id="{C4D4D045-1737-4500-8DB1-350E9D1DAC4E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="591" id="{012E7A78-88FC-45AD-90A6-5FE14AEB0375}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="479" id="{B628B036-0C77-45C8-B2C1-16CAA10B686A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="473" id="{D10AA92B-A68F-4B7A-96FE-EE2EC1B1AA78}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="467" id="{9C071051-09D3-47FD-B263-7164F1337403}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="462" id="{67EF7A37-F542-4178-9F13-936880230B01}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="450" id="{8EAFAC3A-71D3-4B5C-9647-7318437E0C05}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="446" id="{202ADCDE-AFA1-4EEE-A8B0-F470584B02D5}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="448" id="{F4C6F62B-0308-488D-94C4-7F59682BE079}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H45:H48 H51:H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="425" id="{64615C91-A772-46E4-87B6-08FAC9A97BCC}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="593" id="{E3312BF9-10E4-4CB0-8605-8F1AE1BDF30E}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H17:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="596" id="{35FB78C7-441F-4CC7-ADE8-F0AEEDA79EFB}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="413" id="{6054AFCD-3773-4E35-8F9A-B186D6314345}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="398" id="{F685DC2A-5921-4B6D-9606-A7414FED6940}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="394" id="{EEBAC912-9F34-466B-8FF3-D714EBA1418A}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="396" id="{FD6D9034-1C34-46B1-B76E-1F1D5559E0DD}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H65:H68 H59:H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="385" id="{B287672E-9797-4B22-A572-AC10C293B364}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="603" id="{F409F52A-A583-43C9-87ED-49C6D2A0D6E7}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="613" id="{1BA6382F-B860-403A-93FF-3BD35013D898}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="355" id="{E688FAB8-B424-4796-9349-26D597696460}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
